--- a/src/attributions/attributions_saliency_traj_491.xlsx
+++ b/src/attributions/attributions_saliency_traj_491.xlsx
@@ -1004,4554 +1004,4554 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05281883478164673</v>
+        <v>0.0006184637313708663</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1034043729305267</v>
+        <v>0.00476343184709549</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01246036775410175</v>
+        <v>0.0004146610735915601</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1989306658506393</v>
+        <v>0.0008941190899349749</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2190483957529068</v>
+        <v>0.002203565556555986</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01118456572294235</v>
+        <v>0.000329216243699193</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04876074194908142</v>
+        <v>0.0001714719692245126</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1064652353525162</v>
+        <v>0.0003311063919682056</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05964989215135574</v>
+        <v>0.0006215803441591561</v>
       </c>
       <c r="J2" t="n">
-        <v>0.003787679597735405</v>
+        <v>0.0003730700991582125</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1342933177947998</v>
+        <v>0.004438105039298534</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03301277011632919</v>
+        <v>0.0001182773194159381</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1635084450244904</v>
+        <v>0.001414765371009707</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1039896309375763</v>
+        <v>0.002428240841254592</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1036966443061829</v>
+        <v>0.0005920988041907549</v>
       </c>
       <c r="P2" t="n">
-        <v>0.05225776880979538</v>
+        <v>0.0001112626923713833</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06713541597127914</v>
+        <v>0.0007577817887067795</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1127542704343796</v>
+        <v>0.0001360984751954675</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02070270664989948</v>
+        <v>0.0004709229688160121</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02627337351441383</v>
+        <v>0.000754053529817611</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00721852807328105</v>
+        <v>0.0006423523300327361</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01205505803227425</v>
+        <v>0.0002372158196521923</v>
       </c>
       <c r="W2" t="n">
-        <v>0.08446933329105377</v>
+        <v>0.001034643151797354</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01101465430110693</v>
+        <v>0.0005914486246183515</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.009981932118535042</v>
+        <v>0.0004915328463539481</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.008483259938657284</v>
+        <v>0.0001590716710779816</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.04161573201417923</v>
+        <v>0.0005773656303063035</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0218677781522274</v>
+        <v>0.001114204642362893</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.03674884513020515</v>
+        <v>3.884226316586137e-06</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.006956527940928936</v>
+        <v>0.0007606126600876451</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.06826408952474594</v>
+        <v>0.0002388908615102991</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.007002429105341434</v>
+        <v>0.0004492599400691688</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.02355587482452393</v>
+        <v>0.0001453506120014936</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.05684784799814224</v>
+        <v>0.0003812822396866977</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.09678199142217636</v>
+        <v>2.801933442242444e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.1383356899023056</v>
+        <v>0.0002257270243717358</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.006653828546404839</v>
+        <v>0.000494409934617579</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.05086378753185272</v>
+        <v>0.0004363297775853425</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.05189153179526329</v>
+        <v>0.0003896235721185803</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0468563437461853</v>
+        <v>4.592168261297047e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.04771629720926285</v>
+        <v>0.0004696812247857451</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.04365529492497444</v>
+        <v>0.0002634513657540083</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.02881543152034283</v>
+        <v>0.0001434878795407712</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0520109161734581</v>
+        <v>8.726413943804801e-05</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.009004567749798298</v>
+        <v>0.0002160621515940875</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.04707273468375206</v>
+        <v>0.0006204246310517192</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.1772307008504868</v>
+        <v>0.003544360864907503</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.09417964518070221</v>
+        <v>0.0009590242989361286</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.1945928633213043</v>
+        <v>0.0004382229817565531</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.3879300355911255</v>
+        <v>0.0002601140004117042</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.08739897608757019</v>
+        <v>0.00111498567275703</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.01783258840441704</v>
+        <v>0.0005110308993607759</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0389421284198761</v>
+        <v>0.0002412261965218931</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.04369604215025902</v>
+        <v>0.0002735862508416176</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.002700424753129482</v>
+        <v>0.0006004564929753542</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.05963851884007454</v>
+        <v>0.0005661030299961567</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.0009998586028814316</v>
+        <v>0.001025664852932096</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.0222978163510561</v>
+        <v>0.0001167943773907609</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.1731687784194946</v>
+        <v>0.001659724395722151</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.09102587401866913</v>
+        <v>0.0005609479267150164</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.003452614415436983</v>
+        <v>0.0001409795368090272</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.01205134112387896</v>
+        <v>0.000484552641864866</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.05004613101482391</v>
+        <v>0.0001780775928637013</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.01348290964961052</v>
+        <v>0.0006287094438448548</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.03604179620742798</v>
+        <v>0.0006116490112617612</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0314398780465126</v>
+        <v>0.0001836331939557567</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.05245024710893631</v>
+        <v>7.840314356144518e-05</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.09516350924968719</v>
+        <v>0.0002172122185584158</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.03012207522988319</v>
+        <v>0.0005608773208223283</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0594758540391922</v>
+        <v>0.0001992060133488849</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.01687526889145374</v>
+        <v>0.0001780190214049071</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.01077687367796898</v>
+        <v>0.0004929237184114754</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.03974777460098267</v>
+        <v>0.0001998037478188053</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.05859661102294922</v>
+        <v>0.002019378356635571</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.01099874544888735</v>
+        <v>0.000196588400285691</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.1504022479057312</v>
+        <v>0.0002002307592192665</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.1276396512985229</v>
+        <v>0.0007421814952977002</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.06326618045568466</v>
+        <v>0.0005055477377027273</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.03131026774644852</v>
+        <v>7.328689389396459e-05</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.05016794055700302</v>
+        <v>0.0001402376219630241</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.003413238096982241</v>
+        <v>3.144872607663274e-06</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.01767127774655819</v>
+        <v>0.0002519027329981327</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.008542089723050594</v>
+        <v>0.0007227173773571849</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.01301909890025854</v>
+        <v>8.077397797023878e-05</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.02291891723871231</v>
+        <v>0.0001540024532005191</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.04955726116895676</v>
+        <v>0.0001075305990525521</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.03034469299018383</v>
+        <v>0.0001242550060851499</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.04452552646398544</v>
+        <v>0.0002408526925137267</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.003507157554849982</v>
+        <v>0.0001017292306642048</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.006768879014998674</v>
+        <v>7.478615589207038e-05</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.04894553124904633</v>
+        <v>0.0009851963259279728</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.05212799832224846</v>
+        <v>0.0006910686497576535</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.09017031639814377</v>
+        <v>0.0001202819184982218</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.04377123713493347</v>
+        <v>0.0002148928761016577</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.01246737129986286</v>
+        <v>0.00145762728061527</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.04024917632341385</v>
+        <v>0.001130081596784294</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.01363870874047279</v>
+        <v>0.0005575827672146261</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.09903828799724579</v>
+        <v>0.000866304209921509</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.02785705775022507</v>
+        <v>0.0003177698235958815</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.02180833742022514</v>
+        <v>0.0001957984350156039</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.005411598831415176</v>
+        <v>0.0007622389239259064</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.01584997773170471</v>
+        <v>0.0001124759437516332</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0205712579190731</v>
+        <v>0.0002649619127623737</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.03329194337129593</v>
+        <v>2.843650509021245e-05</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0426083579659462</v>
+        <v>0.000195275541045703</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.04399374127388</v>
+        <v>0.0001868744730018079</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.01187097933143377</v>
+        <v>0.0001259532291442156</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0008477259543724358</v>
+        <v>2.263063652208075e-05</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.05525527149438858</v>
+        <v>0.0002129757485818118</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.02507542818784714</v>
+        <v>0.0005583444726653397</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.1221934705972672</v>
+        <v>0.0003899338480550796</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.009650448337197304</v>
+        <v>0.001612175488844514</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.04988344386219978</v>
+        <v>0.001641806913539767</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.005953608080744743</v>
+        <v>0.0001784724881872535</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.1093754172325134</v>
+        <v>0.0003033822576981038</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.009098360314965248</v>
+        <v>0.0003771347401198</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.04820393770933151</v>
+        <v>0.0002759488997980952</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.04327169060707092</v>
+        <v>9.103197953663766e-06</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.05835846066474915</v>
+        <v>0.0008605067268945277</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.08264994621276855</v>
+        <v>0.0006332428310997784</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.003615079447627068</v>
+        <v>0.0002462833654135466</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.001576259732246399</v>
+        <v>0.0004635195073205978</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.002321081236004829</v>
+        <v>0.0003190543211530894</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.004717016592621803</v>
+        <v>0.0004816080327145755</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.05179961025714874</v>
+        <v>2.782748197205365e-06</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.06298040598630905</v>
+        <v>2.101414793287404e-05</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.03212112560868263</v>
+        <v>0.0004714967799372971</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.03873109817504883</v>
+        <v>0.0004510220605880022</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.003625278361141682</v>
+        <v>0.0005265235668048263</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.04894100874662399</v>
+        <v>0.0004873221332672983</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.02849653363227844</v>
+        <v>0.0001385943323839456</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0316295325756073</v>
+        <v>0.0006394952652044594</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.01275129895657301</v>
+        <v>0.0001288783096242696</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.04820504784584045</v>
+        <v>0.0004032015567645431</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.01007558777928352</v>
+        <v>8.118333062157035e-05</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.03822044283151627</v>
+        <v>0.0002009267918765545</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.006024072412401438</v>
+        <v>0.0009082063334062696</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.007364209741353989</v>
+        <v>0.0001120276720030233</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.02333450317382812</v>
+        <v>4.667410757974721e-05</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.002113053575158119</v>
+        <v>0.000688649364747107</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.04028687253594398</v>
+        <v>1.156340294983238e-05</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.04539727419614792</v>
+        <v>0.000169338847626932</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.008565554395318031</v>
+        <v>0.0002326948597328737</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.01428818702697754</v>
+        <v>9.615978342480958e-07</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.04207004979252815</v>
+        <v>0.0004128953150939196</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.01569655537605286</v>
+        <v>9.475857950747013e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.06419992446899414</v>
+        <v>0.0006554437568411231</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.05593525245785713</v>
+        <v>0.0001724142202874646</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.001715957652777433</v>
+        <v>0.0001803767227102071</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.01271163672208786</v>
+        <v>0.0004228504258207977</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.03143812716007233</v>
+        <v>0.0003771490009967238</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.009375428780913353</v>
+        <v>0.0003711172030307353</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.002967407926917076</v>
+        <v>0.0004033531295135617</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.01835798658430576</v>
+        <v>0.0003136066370643675</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.01406247168779373</v>
+        <v>0.0007326945196837187</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.02131354995071888</v>
+        <v>7.370737148448825e-05</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.01619833707809448</v>
+        <v>0.0001572491164552048</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.05383181199431419</v>
+        <v>7.118254143279046e-05</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.03201008588075638</v>
+        <v>0.0001196583762066439</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.04572558030486107</v>
+        <v>0.0001649462792556733</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.01116780191659927</v>
+        <v>9.199728083331138e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.0121521670371294</v>
+        <v>9.179377229884267e-06</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.02464080229401588</v>
+        <v>0.0001401844201609492</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.03859002515673637</v>
+        <v>6.568060780409724e-05</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.003135052509605885</v>
+        <v>0.0001031939027598128</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.06301473826169968</v>
+        <v>0.0002707848616410047</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.09071367233991623</v>
+        <v>8.647446520626545e-05</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.1100771054625511</v>
+        <v>0.000283149944152683</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.02798948436975479</v>
+        <v>3.676629421534017e-05</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.08790446817874908</v>
+        <v>5.364536627894267e-05</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.06832540035247803</v>
+        <v>0.0003997340390924364</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.02730579115450382</v>
+        <v>0.0004145541752222925</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.07851832360029221</v>
+        <v>0.0006704287370666862</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0178817380219698</v>
+        <v>0.0004087214183527976</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.02551461011171341</v>
+        <v>0.001354092732071877</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.05326727777719498</v>
+        <v>5.720392800867558e-05</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.01031645014882088</v>
+        <v>0.0001662523136474192</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.02098701894283295</v>
+        <v>0.0001713136734906584</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.1992775350809097</v>
+        <v>0.0005310161504894495</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.01951047964394093</v>
+        <v>0.0002395737974438816</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.004671000875532627</v>
+        <v>0.0004987249267287552</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.009959625080227852</v>
+        <v>0.0003098983142990619</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.01728902012109756</v>
+        <v>0.0004971420858055353</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.003082687733694911</v>
+        <v>5.407750722952187e-05</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.04831523075699806</v>
+        <v>3.082613693550229e-05</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0752648189663887</v>
+        <v>8.103522850433365e-05</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.05592422932386398</v>
+        <v>0.0003232285962440073</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.009439394809305668</v>
+        <v>0.0001245772000402212</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.01385978609323502</v>
+        <v>0.000520662812050432</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1505240947008133</v>
+        <v>0.01152936182916164</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2617523074150085</v>
+        <v>0.1782610267400742</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1034334897994995</v>
+        <v>0.01226014457643032</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2869562208652496</v>
+        <v>0.02961834147572517</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7932811379432678</v>
+        <v>0.03137382119894028</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09899194538593292</v>
+        <v>0.006352984812110662</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07031369209289551</v>
+        <v>0.01430722419172525</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1109912469983101</v>
+        <v>0.02908978797495365</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03452290967106819</v>
+        <v>0.1298351883888245</v>
       </c>
       <c r="J3" t="n">
-        <v>0.152090460062027</v>
+        <v>0.01617675647139549</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1398938149213791</v>
+        <v>0.07944029569625854</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1168969944119453</v>
+        <v>0.008979825302958488</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3085846602916718</v>
+        <v>0.04659069329500198</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7790992259979248</v>
+        <v>0.04798867553472519</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05185077711939812</v>
+        <v>0.03530345484614372</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1234099790453911</v>
+        <v>0.05533398687839508</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3234957754611969</v>
+        <v>0.0002910885959863663</v>
       </c>
       <c r="R3" t="n">
-        <v>0.097267746925354</v>
+        <v>0.08632022142410278</v>
       </c>
       <c r="S3" t="n">
-        <v>0.04509009048342705</v>
+        <v>0.01816916093230247</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0867631807923317</v>
+        <v>0.009348210878670216</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06423784047365189</v>
+        <v>0.01102938409894705</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1217031478881836</v>
+        <v>0.02365856245160103</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1439927816390991</v>
+        <v>0.03907852992415428</v>
       </c>
       <c r="X3" t="n">
-        <v>0.007504153996706009</v>
+        <v>0.01283884979784489</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0122320894151926</v>
+        <v>0.009419890120625496</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.01593054831027985</v>
+        <v>0.0006275337655097246</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.02812369540333748</v>
+        <v>0.02134400978684425</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.09053318947553635</v>
+        <v>0.006210088729858398</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.03863190114498138</v>
+        <v>0.03700423985719681</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.02102861553430557</v>
+        <v>0.02261385135352612</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.05454253777861595</v>
+        <v>0.02985256165266037</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1772339791059494</v>
+        <v>0.03087764047086239</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.09834995865821838</v>
+        <v>0.002271047327667475</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.01247168052941561</v>
+        <v>0.02632281556725502</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.05504214018583298</v>
+        <v>0.03706740960478783</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.07033403217792511</v>
+        <v>0.04280542582273483</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.02045318111777306</v>
+        <v>0.01079040300101042</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.2539700865745544</v>
+        <v>0.002759372582659125</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.007700413465499878</v>
+        <v>0.02546924352645874</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1058976650238037</v>
+        <v>0.01802827976644039</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.08647738397121429</v>
+        <v>0.01301197428256273</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.05432213097810745</v>
+        <v>0.0001994511112570763</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.03227060660719872</v>
+        <v>0.05125737562775612</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.001023354940116405</v>
+        <v>0.03917129337787628</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.002149127889424562</v>
+        <v>0.01773912459611893</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.1257386952638626</v>
+        <v>0.03379661589860916</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.3826063871383667</v>
+        <v>0.1353822946548462</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02554487437009811</v>
+        <v>0.03081445768475533</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.2196688801050186</v>
+        <v>0.04799190163612366</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.03718066588044167</v>
+        <v>0.09658300131559372</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.0006981238257139921</v>
+        <v>0.003006234765052795</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.006246855482459068</v>
+        <v>0.06859251856803894</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.07645902782678604</v>
+        <v>0.006544290110468864</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.05869721993803978</v>
+        <v>0.07342606037855148</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.04200321063399315</v>
+        <v>0.006298691965639591</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.07659409940242767</v>
+        <v>0.01758423447608948</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.0538744144141674</v>
+        <v>0.008242582902312279</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.1652902066707611</v>
+        <v>0.002647412940859795</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.4065532982349396</v>
+        <v>0.02855051681399345</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.06836524605751038</v>
+        <v>0.01079356390982866</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.1245187595486641</v>
+        <v>0.004512272775173187</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.002495746593922377</v>
+        <v>0.04885713011026382</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.03358305990695953</v>
+        <v>0.03032658062875271</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.006174506619572639</v>
+        <v>0.001340679824352264</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.05210620537400246</v>
+        <v>0.01262510195374489</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.0307358093559742</v>
+        <v>0.03344648331403732</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.06033326685428619</v>
+        <v>0.0387890562415123</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.1936911791563034</v>
+        <v>0.07151728868484497</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.04630328342318535</v>
+        <v>0.0156768225133419</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.1038489937782288</v>
+        <v>0.003452407196164131</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.2194701731204987</v>
+        <v>0.01952525228261948</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.03810309618711472</v>
+        <v>0.0238211452960968</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.007672122679650784</v>
+        <v>0.009298563003540039</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.02440888993442059</v>
+        <v>0.05166167020797729</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.008095530793070793</v>
+        <v>0.01036408729851246</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.04543248564004898</v>
+        <v>0.04711204767227173</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.2685154676437378</v>
+        <v>0.01049862429499626</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.02481824904680252</v>
+        <v>0.004462867043912411</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.08436295390129089</v>
+        <v>0.02590188756585121</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.02159011736512184</v>
+        <v>0.01067181397229433</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.07731141149997711</v>
+        <v>0.02659551426768303</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.02334845811128616</v>
+        <v>0.005014932714402676</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.02925522066652775</v>
+        <v>0.03099340572953224</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.03484313935041428</v>
+        <v>0.001061635557562113</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.106238380074501</v>
+        <v>0.004761809948831797</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.0795881599187851</v>
+        <v>0.0002555821847636253</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.007885672152042389</v>
+        <v>0.01227218750864267</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.02158584073185921</v>
+        <v>0.004261107183992863</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.05250366032123566</v>
+        <v>0.005375828593969345</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.01516783516854048</v>
+        <v>0.02677060663700104</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.03005390986800194</v>
+        <v>0.00290565611794591</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.05295438319444656</v>
+        <v>6.523309275507927e-05</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.0173044316470623</v>
+        <v>0.00116512062959373</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.07683020085096359</v>
+        <v>0.06591906398534775</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.1367898732423782</v>
+        <v>0.0293529350310564</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.0103826429694891</v>
+        <v>0.03952721506357193</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.0854106992483139</v>
+        <v>0.06638714671134949</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.009930728003382683</v>
+        <v>0.05186416953802109</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.1189302578568459</v>
+        <v>0.02429236099123955</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.01165661588311195</v>
+        <v>0.002572345547378063</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.02154924720525742</v>
+        <v>0.03703708946704865</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.02953184768557549</v>
+        <v>0.006408960558474064</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.1136934235692024</v>
+        <v>0.00948619470000267</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.1169652044773102</v>
+        <v>0.003297979943454266</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.008221843279898167</v>
+        <v>0.01087930984795094</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.02674439176917076</v>
+        <v>0.004451658576726913</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.07626522332429886</v>
+        <v>0.003889592364430428</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.01087102480232716</v>
+        <v>0.01688067615032196</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.07302969694137573</v>
+        <v>0.0283379927277565</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2768417596817017</v>
+        <v>0.1393545120954514</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.1222325786948204</v>
+        <v>0.04870481789112091</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.2092863172292709</v>
+        <v>0.01484349370002747</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.08923278748989105</v>
+        <v>0.0341915637254715</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.09280076622962952</v>
+        <v>0.1558210104703903</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.01641096174716949</v>
+        <v>0.04352688789367676</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.1878881901502609</v>
+        <v>0.0724974051117897</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.05254680663347244</v>
+        <v>0.01410841289907694</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.1075357347726822</v>
+        <v>0.006652312353253365</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.1257897615432739</v>
+        <v>0.02121231146156788</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.01265837345272303</v>
+        <v>0.009005764499306679</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.1251139491796494</v>
+        <v>0.01735039427876472</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.1318715065717697</v>
+        <v>0.006063998211175203</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.009172400459647179</v>
+        <v>0.01673272997140884</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.02315200865268707</v>
+        <v>0.06137889623641968</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.05218100175261497</v>
+        <v>0.01309160515666008</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.1051278859376907</v>
+        <v>0.01230789162218571</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.1094886288046837</v>
+        <v>0.006441265344619751</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.09007500857114792</v>
+        <v>0.03135216981172562</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.01126606017351151</v>
+        <v>0.008300123736262321</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.04678317159414291</v>
+        <v>0.02461468428373337</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.1749356687068939</v>
+        <v>0.005940431728959084</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.03023475408554077</v>
+        <v>0.008487161248922348</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.05915015563368797</v>
+        <v>0.02660967409610748</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.02881802804768085</v>
+        <v>0.01171810831874609</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.007968011312186718</v>
+        <v>0.007438339293003082</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.04901297390460968</v>
+        <v>0.01032709330320358</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.004696344956755638</v>
+        <v>0.001015158370137215</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.1091518700122833</v>
+        <v>0.01768751814961433</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.0850633978843689</v>
+        <v>0.02220187336206436</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.1382335722446442</v>
+        <v>0.007032772991806269</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.04839946329593658</v>
+        <v>0.05773446336388588</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.1288355737924576</v>
+        <v>0.01156523823738098</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.1265492737293243</v>
+        <v>0.005440158303827047</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.004166625440120697</v>
+        <v>0.03067075274884701</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.06089287251234055</v>
+        <v>0.02112692594528198</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.1001582965254784</v>
+        <v>0.03133057430386543</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.03238458558917046</v>
+        <v>0.04367277026176453</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.05159382894635201</v>
+        <v>0.00346369668841362</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.1262321025133133</v>
+        <v>0.006420149002224207</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.07422059029340744</v>
+        <v>0.03349399566650391</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.1006377711892128</v>
+        <v>0.01125721633434296</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.04615763574838638</v>
+        <v>0.029476223513484</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.05459874123334885</v>
+        <v>0.004354333039373159</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.002216540277004242</v>
+        <v>0.004308970179408789</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.008471866138279438</v>
+        <v>0.0384598895907402</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.02505886554718018</v>
+        <v>0.00241465400904417</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.08272957056760788</v>
+        <v>0.01019707508385181</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.1082293912768364</v>
+        <v>0.01056466810405254</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.01170186791568995</v>
+        <v>0.0006864918395876884</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.01986036822199821</v>
+        <v>0.01061204634606838</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.0835200697183609</v>
+        <v>0.005093319341540337</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.007464613299816847</v>
+        <v>0.007185996510088444</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.06709197163581848</v>
+        <v>0.01893564686179161</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.1529891788959503</v>
+        <v>0.02247143350541592</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.05423248186707497</v>
+        <v>0.03111354447901249</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.2314614951610565</v>
+        <v>9.989086538553238e-05</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.03055270202457905</v>
+        <v>0.02828460559248924</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.07623216509819031</v>
+        <v>0.0139035452157259</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.0775337815284729</v>
+        <v>0.03155818581581116</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.02469054237008095</v>
+        <v>0.005348025821149349</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.091990627348423</v>
+        <v>0.00641926983371377</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.02079589664936066</v>
+        <v>0.003497234312817454</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.0768209844827652</v>
+        <v>0.01387394964694977</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.009625849314033985</v>
+        <v>0.02588509954512119</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.09148233383893967</v>
+        <v>0.03315547853708267</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.05235105380415916</v>
+        <v>0.03249889239668846</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.03491833806037903</v>
+        <v>0.01056289207190275</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.09832990169525146</v>
+        <v>0.03609571605920792</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.1124027371406555</v>
+        <v>0.01102140359580517</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.03145299851894379</v>
+        <v>0.01355948578566313</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.02379316091537476</v>
+        <v>0.0007105967961251736</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.09628814458847046</v>
+        <v>0.02934798039495945</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.01664086990058422</v>
+        <v>0.003699176479130983</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.04181399568915367</v>
+        <v>0.03079827874898911</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.1649552583694458</v>
+        <v>0.05370104685425758</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.1078638136386871</v>
+        <v>0.03623992204666138</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.0322398953139782</v>
+        <v>0.003669572062790394</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.0527949258685112</v>
+        <v>0.04842251166701317</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.0115598700940609</v>
+        <v>0.03400640934705734</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01988860964775085</v>
+        <v>0.003361478447914124</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9310442209243774</v>
+        <v>0.7507198452949524</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5929537415504456</v>
+        <v>0.07922834157943726</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1491782814264297</v>
+        <v>0.314172625541687</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1128945201635361</v>
+        <v>0.1338299512863159</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4657244086265564</v>
+        <v>0.5305429697036743</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2030103504657745</v>
+        <v>0.03045472502708435</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04806121438741684</v>
+        <v>0.2506428360939026</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08048459142446518</v>
+        <v>0.007573760114610195</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3137410283088684</v>
+        <v>0.08205021917819977</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9956881403923035</v>
+        <v>0.6490733623504639</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0857192650437355</v>
+        <v>0.01116014644503593</v>
       </c>
       <c r="M4" t="n">
-        <v>0.209731251001358</v>
+        <v>0.3109753727912903</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1427419781684875</v>
+        <v>0.05633020028471947</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1007000207901001</v>
+        <v>0.5238449573516846</v>
       </c>
       <c r="P4" t="n">
-        <v>0.275810033082962</v>
+        <v>0.04135657474398613</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2355608642101288</v>
+        <v>0.08660420030355453</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03725620359182358</v>
+        <v>0.05926688760519028</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02043896727263927</v>
+        <v>0.01781830191612244</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1205729246139526</v>
+        <v>0.02810460329055786</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07409483939409256</v>
+        <v>0.002812668681144714</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2222950160503387</v>
+        <v>0.1197634413838387</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1106459200382233</v>
+        <v>0.05969976633787155</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1988475769758224</v>
+        <v>0.0007058726623654366</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01417714357376099</v>
+        <v>0.009603707119822502</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.2304728180170059</v>
+        <v>0.007512208074331284</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.188052698969841</v>
+        <v>0.04209364578127861</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0002224370837211609</v>
+        <v>0.02216597087681293</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3356756865978241</v>
+        <v>0.03416857868432999</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.001904867589473724</v>
+        <v>0.03427781164646149</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.02798629552125931</v>
+        <v>0.01790502108633518</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.1681360900402069</v>
+        <v>0.08096911013126373</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.1379230916500092</v>
+        <v>0.006937074474990368</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0384671613574028</v>
+        <v>0.03411012142896652</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0870908796787262</v>
+        <v>0.05701792985200882</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.06255149841308594</v>
+        <v>0.1105770021677017</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.2150105535984039</v>
+        <v>0.02352166920900345</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.2719668447971344</v>
+        <v>0.1089097633957863</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.02134310826659203</v>
+        <v>0.001316145062446594</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.05064939334988594</v>
+        <v>0.03339801356196404</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.08258279412984848</v>
+        <v>0.09145805984735489</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.09170611202716827</v>
+        <v>0.1290148943662643</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.05971086770296097</v>
+        <v>0.01876232773065567</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.04274291545152664</v>
+        <v>0.06726065278053284</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.08299478143453598</v>
+        <v>0.0897795706987381</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.3365248143672943</v>
+        <v>0.09464669227600098</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.7713942527770996</v>
+        <v>0.4950433373451233</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.131124883890152</v>
+        <v>0.01975326985120773</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.2584657371044159</v>
+        <v>0.08749280869960785</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.2863854169845581</v>
+        <v>0.08270718157291412</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.1760918945074081</v>
+        <v>0.1589120328426361</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.06602857261896133</v>
+        <v>0.02672669105231762</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.2171255052089691</v>
+        <v>0.1253669261932373</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.05799989029765129</v>
+        <v>0.07655183225870132</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.3434071838855743</v>
+        <v>0.03353795781731606</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.1121515557169914</v>
+        <v>0.2099283337593079</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.1099681481719017</v>
+        <v>0.1455328911542892</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.03916372358798981</v>
+        <v>0.1139427870512009</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.06862721592187881</v>
+        <v>0.09370386600494385</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.1415273547172546</v>
+        <v>0.2270079702138901</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0110739441588521</v>
+        <v>0.0007373690605163574</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.03033161535859108</v>
+        <v>0.07845194637775421</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.06535873562097549</v>
+        <v>0.09560799598693848</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.08106894046068192</v>
+        <v>0.0281764343380928</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.07365880906581879</v>
+        <v>0.08517435193061829</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.1150425001978874</v>
+        <v>0.03907392546534538</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.1765555888414383</v>
+        <v>0.02959974482655525</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.1213805004954338</v>
+        <v>0.04077870771288872</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.203303188085556</v>
+        <v>0.03837387263774872</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.1678130030632019</v>
+        <v>0.07436995953321457</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.1091836094856262</v>
+        <v>0.02294033765792847</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.03593198955059052</v>
+        <v>0.02937939763069153</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.3303121030330658</v>
+        <v>0.05226405337452888</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.4205518960952759</v>
+        <v>0.2364303171634674</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.09007708728313446</v>
+        <v>0.07447763532400131</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.03226450830698013</v>
+        <v>0.05428136885166168</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.1129567623138428</v>
+        <v>0.05545477569103241</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.04578111693263054</v>
+        <v>0.09870807826519012</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.07845219224691391</v>
+        <v>0.02244343049824238</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.05997730046510696</v>
+        <v>0.1148769706487656</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.002253094688057899</v>
+        <v>0.05116614326834679</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.01123716309666634</v>
+        <v>0.002653928473591805</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.258671909570694</v>
+        <v>0.1195070073008537</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.03971161693334579</v>
+        <v>0.0493733137845993</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.1000569388270378</v>
+        <v>0.08276353776454926</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.1433371603488922</v>
+        <v>0.01443192735314369</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.01615899801254272</v>
+        <v>0.07739616930484772</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.09537000954151154</v>
+        <v>0.03709780424833298</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.07945147156715393</v>
+        <v>0.05083218589425087</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.01398027129471302</v>
+        <v>0.0496474951505661</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.06918708980083466</v>
+        <v>0.08972381800413132</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.2387198507785797</v>
+        <v>0.1028488725423813</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.1473319977521896</v>
+        <v>0.00104426546022296</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.09910057485103607</v>
+        <v>0.03856758773326874</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.2216039150953293</v>
+        <v>0.007436945103108883</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.04382156580686569</v>
+        <v>0.05782449617981911</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.003150733886286616</v>
+        <v>0.09371455013751984</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.009042521938681602</v>
+        <v>0.09292082488536835</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.06634481251239777</v>
+        <v>0.09507809579372406</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.01048921793699265</v>
+        <v>0.003621325828135014</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.1983686238527298</v>
+        <v>0.1030538976192474</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.0104252751916647</v>
+        <v>0.05312822759151459</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.07122999429702759</v>
+        <v>0.09271460771560669</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.128260001540184</v>
+        <v>0.004460275638848543</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.07992221415042877</v>
+        <v>0.113041415810585</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.06276485323905945</v>
+        <v>0.02653578110039234</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.08555838465690613</v>
+        <v>0.06788761913776398</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.01043326407670975</v>
+        <v>0.02882041037082672</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.2555893659591675</v>
+        <v>0.04698535054922104</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.03794940188527107</v>
+        <v>0.1186125725507736</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.0843123197555542</v>
+        <v>0.04903880134224892</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.167094498872757</v>
+        <v>0.2131975442171097</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.08957830816507339</v>
+        <v>0.1170030981302261</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.1827604919672012</v>
+        <v>0.1357848197221756</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.01070487219840288</v>
+        <v>0.05153507366776466</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.277179092168808</v>
+        <v>0.0899711474776268</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.3179709315299988</v>
+        <v>0.1553600430488586</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.05597274750471115</v>
+        <v>0.002584155648946762</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.2447503507137299</v>
+        <v>0.0632527619600296</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.04075530916452408</v>
+        <v>0.04028807580471039</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.02193136140704155</v>
+        <v>0.03446651622653008</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.5079677104949951</v>
+        <v>0.06074229627847672</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.1108809933066368</v>
+        <v>0.06474532186985016</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.003734278492629528</v>
+        <v>0.07884626090526581</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.07043178379535675</v>
+        <v>0.04249819368124008</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.008779801428318024</v>
+        <v>0.09241620451211929</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.02631356939673424</v>
+        <v>0.03571636229753494</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.1579139232635498</v>
+        <v>0.05603781342506409</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.1610539555549622</v>
+        <v>0.08735912293195724</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.04709584638476372</v>
+        <v>0.03222673013806343</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.1306713223457336</v>
+        <v>0.006635523401200771</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.07950212061405182</v>
+        <v>0.01774667389690876</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.05270814895629883</v>
+        <v>0.01231231912970543</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.134922668337822</v>
+        <v>0.007866094820201397</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.1258883327245712</v>
+        <v>0.03534648939967155</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.02566255629062653</v>
+        <v>0.04833899438381195</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.3658262491226196</v>
+        <v>0.1339514255523682</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.07857236266136169</v>
+        <v>0.03901335224509239</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.01664082333445549</v>
+        <v>0.03024380281567574</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.005620107054710388</v>
+        <v>0.07676126807928085</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.07522543519735336</v>
+        <v>0.119772657752037</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.1173462048172951</v>
+        <v>0.04477726668119431</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.04288795217871666</v>
+        <v>0.009476958774030209</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.003347859717905521</v>
+        <v>0.007934616878628731</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.1764813959598541</v>
+        <v>0.01982283778488636</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.2160859107971191</v>
+        <v>0.02994479984045029</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.1359524875879288</v>
+        <v>0.06712863594293594</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.06556015461683273</v>
+        <v>0.06975272297859192</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.1116765961050987</v>
+        <v>0.04535618796944618</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.07883132994174957</v>
+        <v>0.01339541655033827</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.01505545061081648</v>
+        <v>0.01145537756383419</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.1835828572511673</v>
+        <v>0.1126989722251892</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.04462792724370956</v>
+        <v>0.02560220286250114</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.04059593006968498</v>
+        <v>0.0138028459623456</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.1989631056785583</v>
+        <v>0.09283845871686935</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.01673234067857265</v>
+        <v>0.03472723439335823</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.06087076663970947</v>
+        <v>0.08518427610397339</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.132538378238678</v>
+        <v>0.01174988225102425</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.01933338493108749</v>
+        <v>0.08545350283384323</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.09562826901674271</v>
+        <v>0.04706195741891861</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.04110947251319885</v>
+        <v>0.04635874181985855</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.02988146245479584</v>
+        <v>0.0378405898809433</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.01420731097459793</v>
+        <v>0.01425609830766916</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.1968611180782318</v>
+        <v>0.006296522915363312</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.3904729783535004</v>
+        <v>0.04729844257235527</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.1200129017233849</v>
+        <v>0.1135425120592117</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.139030396938324</v>
+        <v>0.0882614403963089</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.2068020403385162</v>
+        <v>0.09916162490844727</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.03236880525946617</v>
+        <v>0.03036555089056492</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.0004757866263389587</v>
+        <v>0.0203782245516777</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.1279496848583221</v>
+        <v>0.03229860588908195</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.3237192034721375</v>
+        <v>0.01766800507903099</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.1334368288516998</v>
+        <v>0.2642927765846252</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.09304247796535492</v>
+        <v>0.046649269759655</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.02205517143011093</v>
+        <v>0.1259203404188156</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.1531756520271301</v>
+        <v>0.008938056416809559</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.05834774300456047</v>
+        <v>0.03338282555341721</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.1157084777951241</v>
+        <v>0.07300056517124176</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.3527569770812988</v>
+        <v>0.009457651525735855</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.3291304707527161</v>
+        <v>0.005409829318523407</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.03993190824985504</v>
+        <v>0.04312665015459061</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.06034145131707191</v>
+        <v>0.03884280100464821</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.14133021235466</v>
+        <v>0.0225442610681057</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.06358286738395691</v>
+        <v>0.07809961587190628</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.06725633889436722</v>
+        <v>0.1434162557125092</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.01847211457788944</v>
+        <v>0.05082912743091583</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.006102918647229671</v>
+        <v>0.2269318699836731</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.063245989382267</v>
+        <v>0.07794409990310669</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.1035636216402054</v>
+        <v>0.09792628139257431</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.007675678003579378</v>
+        <v>5.222947947913781e-06</v>
       </c>
       <c r="B5" t="n">
-        <v>0.008937707170844078</v>
+        <v>5.089039768790826e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01715023443102837</v>
+        <v>8.74795932759298e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04302221536636353</v>
+        <v>1.939391950145364e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01546636410057545</v>
+        <v>9.887036867439747e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004488651640713215</v>
+        <v>1.244574377778918e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002584037138149142</v>
+        <v>7.679603868382401e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02237256802618504</v>
+        <v>1.680333753029117e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02363134734332561</v>
+        <v>1.025443361868383e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006781421601772308</v>
+        <v>2.413356241959264e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.007620270363986492</v>
+        <v>4.675919262808748e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01383688859641552</v>
+        <v>4.571004410536261e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03897675126791</v>
+        <v>1.988132498809136e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001316765788942575</v>
+        <v>8.488907951686997e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>0.009153764694929123</v>
+        <v>1.210193431688822e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>0.000906042754650116</v>
+        <v>3.959194145863876e-07</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02838947437703609</v>
+        <v>5.980763944535283e-06</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0271243192255497</v>
+        <v>3.243390210627695e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001632524421438575</v>
+        <v>1.767522576301417e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01368386298418045</v>
+        <v>6.899957043060567e-06</v>
       </c>
       <c r="U5" t="n">
-        <v>0.006683999206870794</v>
+        <v>4.179301868134644e-06</v>
       </c>
       <c r="V5" t="n">
-        <v>0.002178427996113896</v>
+        <v>1.973863390958286e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02038882859051228</v>
+        <v>7.149849807319697e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0005273399874567986</v>
+        <v>7.040777290967526e-06</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003293644636869431</v>
+        <v>2.98399163511931e-06</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.002197995316237211</v>
+        <v>3.980591429808555e-07</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.001452596043236554</v>
+        <v>3.480572331682197e-06</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0003654921893030405</v>
+        <v>9.761252840689849e-06</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.004075387492775917</v>
+        <v>4.205949153401889e-07</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.005786699242889881</v>
+        <v>1.316128646067227e-06</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.002747548278421164</v>
+        <v>2.568855506979162e-06</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.005489216651767492</v>
+        <v>2.777003601295291e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0001288721396122128</v>
+        <v>1.508866148469679e-06</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.006256193853914738</v>
+        <v>1.794894615159137e-06</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.003063377924263477</v>
+        <v>1.815677251215675e-06</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.00824167113751173</v>
+        <v>2.324197339476086e-06</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.003637264482676983</v>
+        <v>1.578617116138048e-06</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.002282457193359733</v>
+        <v>3.002505309268599e-06</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.004342826548963785</v>
+        <v>2.159041798677208e-07</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.009440334513783455</v>
+        <v>7.56573513172043e-07</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.0006266952841542661</v>
+        <v>4.947213255945826e-06</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.009818991646170616</v>
+        <v>6.82109157423838e-06</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.002137005794793367</v>
+        <v>2.598775154183386e-06</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0003995163133367896</v>
+        <v>3.760748768399935e-06</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.006577049382030964</v>
+        <v>4.617945705831517e-07</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.00658893957734108</v>
+        <v>7.415318123094039e-06</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0005120513960719109</v>
+        <v>2.778172893158626e-05</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.004212613683193922</v>
+        <v>3.094698513450567e-06</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.01932239718735218</v>
+        <v>6.72346413921332e-06</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.006868062075227499</v>
+        <v>6.211263325894834e-07</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.01241348590701818</v>
+        <v>8.071936463238671e-06</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.001977256266400218</v>
+        <v>1.258880729437806e-06</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0162675566971302</v>
+        <v>4.839540906687034e-06</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0009424567688256502</v>
+        <v>6.174488135002321e-06</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.008550801314413548</v>
+        <v>2.501753442629706e-06</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.005502090323716402</v>
+        <v>1.762159809004515e-05</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.005964464507997036</v>
+        <v>1.415871611243347e-05</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.01799879409372807</v>
+        <v>4.373238880361896e-06</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.007546571083366871</v>
+        <v>8.922395863919519e-06</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.0009650003048591316</v>
+        <v>1.686640302978049e-06</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.001723288325592875</v>
+        <v>1.065966216629022e-06</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.002860319800674915</v>
+        <v>6.081481842556968e-06</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.01585503853857517</v>
+        <v>3.730886419361923e-06</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.002846984192728996</v>
+        <v>7.589265351271024e-06</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.0009346547303721309</v>
+        <v>1.082391918316716e-06</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.006158048752695322</v>
+        <v>2.806657903420273e-06</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.003269045380875468</v>
+        <v>4.474877641769126e-07</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0006502390024252236</v>
+        <v>9.889795364870224e-06</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.0002987778279930353</v>
+        <v>7.128059223759919e-06</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.0005150730721652508</v>
+        <v>1.757618292685947e-06</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.0102355582639575</v>
+        <v>5.102016530145193e-06</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.01139896921813488</v>
+        <v>5.712995516660158e-07</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.002516128588467836</v>
+        <v>3.799658088610158e-06</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.003529111389070749</v>
+        <v>1.376964155497262e-05</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.001407862524501979</v>
+        <v>4.91909850097727e-06</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.01480435859411955</v>
+        <v>3.673187165986747e-06</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0003965917276218534</v>
+        <v>9.129527825280093e-06</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.0003025298938155174</v>
+        <v>6.476253929577069e-06</v>
       </c>
       <c r="CA5" t="n">
-        <v>4.643341526389122e-06</v>
+        <v>1.156528014689684e-06</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.008695578202605247</v>
+        <v>3.463849679974373e-06</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.0113288527354598</v>
+        <v>1.391738919664931e-06</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.004439475014805794</v>
+        <v>1.010599021356029e-06</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.0005014908965677023</v>
+        <v>7.908483894425444e-06</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.005295508075505495</v>
+        <v>1.493473860136874e-06</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0105265062302351</v>
+        <v>2.002809651457937e-06</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0008214543340727687</v>
+        <v>2.620386339913239e-06</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.001588503830134869</v>
+        <v>1.204523840669935e-07</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.003277948591858149</v>
+        <v>9.719099125504727e-07</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.002080845646560192</v>
+        <v>1.09709617390763e-07</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.002206518780440092</v>
+        <v>8.66797279286402e-07</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.00448500644415617</v>
+        <v>9.136547305388376e-06</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.004404067527502775</v>
+        <v>7.072941571095726e-06</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.00273129204288125</v>
+        <v>2.458505832692026e-06</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.01507812272757292</v>
+        <v>1.618297119421186e-06</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.01291642431169748</v>
+        <v>1.213640280184336e-05</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.008746704086661339</v>
+        <v>1.022982451104326e-05</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.004066176246851683</v>
+        <v>1.381106130793341e-06</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.005095633678138256</v>
+        <v>6.406250122381607e-06</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.001331438310444355</v>
+        <v>6.684695563308196e-06</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.004823286551982164</v>
+        <v>8.245893354796863e-07</v>
       </c>
       <c r="CW5" t="n">
-        <v>4.549574805423617e-05</v>
+        <v>7.234421445900807e-06</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.004308120347559452</v>
+        <v>1.819152089410636e-06</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.009305177256464958</v>
+        <v>3.265422037657117e-06</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.003733164630830288</v>
+        <v>1.422978584741941e-06</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.0005047586746513844</v>
+        <v>5.183762823435245e-07</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.002388075226917863</v>
+        <v>1.04929290500877e-06</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.002575379097834229</v>
+        <v>1.335294427917688e-06</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.001972774043679237</v>
+        <v>8.598125305070425e-07</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.002357716206461191</v>
+        <v>4.004963102488546e-06</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.003589719068259001</v>
+        <v>1.279896332562203e-05</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.005053443368524313</v>
+        <v>3.647331595857395e-06</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.005751426797360182</v>
+        <v>1.545510167488828e-05</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.006929707247763872</v>
+        <v>1.006628372124396e-05</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.00315329572185874</v>
+        <v>6.986528205743525e-06</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.01366477180272341</v>
+        <v>2.589039240774582e-07</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.008640902116894722</v>
+        <v>5.025543714509695e-07</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.006827233359217644</v>
+        <v>3.820672191068297e-06</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.002545803552493453</v>
+        <v>1.063056288330699e-06</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.005524817388504744</v>
+        <v>6.549092177010607e-06</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.004296075087040663</v>
+        <v>3.57105272996705e-06</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.0004382471088320017</v>
+        <v>4.749903382617049e-06</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.01228477898985147</v>
+        <v>9.20696766115725e-06</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.008215030655264854</v>
+        <v>6.044069777999539e-06</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.004100628662854433</v>
+        <v>3.89952037949115e-06</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.005022645462304354</v>
+        <v>1.617404109310883e-06</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.009909343905746937</v>
+        <v>5.829782168120801e-08</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.006039077881723642</v>
+        <v>1.301461111324898e-06</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.001991312252357602</v>
+        <v>7.784820809320081e-06</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0008375672623515129</v>
+        <v>3.648560777946841e-07</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.007609335705637932</v>
+        <v>6.473183930211235e-06</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.003323116572573781</v>
+        <v>3.863341589749325e-06</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.006634667050093412</v>
+        <v>5.855516064912081e-06</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.002640425693243742</v>
+        <v>1.160691908808076e-06</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.002991076791658998</v>
+        <v>1.422792820449104e-06</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.01028536073863506</v>
+        <v>3.1918632430461e-06</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.003865196136757731</v>
+        <v>2.438954652461689e-06</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.0007720486028119922</v>
+        <v>8.563872142985929e-06</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.004895527847111225</v>
+        <v>1.112726295104949e-06</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.01413694303482771</v>
+        <v>3.333434051455697e-06</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.005105712916702032</v>
+        <v>4.994023129256675e-06</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.001474911579862237</v>
+        <v>6.092762305343058e-06</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.004960242658853531</v>
+        <v>9.120710160459566e-07</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.009171963669359684</v>
+        <v>2.030786617979174e-06</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.0007904823287390172</v>
+        <v>1.326854317085235e-06</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.01063090655952692</v>
+        <v>3.725821670741425e-06</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.005736212246119976</v>
+        <v>2.797472461679718e-06</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.007392870262265205</v>
+        <v>7.604010079376167e-06</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.002338371938094497</v>
+        <v>2.324329443581519e-06</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.004536653868854046</v>
+        <v>4.016048933408456e-06</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.005237835925072432</v>
+        <v>6.366059892570775e-07</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.005974465049803257</v>
+        <v>1.004955379357853e-06</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.002632682677358389</v>
+        <v>1.429891653970117e-06</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.00402339082211256</v>
+        <v>4.117973162465205e-07</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.002746432553976774</v>
+        <v>2.343869709875435e-06</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.0001099103537853807</v>
+        <v>7.57077532398398e-06</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.005370210390537977</v>
+        <v>7.343144261540147e-07</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.006015797145664692</v>
+        <v>3.390510073586483e-06</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.002688940614461899</v>
+        <v>1.514221594334231e-06</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.001391368452459574</v>
+        <v>1.925140850289608e-06</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.003506865818053484</v>
+        <v>4.302070522044232e-07</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.004077990539371967</v>
+        <v>7.79240735937492e-07</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.003585952799767256</v>
+        <v>8.870408123584639e-07</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.003028484294191003</v>
+        <v>1.045168431801358e-07</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.001853513764217496</v>
+        <v>2.048782334895805e-06</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.00344883231446147</v>
+        <v>2.110005539179838e-07</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.0004433505237102509</v>
+        <v>1.588540840202768e-06</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.0002210117527283728</v>
+        <v>4.859359250986017e-06</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.0003768237074837089</v>
+        <v>9.038642929226626e-06</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.0006966696819290519</v>
+        <v>1.20492381938675e-06</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.006291029509156942</v>
+        <v>3.574071456569072e-07</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.003850395092740655</v>
+        <v>2.132392637577141e-06</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.003307255450636148</v>
+        <v>4.602930403052596e-06</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.003965107724070549</v>
+        <v>3.062461701119901e-06</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.002070001093670726</v>
+        <v>6.445359304052545e-06</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.004673231393098831</v>
+        <v>1.386306030326523e-05</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.001316866022534668</v>
+        <v>3.02122452922049e-06</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.001486552297137678</v>
+        <v>4.75811702926876e-07</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.0003831478534266353</v>
+        <v>1.143321014751564e-06</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.0033881776034832</v>
+        <v>5.02890907227993e-06</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.009494203142821789</v>
+        <v>4.994786650058813e-06</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.006173318717628717</v>
+        <v>6.230824055819539e-06</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.01248538587242365</v>
+        <v>5.64049855711346e-07</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.001188825350254774</v>
+        <v>3.575214350348688e-06</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.007623416371643543</v>
+        <v>1.446053374820622e-06</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.003545249346643686</v>
+        <v>4.606185484590242e-06</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.01170518528670073</v>
+        <v>4.08171399612911e-06</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.0003359941765666008</v>
+        <v>2.410656861684402e-06</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.001315619796514511</v>
+        <v>4.987221018382115e-06</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0067633967846632</v>
+        <v>4.590103799273493e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.730243184283609e-07</v>
+        <v>4.791655101143988e-06</v>
       </c>
       <c r="B6" t="n">
-        <v>1.424652327841613e-05</v>
+        <v>4.448219260666519e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>2.691165491341962e-06</v>
+        <v>4.372904186311644e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>1.784280243555258e-06</v>
+        <v>1.595905814610887e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>6.884802587592276e-06</v>
+        <v>1.862173348854412e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>1.522737875347957e-06</v>
+        <v>3.437605846556835e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>5.484629355123616e-07</v>
+        <v>9.674828334027552e-07</v>
       </c>
       <c r="H6" t="n">
-        <v>5.681554284819867e-07</v>
+        <v>1.050873015628895e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>2.718742848628608e-07</v>
+        <v>6.065587854209298e-07</v>
       </c>
       <c r="J6" t="n">
-        <v>1.849906993811601e-06</v>
+        <v>1.440777759853518e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>1.313791653956287e-05</v>
+        <v>3.367928002262488e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>1.629000223601906e-07</v>
+        <v>3.59812838723883e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>1.23428776532819e-06</v>
+        <v>1.474762211728375e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>6.25780239715823e-06</v>
+        <v>1.837522518144397e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>2.406203748250846e-06</v>
+        <v>2.833339567587245e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>5.294214133755304e-08</v>
+        <v>2.275297902087914e-06</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.016065764109953e-06</v>
+        <v>4.165280188317411e-06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.362276407235186e-07</v>
+        <v>4.322702125136857e-07</v>
       </c>
       <c r="S6" t="n">
-        <v>1.239786001860921e-06</v>
+        <v>3.943566298403312e-06</v>
       </c>
       <c r="T6" t="n">
-        <v>1.734039898337869e-07</v>
+        <v>1.068507458512613e-06</v>
       </c>
       <c r="U6" t="n">
-        <v>7.234086751850555e-08</v>
+        <v>2.216223947471008e-06</v>
       </c>
       <c r="V6" t="n">
-        <v>5.13854502059985e-07</v>
+        <v>3.501143964967923e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.422349527047118e-07</v>
+        <v>3.061258894376806e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>1.509295429968915e-06</v>
+        <v>2.777773715934018e-06</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.195150048260984e-06</v>
+        <v>3.584031901482376e-06</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.714364649771596e-07</v>
+        <v>1.105049477700959e-06</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.256899188703755e-08</v>
+        <v>4.359353170002578e-06</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.499958782209433e-06</v>
+        <v>1.852177433647739e-06</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.940087031471194e-06</v>
+        <v>5.845037776452955e-06</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.99339774553664e-06</v>
+        <v>4.758884699640475e-07</v>
       </c>
       <c r="AE6" t="n">
-        <v>6.636902867285244e-07</v>
+        <v>3.975618255935842e-06</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.767525645846035e-06</v>
+        <v>8.143890681822086e-07</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.730464873617166e-07</v>
+        <v>1.448280784188682e-07</v>
       </c>
       <c r="AH6" t="n">
-        <v>3.392730008044964e-08</v>
+        <v>9.864023695627111e-07</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.122093054727884e-07</v>
+        <v>5.386809789342806e-07</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.05977846942551e-06</v>
+        <v>1.277495925933181e-06</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.507319780102989e-07</v>
+        <v>1.349788021798304e-06</v>
       </c>
       <c r="AL6" t="n">
-        <v>3.393269480511663e-06</v>
+        <v>4.690329205914168e-06</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.573966867203126e-06</v>
+        <v>1.001296141112107e-06</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.102402956756123e-07</v>
+        <v>4.821617949346546e-07</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.790142843878129e-06</v>
+        <v>4.329164312366629e-06</v>
       </c>
       <c r="AP6" t="n">
-        <v>8.273440244010999e-07</v>
+        <v>8.364948371308856e-06</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.544372250667948e-07</v>
+        <v>1.336046011601866e-07</v>
       </c>
       <c r="AR6" t="n">
-        <v>6.144243513972469e-08</v>
+        <v>4.2187573967567e-07</v>
       </c>
       <c r="AS6" t="n">
-        <v>5.708361072720436e-07</v>
+        <v>4.063360393047333e-06</v>
       </c>
       <c r="AT6" t="n">
-        <v>8.209563588934543e-07</v>
+        <v>2.690907876967685e-06</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.164244950923603e-06</v>
+        <v>1.631788290978875e-05</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.077014530892484e-06</v>
+        <v>1.380754156343755e-06</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.287034706365375e-06</v>
+        <v>7.13743202140904e-06</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.723013838272891e-06</v>
+        <v>2.554571210566792e-06</v>
       </c>
       <c r="AY6" t="n">
-        <v>3.556518208824855e-07</v>
+        <v>2.179902003263123e-05</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.508346713308129e-06</v>
+        <v>2.912698391810409e-06</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.87090563485981e-06</v>
+        <v>4.034858136492403e-07</v>
       </c>
       <c r="BB6" t="n">
-        <v>1.241585323441541e-06</v>
+        <v>7.857469427108299e-06</v>
       </c>
       <c r="BC6" t="n">
-        <v>2.687832875380991e-06</v>
+        <v>4.996581083105411e-06</v>
       </c>
       <c r="BD6" t="n">
-        <v>2.956198613901506e-06</v>
+        <v>1.877053000498563e-05</v>
       </c>
       <c r="BE6" t="n">
-        <v>6.703701274091145e-07</v>
+        <v>5.733873877034057e-06</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.145674216080806e-06</v>
+        <v>7.137532065826235e-06</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.832082148212066e-06</v>
+        <v>4.226903911330737e-06</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.442182679056714e-06</v>
+        <v>3.625928457040573e-06</v>
       </c>
       <c r="BI6" t="n">
-        <v>8.297357680930872e-07</v>
+        <v>1.7928556417246e-07</v>
       </c>
       <c r="BJ6" t="n">
-        <v>7.820187306606385e-07</v>
+        <v>1.178773686660861e-06</v>
       </c>
       <c r="BK6" t="n">
-        <v>2.423948899377137e-06</v>
+        <v>1.563285422889749e-06</v>
       </c>
       <c r="BL6" t="n">
-        <v>3.093900318162923e-07</v>
+        <v>8.251156486949185e-07</v>
       </c>
       <c r="BM6" t="n">
-        <v>7.49625712614943e-07</v>
+        <v>9.417121873411816e-06</v>
       </c>
       <c r="BN6" t="n">
-        <v>1.966649961104849e-06</v>
+        <v>8.606289156887215e-07</v>
       </c>
       <c r="BO6" t="n">
-        <v>6.773932454962051e-07</v>
+        <v>8.366772021872748e-07</v>
       </c>
       <c r="BP6" t="n">
-        <v>2.330206143597024e-06</v>
+        <v>1.84650298251654e-06</v>
       </c>
       <c r="BQ6" t="n">
-        <v>3.846324034384452e-06</v>
+        <v>1.497396851846133e-06</v>
       </c>
       <c r="BR6" t="n">
-        <v>1.837106992752524e-06</v>
+        <v>1.402906718794839e-06</v>
       </c>
       <c r="BS6" t="n">
-        <v>1.132057150243782e-06</v>
+        <v>4.244033334543929e-06</v>
       </c>
       <c r="BT6" t="n">
-        <v>4.922105745208682e-08</v>
+        <v>1.79974108505121e-07</v>
       </c>
       <c r="BU6" t="n">
-        <v>5.168140546629729e-07</v>
+        <v>1.639615675230743e-06</v>
       </c>
       <c r="BV6" t="n">
-        <v>4.123673534195404e-06</v>
+        <v>9.449021490581799e-06</v>
       </c>
       <c r="BW6" t="n">
-        <v>2.966509669022344e-07</v>
+        <v>4.952418748871423e-06</v>
       </c>
       <c r="BX6" t="n">
-        <v>6.305585031896044e-08</v>
+        <v>4.495600933296373e-06</v>
       </c>
       <c r="BY6" t="n">
-        <v>3.676244432426756e-06</v>
+        <v>4.097686087334296e-06</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.633366196074348e-06</v>
+        <v>7.82183269620873e-06</v>
       </c>
       <c r="CA6" t="n">
-        <v>1.657499751672731e-06</v>
+        <v>2.305567022631294e-06</v>
       </c>
       <c r="CB6" t="n">
-        <v>6.504797624984349e-07</v>
+        <v>1.517031478215358e-07</v>
       </c>
       <c r="CC6" t="n">
-        <v>3.870599130095798e-07</v>
+        <v>4.647919467970496e-06</v>
       </c>
       <c r="CD6" t="n">
-        <v>2.399105767381116e-07</v>
+        <v>1.597619530002703e-06</v>
       </c>
       <c r="CE6" t="n">
-        <v>2.880246483982773e-06</v>
+        <v>6.783020580769517e-06</v>
       </c>
       <c r="CF6" t="n">
-        <v>1.574233124301827e-06</v>
+        <v>2.658836820046417e-06</v>
       </c>
       <c r="CG6" t="n">
-        <v>3.592556936382607e-07</v>
+        <v>2.378992803642177e-06</v>
       </c>
       <c r="CH6" t="n">
-        <v>1.4866135416014e-06</v>
+        <v>5.495734853866452e-07</v>
       </c>
       <c r="CI6" t="n">
-        <v>8.919043352761946e-07</v>
+        <v>5.599459200311685e-06</v>
       </c>
       <c r="CJ6" t="n">
-        <v>2.405462851129414e-07</v>
+        <v>9.100025408770307e-07</v>
       </c>
       <c r="CK6" t="n">
-        <v>8.406986040654374e-08</v>
+        <v>2.304106146766571e-06</v>
       </c>
       <c r="CL6" t="n">
-        <v>3.935377321795386e-07</v>
+        <v>3.265786745032528e-06</v>
       </c>
       <c r="CM6" t="n">
-        <v>3.077971939546842e-07</v>
+        <v>1.468858499720227e-06</v>
       </c>
       <c r="CN6" t="n">
-        <v>9.485555096944154e-07</v>
+        <v>4.618089519681234e-07</v>
       </c>
       <c r="CO6" t="n">
-        <v>5.058366241428303e-07</v>
+        <v>5.315257567417575e-07</v>
       </c>
       <c r="CP6" t="n">
-        <v>3.168576938605838e-07</v>
+        <v>3.505747372400947e-06</v>
       </c>
       <c r="CQ6" t="n">
-        <v>4.300444800264813e-07</v>
+        <v>4.117794105695793e-06</v>
       </c>
       <c r="CR6" t="n">
-        <v>6.810506647525472e-07</v>
+        <v>3.07019445244805e-06</v>
       </c>
       <c r="CS6" t="n">
-        <v>5.395669404606451e-07</v>
+        <v>4.400371835799888e-06</v>
       </c>
       <c r="CT6" t="n">
-        <v>7.407196562780882e-07</v>
+        <v>4.993475613446208e-06</v>
       </c>
       <c r="CU6" t="n">
-        <v>9.004706384985184e-07</v>
+        <v>9.647477554608486e-07</v>
       </c>
       <c r="CV6" t="n">
-        <v>3.061928168790473e-07</v>
+        <v>1.112888071475027e-06</v>
       </c>
       <c r="CW6" t="n">
-        <v>2.537222371756798e-06</v>
+        <v>5.933034117333591e-06</v>
       </c>
       <c r="CX6" t="n">
-        <v>1.738083938107593e-06</v>
+        <v>2.742577180470107e-06</v>
       </c>
       <c r="CY6" t="n">
-        <v>3.725563146872446e-07</v>
+        <v>3.705585413626977e-06</v>
       </c>
       <c r="CZ6" t="n">
-        <v>1.128886538026563e-06</v>
+        <v>7.417556844302453e-07</v>
       </c>
       <c r="DA6" t="n">
-        <v>3.076870598306414e-07</v>
+        <v>6.779286195524037e-06</v>
       </c>
       <c r="DB6" t="n">
-        <v>2.959197047402995e-07</v>
+        <v>5.05727712152293e-07</v>
       </c>
       <c r="DC6" t="n">
-        <v>3.256849367971881e-07</v>
+        <v>3.252974920542329e-06</v>
       </c>
       <c r="DD6" t="n">
-        <v>2.386303776802379e-07</v>
+        <v>1.378720298816916e-06</v>
       </c>
       <c r="DE6" t="n">
-        <v>1.780562115527573e-06</v>
+        <v>8.605728112343058e-07</v>
       </c>
       <c r="DF6" t="n">
-        <v>7.824888825780363e-07</v>
+        <v>1.447423619538313e-05</v>
       </c>
       <c r="DG6" t="n">
-        <v>2.395840965618845e-06</v>
+        <v>3.404088374736602e-06</v>
       </c>
       <c r="DH6" t="n">
-        <v>8.619547884336498e-07</v>
+        <v>1.535624141979497e-05</v>
       </c>
       <c r="DI6" t="n">
-        <v>1.435796121995736e-07</v>
+        <v>5.536008984563523e-07</v>
       </c>
       <c r="DJ6" t="n">
-        <v>3.821015184257703e-07</v>
+        <v>1.778789282980142e-06</v>
       </c>
       <c r="DK6" t="n">
-        <v>9.904778153213556e-07</v>
+        <v>2.605906047392637e-06</v>
       </c>
       <c r="DL6" t="n">
-        <v>1.629170810701908e-06</v>
+        <v>1.16780129246763e-05</v>
       </c>
       <c r="DM6" t="n">
-        <v>1.098862753678986e-06</v>
+        <v>3.579448730306467e-06</v>
       </c>
       <c r="DN6" t="n">
-        <v>2.972037407289463e-07</v>
+        <v>7.798452088536578e-07</v>
       </c>
       <c r="DO6" t="n">
-        <v>1.061440144667358e-07</v>
+        <v>5.761452484875917e-06</v>
       </c>
       <c r="DP6" t="n">
-        <v>2.673833250810276e-06</v>
+        <v>1.021919047161646e-06</v>
       </c>
       <c r="DQ6" t="n">
-        <v>2.169495587622805e-07</v>
+        <v>1.719572395586511e-07</v>
       </c>
       <c r="DR6" t="n">
-        <v>4.662636854391167e-08</v>
+        <v>1.335503156951745e-06</v>
       </c>
       <c r="DS6" t="n">
-        <v>2.715008520226547e-07</v>
+        <v>3.824349619208078e-07</v>
       </c>
       <c r="DT6" t="n">
-        <v>1.691873876552563e-07</v>
+        <v>2.401566689513857e-06</v>
       </c>
       <c r="DU6" t="n">
-        <v>1.181203515443485e-06</v>
+        <v>1.779816329872119e-07</v>
       </c>
       <c r="DV6" t="n">
-        <v>3.879573000631353e-07</v>
+        <v>3.551471309037879e-06</v>
       </c>
       <c r="DW6" t="n">
-        <v>4.628491012681479e-07</v>
+        <v>1.654855395827326e-06</v>
       </c>
       <c r="DX6" t="n">
-        <v>1.045082626660587e-06</v>
+        <v>3.587195124055143e-06</v>
       </c>
       <c r="DY6" t="n">
-        <v>1.330449094893993e-06</v>
+        <v>4.796278290086775e-07</v>
       </c>
       <c r="DZ6" t="n">
-        <v>7.010349349911849e-07</v>
+        <v>1.690331941972545e-06</v>
       </c>
       <c r="EA6" t="n">
-        <v>4.382387146506517e-07</v>
+        <v>2.069962647510692e-06</v>
       </c>
       <c r="EB6" t="n">
-        <v>1.286553242607624e-06</v>
+        <v>5.995076662657084e-06</v>
       </c>
       <c r="EC6" t="n">
-        <v>3.363144571721932e-07</v>
+        <v>7.033336260064971e-07</v>
       </c>
       <c r="ED6" t="n">
-        <v>8.160968718584627e-07</v>
+        <v>1.392759941154509e-06</v>
       </c>
       <c r="EE6" t="n">
-        <v>1.200607357532135e-06</v>
+        <v>2.258318545500515e-06</v>
       </c>
       <c r="EF6" t="n">
-        <v>8.992684570330312e-07</v>
+        <v>3.431855475355405e-07</v>
       </c>
       <c r="EG6" t="n">
-        <v>4.593834546540165e-06</v>
+        <v>1.637866489545559e-06</v>
       </c>
       <c r="EH6" t="n">
-        <v>3.323500550322933e-06</v>
+        <v>3.119630264336593e-06</v>
       </c>
       <c r="EI6" t="n">
-        <v>6.122725153545616e-07</v>
+        <v>8.588227728978381e-07</v>
       </c>
       <c r="EJ6" t="n">
-        <v>2.689316943360609e-06</v>
+        <v>2.373101608554862e-07</v>
       </c>
       <c r="EK6" t="n">
-        <v>1.056745873029286e-06</v>
+        <v>5.347083515516715e-06</v>
       </c>
       <c r="EL6" t="n">
-        <v>2.393175577708462e-07</v>
+        <v>6.18231865701091e-07</v>
       </c>
       <c r="EM6" t="n">
-        <v>9.282194355364481e-07</v>
+        <v>4.321164226439578e-08</v>
       </c>
       <c r="EN6" t="n">
-        <v>1.061318585016124e-06</v>
+        <v>1.621638261894986e-06</v>
       </c>
       <c r="EO6" t="n">
-        <v>3.054689159398549e-07</v>
+        <v>1.542917743790895e-06</v>
       </c>
       <c r="EP6" t="n">
-        <v>1.139044570663827e-06</v>
+        <v>2.876739927160088e-06</v>
       </c>
       <c r="EQ6" t="n">
-        <v>2.029903953371104e-06</v>
+        <v>1.519871375421644e-06</v>
       </c>
       <c r="ER6" t="n">
-        <v>6.179678848639014e-07</v>
+        <v>7.618557447131025e-07</v>
       </c>
       <c r="ES6" t="n">
-        <v>6.898348487993644e-07</v>
+        <v>1.006128286462626e-06</v>
       </c>
       <c r="ET6" t="n">
-        <v>1.50142477650661e-06</v>
+        <v>3.102741175098345e-08</v>
       </c>
       <c r="EU6" t="n">
-        <v>5.204032049732632e-07</v>
+        <v>1.803096552066563e-07</v>
       </c>
       <c r="EV6" t="n">
-        <v>1.178799266199348e-06</v>
+        <v>8.173441528924741e-06</v>
       </c>
       <c r="EW6" t="n">
-        <v>1.439316008600144e-07</v>
+        <v>1.052588231686968e-06</v>
       </c>
       <c r="EX6" t="n">
-        <v>7.519289511037641e-07</v>
+        <v>1.194043306895765e-06</v>
       </c>
       <c r="EY6" t="n">
-        <v>2.241326001239941e-06</v>
+        <v>5.639355549647007e-06</v>
       </c>
       <c r="EZ6" t="n">
-        <v>1.409812057318049e-06</v>
+        <v>1.243054953192768e-06</v>
       </c>
       <c r="FA6" t="n">
-        <v>8.730330591788515e-08</v>
+        <v>2.683934326341841e-06</v>
       </c>
       <c r="FB6" t="n">
-        <v>1.540420726087177e-06</v>
+        <v>2.572488426721975e-07</v>
       </c>
       <c r="FC6" t="n">
-        <v>7.565167834400199e-07</v>
+        <v>6.111216407589382e-06</v>
       </c>
       <c r="FD6" t="n">
-        <v>3.61845138741046e-07</v>
+        <v>1.79568235125771e-06</v>
       </c>
       <c r="FE6" t="n">
-        <v>1.135213736347396e-07</v>
+        <v>2.858344714695704e-06</v>
       </c>
       <c r="FF6" t="n">
-        <v>4.585709234561364e-07</v>
+        <v>2.520119323889958e-06</v>
       </c>
       <c r="FG6" t="n">
-        <v>3.384573119546985e-07</v>
+        <v>2.799479261739179e-06</v>
       </c>
       <c r="FH6" t="n">
-        <v>1.378242359351134e-06</v>
+        <v>2.85306623482029e-06</v>
       </c>
       <c r="FI6" t="n">
-        <v>2.355794094910379e-06</v>
+        <v>8.340651902472018e-07</v>
       </c>
       <c r="FJ6" t="n">
-        <v>5.894330001865455e-07</v>
+        <v>7.052725777612068e-06</v>
       </c>
       <c r="FK6" t="n">
-        <v>1.287003783545515e-06</v>
+        <v>5.074705882179842e-07</v>
       </c>
       <c r="FL6" t="n">
-        <v>8.60433488014678e-07</v>
+        <v>6.123487764853053e-06</v>
       </c>
       <c r="FM6" t="n">
-        <v>7.986931223058491e-07</v>
+        <v>6.737002991030749e-07</v>
       </c>
       <c r="FN6" t="n">
-        <v>7.326653417294438e-07</v>
+        <v>9.851924005488399e-07</v>
       </c>
       <c r="FO6" t="n">
-        <v>5.221394872023666e-07</v>
+        <v>1.578543788127718e-06</v>
       </c>
       <c r="FP6" t="n">
-        <v>9.596662948752055e-07</v>
+        <v>4.148035259277094e-06</v>
       </c>
       <c r="FQ6" t="n">
-        <v>1.632376211091469e-06</v>
+        <v>1.867408172984142e-06</v>
       </c>
       <c r="FR6" t="n">
-        <v>1.982501999009401e-06</v>
+        <v>3.148330279145739e-06</v>
       </c>
       <c r="FS6" t="n">
-        <v>1.943418510563788e-06</v>
+        <v>6.360536985994258e-07</v>
       </c>
       <c r="FT6" t="n">
-        <v>1.179083142233139e-07</v>
+        <v>1.093193714041263e-05</v>
       </c>
       <c r="FU6" t="n">
-        <v>1.372705014546227e-06</v>
+        <v>3.227386287107947e-06</v>
       </c>
       <c r="FV6" t="n">
-        <v>1.267260472559428e-06</v>
+        <v>2.191857674915809e-06</v>
       </c>
       <c r="FW6" t="n">
-        <v>7.374474648713658e-07</v>
+        <v>2.590709868854901e-07</v>
       </c>
       <c r="FX6" t="n">
-        <v>1.053608684742358e-06</v>
+        <v>3.644560820248444e-06</v>
       </c>
       <c r="FY6" t="n">
-        <v>2.414224582025781e-06</v>
+        <v>4.536452706815908e-06</v>
       </c>
       <c r="FZ6" t="n">
-        <v>9.838475989454309e-07</v>
+        <v>2.269809726840322e-07</v>
       </c>
       <c r="GA6" t="n">
-        <v>1.623681328055682e-06</v>
+        <v>2.446086455165641e-06</v>
       </c>
       <c r="GB6" t="n">
-        <v>2.557880179665517e-06</v>
+        <v>8.324627742695156e-07</v>
       </c>
       <c r="GC6" t="n">
-        <v>8.888460456546454e-07</v>
+        <v>1.395868184772553e-05</v>
       </c>
       <c r="GD6" t="n">
-        <v>5.08877519678208e-07</v>
+        <v>5.701191639673198e-06</v>
       </c>
       <c r="GE6" t="n">
-        <v>6.710232014484063e-07</v>
+        <v>9.244489774573594e-06</v>
       </c>
       <c r="GF6" t="n">
-        <v>3.504979417812137e-07</v>
+        <v>8.307205234814319e-08</v>
       </c>
       <c r="GG6" t="n">
-        <v>1.066756908585376e-06</v>
+        <v>9.338262429992028e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02879068069159985</v>
+        <v>0.0004435358860064298</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2684759199619293</v>
+        <v>0.005284911021590233</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04381212592124939</v>
+        <v>0.0005149442586116493</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03700388967990875</v>
+        <v>0.003160373773425817</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02485369890928268</v>
+        <v>0.0003761820844374597</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1003566384315491</v>
+        <v>0.003502652049064636</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04293559491634369</v>
+        <v>0.0002574520767666399</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01887824013829231</v>
+        <v>0.00129289086908102</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02597292326390743</v>
+        <v>0.0001018021212075837</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001185006462037563</v>
+        <v>0.001128350151702762</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2661071717739105</v>
+        <v>0.004359607584774494</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002638025907799602</v>
+        <v>0.0001258351258002222</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004834682680666447</v>
+        <v>0.002703702310100198</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0180044136941433</v>
+        <v>0.0003548448148649186</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1160897389054298</v>
+        <v>0.003830435685813427</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01422055810689926</v>
+        <v>0.0001831273693824187</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04999451711773872</v>
+        <v>9.99216572381556e-05</v>
       </c>
       <c r="R7" t="n">
-        <v>0.04122636839747429</v>
+        <v>4.323141183704138e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>0.009050369262695312</v>
+        <v>0.0003156091552227736</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001729545649141073</v>
+        <v>0.0008452613255940378</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01102267391979694</v>
+        <v>0.0001827364612836391</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02491848915815353</v>
+        <v>0.0002909932809416205</v>
       </c>
       <c r="W7" t="n">
-        <v>0.06013839691877365</v>
+        <v>0.0001389061944792047</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03471720963716507</v>
+        <v>0.0002109068154823035</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0001182658597826958</v>
+        <v>0.000591768475715071</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.03744470700621605</v>
+        <v>0.0004975750343874097</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.04528788849711418</v>
+        <v>0.0003106602234765887</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0600682869553566</v>
+        <v>0.0002320258063264191</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0482737123966217</v>
+        <v>0.0008208799990825355</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0004402939230203629</v>
+        <v>8.868028089636937e-06</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.02238229475915432</v>
+        <v>2.86857393803075e-05</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.02901474013924599</v>
+        <v>0.0002756394678726792</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.03562091290950775</v>
+        <v>0.0005111091304570436</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.002645993139594793</v>
+        <v>0.0004567177384160459</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.01413223333656788</v>
+        <v>0.0003751192707568407</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.03368080034852028</v>
+        <v>7.465600356226787e-05</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.01052962988615036</v>
+        <v>0.0004483814700506628</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.02135030925273895</v>
+        <v>0.000770194863434881</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.008997204713523388</v>
+        <v>0.0001865111698862165</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.03940501809120178</v>
+        <v>0.0003407878102734685</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.001427276059985161</v>
+        <v>0.000429260078817606</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.03436456248164177</v>
+        <v>0.0009431141661480069</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.01926496252417564</v>
+        <v>0.0003084807540290058</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.01643430255353451</v>
+        <v>0.0002560403081588447</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.01411252561956644</v>
+        <v>0.0007001372869126499</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.01739352196455002</v>
+        <v>0.0002881358959712088</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.1161094829440117</v>
+        <v>0.003248512744903564</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.04289323836565018</v>
+        <v>0.0001424910296918824</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.03894194215536118</v>
+        <v>0.0003598197363317013</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.02313644625246525</v>
+        <v>0.0003205767134204507</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.04540080204606056</v>
+        <v>0.002127486979588866</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.02589542232453823</v>
+        <v>2.686141669983044e-05</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.03987391665577888</v>
+        <v>0.000841984641738236</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.003620007773861289</v>
+        <v>0.0005952664650976658</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.03367713838815689</v>
+        <v>0.0003002729208674282</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.05528953671455383</v>
+        <v>0.001073725055903196</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.002658113837242126</v>
+        <v>0.001511114998720586</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.0462433286011219</v>
+        <v>0.001088307588361204</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.02303786762058735</v>
+        <v>0.001586942700669169</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.009267117828130722</v>
+        <v>0.001235270174220204</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.009469060227274895</v>
+        <v>0.0001446175738237798</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.00421483488753438</v>
+        <v>0.00122055143583566</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.01932845823466778</v>
+        <v>1.145631540566683e-05</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.004847307689487934</v>
+        <v>6.486425263574347e-05</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.02771303430199623</v>
+        <v>0.0005903513520024717</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.001501180697232485</v>
+        <v>0.0007258234545588493</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.01921726763248444</v>
+        <v>0.0007028458639979362</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0315440334379673</v>
+        <v>5.72607823414728e-05</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.07019718736410141</v>
+        <v>5.207033245824277e-05</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.01460478268563747</v>
+        <v>0.0003953538544010371</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.03701844811439514</v>
+        <v>0.0001784444320946932</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.02714391425251961</v>
+        <v>0.0002545000752434134</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.02385458722710609</v>
+        <v>0.0001724618778098375</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.06501635909080505</v>
+        <v>0.001671078847721219</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.002615337260067463</v>
+        <v>0.0008711108239367604</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.02583294175565243</v>
+        <v>0.0002490000042598695</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.02164874970912933</v>
+        <v>0.0002153939567506313</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.08473361283540726</v>
+        <v>0.0007601281977258623</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.02940764650702477</v>
+        <v>0.0003952897095587105</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.01821840181946754</v>
+        <v>0.0004764512996189296</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.005455336067825556</v>
+        <v>0.0005048811435699463</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.01725314557552338</v>
+        <v>1.000035263132304e-05</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.05874085426330566</v>
+        <v>0.0009455282706767321</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.005777462385594845</v>
+        <v>0.000592881056945771</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.01464900653809309</v>
+        <v>0.0004996589850634336</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.00323481485247612</v>
+        <v>0.0004309132636990398</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.01114657148718834</v>
+        <v>0.0004645654116757214</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.01019158679991961</v>
+        <v>0.0003188833361491561</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.004562122747302055</v>
+        <v>0.00026352220447734</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.003197197103872895</v>
+        <v>0.0003000804572366178</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.009753555990755558</v>
+        <v>0.0007120485533960164</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.02811186388134956</v>
+        <v>0.000291433825623244</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.02196871303021908</v>
+        <v>0.0002030940377153456</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.01338915340602398</v>
+        <v>0.0008897038642317057</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.01181023940443993</v>
+        <v>0.0001840076438384131</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.02472491934895515</v>
+        <v>0.0001391856203554198</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.01817207224667072</v>
+        <v>0.0008195481495931745</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.07374631613492966</v>
+        <v>0.0009448987548239529</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.05830183625221252</v>
+        <v>5.584691098192707e-05</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.01566015928983688</v>
+        <v>3.863005986204371e-05</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.05238110944628716</v>
+        <v>0.0008315527229569852</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.003139546373859048</v>
+        <v>0.0006369845941662788</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.01518166158348322</v>
+        <v>0.0007505335961468518</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.01275440119206905</v>
+        <v>0.000391747074900195</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.006202372722327709</v>
+        <v>0.0005760767962783575</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.01501086726784706</v>
+        <v>0.0002818909124471247</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.00619050906971097</v>
+        <v>0.0004792202380485833</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.01046962384134531</v>
+        <v>0.0002410369925200939</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.0686892569065094</v>
+        <v>0.0005280007026158273</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.03074638172984123</v>
+        <v>0.000814757018815726</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.07594035565853119</v>
+        <v>0.0002229664678452536</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.05268025025725365</v>
+        <v>0.001086656237021089</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.1049297228455544</v>
+        <v>0.0004529068828560412</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.01273373141884804</v>
+        <v>0.0001406503724865615</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.01143435388803482</v>
+        <v>0.0004297831910662353</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.03654846549034119</v>
+        <v>0.0009681358933448792</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.03724602609872818</v>
+        <v>0.0004201918200124055</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.01988157816231251</v>
+        <v>0.0003176536411046982</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.008084484376013279</v>
+        <v>0.0002016305952565745</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.01219523139297962</v>
+        <v>0.0004196849185973406</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.01244782563298941</v>
+        <v>0.0005336985923349857</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.00113227590918541</v>
+        <v>7.797629223205149e-05</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.01290368102490902</v>
+        <v>0.0002244183851871639</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.006218389607965946</v>
+        <v>0.0001360218884656206</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.009521517902612686</v>
+        <v>2.760437200777233e-05</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.009149884805083275</v>
+        <v>0.0007167299627326429</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.03356397151947021</v>
+        <v>0.0002725414815358818</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0376988984644413</v>
+        <v>0.0005189990624785423</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.0001274328678846359</v>
+        <v>0.0008164605824276805</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.007050947286188602</v>
+        <v>0.0005064899451099336</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.02957801148295403</v>
+        <v>5.532059003598988e-05</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.02090945839881897</v>
+        <v>2.980865974677727e-05</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.022921372205019</v>
+        <v>3.842028672806919e-05</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.01730175688862801</v>
+        <v>6.054418918211013e-06</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.01346824690699577</v>
+        <v>0.0001143270637840033</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.009716877713799477</v>
+        <v>0.0003305658174213022</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.08364585041999817</v>
+        <v>0.0006608064286410809</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.01787120476365089</v>
+        <v>0.0004008611140307039</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.007319416850805283</v>
+        <v>0.00016533795860596</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.03274095803499222</v>
+        <v>0.0001769423543009907</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.01033668965101242</v>
+        <v>0.0003486078639980406</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.01284734718501568</v>
+        <v>0.0005475196521729231</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.01899081096053123</v>
+        <v>0.0001073877938324586</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.006725527811795473</v>
+        <v>4.440975317265838e-06</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.007608667947351933</v>
+        <v>1.679082924965769e-05</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.03900079056620598</v>
+        <v>0.0005362826632335782</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.005298227071762085</v>
+        <v>0.0008581375586800277</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.0002933172509074211</v>
+        <v>0.0006162350764498115</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.008812703192234039</v>
+        <v>0.000159377625095658</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.01484814845025539</v>
+        <v>0.00013738326379098</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.001775805954821408</v>
+        <v>0.0003128411190118641</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.004094153176993132</v>
+        <v>0.0007309893262572587</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.003038083203136921</v>
+        <v>8.378570782952011e-05</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.01698958687484264</v>
+        <v>0.0001155696663772687</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.05121798068284988</v>
+        <v>0.0008359135827049613</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.0007408291567116976</v>
+        <v>0.0004763790930155665</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.01222554873675108</v>
+        <v>0.0005238561425358057</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.002102038823068142</v>
+        <v>0.0004748701176140457</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.01965967938303947</v>
+        <v>0.0004803359624929726</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.006593774538487196</v>
+        <v>0.0004179695970378816</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.007058636751025915</v>
+        <v>0.0002600525040179491</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.002941784914582968</v>
+        <v>0.0004425276420079172</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.007840538397431374</v>
+        <v>6.849176133982837e-05</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.02002847753465176</v>
+        <v>9.253920143237337e-05</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.04552668333053589</v>
+        <v>0.0007525112014263868</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.03190118446946144</v>
+        <v>0.00104863871820271</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.01509046368300915</v>
+        <v>0.0002530571073293686</v>
       </c>
       <c r="FL7" t="n">
-        <v>8.248910307884216e-05</v>
+        <v>0.0007304495666176081</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.01860778219997883</v>
+        <v>5.281782796373591e-05</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.01648219861090183</v>
+        <v>7.494020974263549e-05</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.02220353297889233</v>
+        <v>0.0002815353800542653</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.0071558584459126</v>
+        <v>0.0002921879640780389</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.0308949276804924</v>
+        <v>0.0008766732062213123</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.01812853291630745</v>
+        <v>0.0002796821354422718</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.03788641840219498</v>
+        <v>0.0006133215501904488</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.01183230988681316</v>
+        <v>0.0006705217529088259</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.07171107083559036</v>
+        <v>0.000788917881436646</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.003999182488769293</v>
+        <v>0.0001555499038659036</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.006282276008278131</v>
+        <v>0.0004703744780272245</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.037821926176548</v>
+        <v>0.0004031779535580426</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.0455523356795311</v>
+        <v>0.0009891698136925697</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.0002489564940333366</v>
+        <v>0.0002747506077867001</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.0138951288536191</v>
+        <v>0.0002275003062095493</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.00476148771122098</v>
+        <v>0.0001431439304724336</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.003128038719296455</v>
+        <v>0.0002646393259055912</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.02433525398373604</v>
+        <v>0.0007322257151827216</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.003179125720635056</v>
+        <v>0.002133396686986089</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.02725048363208771</v>
+        <v>2.109717752318829e-05</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.0001409370452165604</v>
+        <v>0.0006045689224265516</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.003470455994829535</v>
+        <v>0.001492217415943742</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01501046493649483</v>
+        <v>0.06141118332743645</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001325334887951612</v>
+        <v>0.005195898469537497</v>
       </c>
       <c r="D8" t="n">
-        <v>0.006064856890588999</v>
+        <v>0.03715737536549568</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001855932641774416</v>
+        <v>0.00749159837141633</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0007415957516059279</v>
+        <v>0.002337113255634904</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002974594477564096</v>
+        <v>0.002902262611314654</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003361096605658531</v>
+        <v>0.003774398239329457</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0009379299590364099</v>
+        <v>0.00386641570366919</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0009859615238383412</v>
+        <v>0.002054499462246895</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01310541108250618</v>
+        <v>0.05128977447748184</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003114872961305082</v>
+        <v>0.004049786366522312</v>
       </c>
       <c r="M8" t="n">
-        <v>0.006975063588470221</v>
+        <v>0.03093627467751503</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001474256510846317</v>
+        <v>0.01543122529983521</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001191879156976938</v>
+        <v>0.004331117030233145</v>
       </c>
       <c r="P8" t="n">
-        <v>0.003255406860262156</v>
+        <v>0.004354381002485752</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.003727015806362033</v>
+        <v>0.008370713330805302</v>
       </c>
       <c r="R8" t="n">
-        <v>4.65141492895782e-05</v>
+        <v>0.005532014649361372</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0006280171219259501</v>
+        <v>0.003491620300337672</v>
       </c>
       <c r="T8" t="n">
-        <v>4.968515713699162e-05</v>
+        <v>0.009649083018302917</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00113751576282084</v>
+        <v>0.008575065061450005</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0002028062881436199</v>
+        <v>2.419925294816494e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>0.004947311710566282</v>
+        <v>0.01584244146943092</v>
       </c>
       <c r="X8" t="n">
-        <v>0.000628709327429533</v>
+        <v>0.01489332504570484</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001577421673573554</v>
+        <v>0.006888458970934153</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.002404260216280818</v>
+        <v>0.004604827146977186</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.001162040629424155</v>
+        <v>0.0004619533428922296</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.003048026002943516</v>
+        <v>0.008940123952925205</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.003254999872297049</v>
+        <v>0.01258284784853458</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.003920203540474176</v>
+        <v>0.003943718504160643</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0009788557654246688</v>
+        <v>0.002111999318003654</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.002348168753087521</v>
+        <v>0.004326797556132078</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.001169657334685326</v>
+        <v>0.004512576851993799</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.003038022434338927</v>
+        <v>0.002002916298806667</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0005731110577471554</v>
+        <v>0.004188451915979385</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.001105580828152597</v>
+        <v>0.0023489142768085</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.003011203138157725</v>
+        <v>0.00337179796770215</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.003491806564852595</v>
+        <v>0.001667108037509024</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.0004197972011752427</v>
+        <v>0.003452707314863801</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0007994594052433968</v>
+        <v>0.0003461504820734262</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.00136035680770874</v>
+        <v>0.007728902157396078</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.001410280005075037</v>
+        <v>0.005235630087554455</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0001294290996156633</v>
+        <v>0.006981991231441498</v>
       </c>
       <c r="AR8" t="n">
-        <v>5.12341212015599e-05</v>
+        <v>0.00434020534157753</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.001353837316855788</v>
+        <v>0.00194026343524456</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.005164431408047676</v>
+        <v>0.001605546800419688</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.01047972124069929</v>
+        <v>0.03931888937950134</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.002030941192060709</v>
+        <v>0.004768571816384792</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.001103905495256186</v>
+        <v>0.01646466925740242</v>
       </c>
       <c r="AX8" t="n">
-        <v>9.048613719642162e-05</v>
+        <v>0.003695596475154161</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.0008309086551889777</v>
+        <v>0.007160502951592207</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.0006921179010532796</v>
+        <v>0.0004716683179140091</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.001609536702744663</v>
+        <v>0.006267281249165535</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0002814240287989378</v>
+        <v>0.01240020897239447</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0003183733206242323</v>
+        <v>0.007848167791962624</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.002891313750296831</v>
+        <v>0.02022583223879337</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.000968838226981461</v>
+        <v>0.01563112065196037</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.001021656673401594</v>
+        <v>0.008054526522755623</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0008272264967672527</v>
+        <v>0.007995438762009144</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.0008634735131636262</v>
+        <v>0.01354616694152355</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.003695130348205566</v>
+        <v>0.003736509475857019</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.002703835489228368</v>
+        <v>0.002424133010208607</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.003101541427895427</v>
+        <v>0.007368113845586777</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.0006396882236003876</v>
+        <v>0.01206213142722845</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.001533962902612984</v>
+        <v>0.01176353357732296</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0003164209483657032</v>
+        <v>0.01072447467595339</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0003568468382582068</v>
+        <v>0.000247470336034894</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.0001263181038666517</v>
+        <v>0.00994545966386795</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.001483328524045646</v>
+        <v>0.008364353328943253</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.0003070851089432836</v>
+        <v>0.01051390916109085</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.0001160590618383139</v>
+        <v>0.00235514366067946</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.0004574060440063477</v>
+        <v>0.003347245510667562</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.003928751219063997</v>
+        <v>0.002055772580206394</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.00471524428576231</v>
+        <v>0.01925359480082989</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.0005681467009708285</v>
+        <v>0.006354208569973707</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.003189476439729333</v>
+        <v>0.004956240765750408</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.002925112377852201</v>
+        <v>0.01211312413215637</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.0003002469893544912</v>
+        <v>0.01423626951873302</v>
       </c>
       <c r="CA8" t="n">
-        <v>6.375281373038888e-06</v>
+        <v>0.0006691340240649879</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.001388102653436363</v>
+        <v>0.002508273813873529</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.0006827042670920491</v>
+        <v>0.003630886320024729</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.0008545170421712101</v>
+        <v>5.805719411000609e-05</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.003642393974587321</v>
+        <v>0.009164598770439625</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.0007660327828489244</v>
+        <v>0.00139573379419744</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.0008294604485854506</v>
+        <v>0.004353998228907585</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.0005634033586829901</v>
+        <v>0.002903156680986285</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.0003689347940962762</v>
+        <v>0.001503052655607462</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.0003898137365467846</v>
+        <v>0.0001321494928561151</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.0005523416912183166</v>
+        <v>0.00031275674700737</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.0001099899964174256</v>
+        <v>0.002797595923766494</v>
       </c>
       <c r="CM8" t="n">
-        <v>3.254752664361149e-05</v>
+        <v>0.01076151430606842</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.003882762510329485</v>
+        <v>0.01005209237337112</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.0004361607134342194</v>
+        <v>0.003514619078487158</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.0002561490691732615</v>
+        <v>0.003270053304731846</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.006865239236503839</v>
+        <v>0.01947082579135895</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.002987691666930914</v>
+        <v>0.003999004606157541</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.001629687380045652</v>
+        <v>0.003149450290948153</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.0006979030440561473</v>
+        <v>0.01210180856287479</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.002084886189550161</v>
+        <v>0.007361936382949352</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.0008681072504259646</v>
+        <v>0.001101552392356098</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.003934070002287626</v>
+        <v>0.008059109561145306</v>
       </c>
       <c r="CX8" t="n">
-        <v>3.718129664775915e-05</v>
+        <v>0.004306882619857788</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.00113850214984268</v>
+        <v>0.005697420798242092</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.0006680962978862226</v>
+        <v>0.00359453889541328</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.0004003050271421671</v>
+        <v>0.001566527411341667</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.0003694572951644659</v>
+        <v>0.001393858576193452</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.0004370693350210786</v>
+        <v>0.00161208538338542</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.0006059961742721498</v>
+        <v>0.002935906173661351</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.0009023177553899586</v>
+        <v>0.009877731092274189</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.005423437803983688</v>
+        <v>0.009910945780575275</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.001429812167771161</v>
+        <v>0.003856340423226357</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.001319423317909241</v>
+        <v>0.02734320797026157</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.0003211711882613599</v>
+        <v>0.01755331829190254</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.002872896380722523</v>
+        <v>0.004076657351106405</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.0001549223379697651</v>
+        <v>0.000600817147642374</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.002473392989486456</v>
+        <v>0.006162485107779503</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.0003633345768321306</v>
+        <v>0.0002792328596115112</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.001653400482609868</v>
+        <v>0.00308286165818572</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.000999001320451498</v>
+        <v>0.00382339209318161</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.0002069022739306092</v>
+        <v>0.006700296420603991</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.000440048606833443</v>
+        <v>0.007006543688476086</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.0007622934062965214</v>
+        <v>0.01202583126723766</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.001045954530127347</v>
+        <v>0.00205498724244535</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.0006431747460737824</v>
+        <v>0.004285512026399374</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.0002575080143287778</v>
+        <v>0.002252403879538178</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.001081353169865906</v>
+        <v>0.002762964460998774</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.001728578703477979</v>
+        <v>0.005192592740058899</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.002858013613149524</v>
+        <v>0.01338915340602398</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.0005572697846218944</v>
+        <v>0.004245482385158539</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.001301327021792531</v>
+        <v>0.007880088873207569</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.002250958932563663</v>
+        <v>0.01142594218254089</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.0004071046714670956</v>
+        <v>0.008569098077714443</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.002491799183189869</v>
+        <v>0.003233765717595816</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.002049248898401856</v>
+        <v>0.002904941560700536</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.0008503260323777795</v>
+        <v>0.007573619484901428</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.001691603451035917</v>
+        <v>0.002611005678772926</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.00336634530685842</v>
+        <v>0.004741185810416937</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.0004588215379044414</v>
+        <v>0.0002732226275838912</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.001523277838714421</v>
+        <v>0.01019761804491282</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.001916991313919425</v>
+        <v>0.008026683703064919</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.0009398191468790174</v>
+        <v>0.008791954256594181</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.0006573310820385814</v>
+        <v>0.001572265522554517</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.0002624711487442255</v>
+        <v>0.001723205437883735</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.002294806763529778</v>
+        <v>0.001888876198790967</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.0002096099779009819</v>
+        <v>0.002959370147436857</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.001888975384645164</v>
+        <v>0.006936350837349892</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.002254381310194731</v>
+        <v>0.004932137671858072</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.000602955580689013</v>
+        <v>0.002762832678854465</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.0006529918755404651</v>
+        <v>0.001041056704707444</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.0007803932530805469</v>
+        <v>0.00322937942110002</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.0002843062684405595</v>
+        <v>0.009874382056295872</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.002006792696192861</v>
+        <v>0.007909007370471954</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.001606009900569916</v>
+        <v>0.002331312280148268</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.000370397639926523</v>
+        <v>0.001671081059612334</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.003385702613741159</v>
+        <v>0.008854778483510017</v>
       </c>
       <c r="EZ8" t="n">
-        <v>7.35918220016174e-05</v>
+        <v>0.001336920540779829</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.001007286366075277</v>
+        <v>0.00520284753292799</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.000715835252776742</v>
+        <v>0.001004275865852833</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.0003071510000154376</v>
+        <v>0.003641563234850764</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.0006747213774360716</v>
+        <v>0.003284891834482551</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.0004460233321879059</v>
+        <v>0.001810481073334813</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.0002512858482077718</v>
+        <v>0.002833608537912369</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.0002981919096782804</v>
+        <v>0.0001172917982330546</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.001506151282228529</v>
+        <v>0.008433999493718147</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.0005710916593670845</v>
+        <v>0.002223185729235411</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.001768521149642766</v>
+        <v>0.002268261276185513</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.00140494666993618</v>
+        <v>0.00790716428309679</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.0001589467283338308</v>
+        <v>0.005254452582448721</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.002293641213327646</v>
+        <v>0.005650383420288563</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.001987576019018888</v>
+        <v>0.001304123783484101</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.003166790353134274</v>
+        <v>0.000529960379935801</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.0001547127030789852</v>
+        <v>0.0009603322250768542</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.0002213469706475735</v>
+        <v>0.01122317649424076</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.0004218649992253631</v>
+        <v>0.002432366367429495</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.002184747718274593</v>
+        <v>0.005366850644350052</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.001477600075304508</v>
+        <v>0.008290667086839676</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.001421770080924034</v>
+        <v>0.01339748408645391</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.0002673142298590392</v>
+        <v>0.006935208104550838</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.001584668178111315</v>
+        <v>0.005360875278711319</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.0008276152075268328</v>
+        <v>0.003627895843237638</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.00227434909902513</v>
+        <v>0.004341109655797482</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.00165451574139297</v>
+        <v>0.005048679187893867</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.004340586252510548</v>
+        <v>0.007728620897978544</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.00151316705159843</v>
+        <v>0.004121941514313221</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.001199121586978436</v>
+        <v>0.002794068306684494</v>
       </c>
       <c r="GD8" t="n">
-        <v>9.975177817977965e-05</v>
+        <v>0.01188437454402447</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.001931081409566104</v>
+        <v>0.001695576123893261</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.002089424291625619</v>
+        <v>0.004237744491547346</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.001926432480104268</v>
+        <v>0.0010392633266747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.03109998255968094</v>
+        <v>0.007040469441562891</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01127345580607653</v>
+        <v>0.002198024187237024</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005575003102421761</v>
+        <v>0.001983932452276349</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0358692854642868</v>
+        <v>0.002644534688442945</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004291173070669174</v>
+        <v>0.00020284453057684</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004728703759610653</v>
+        <v>0.0017342270584777</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01244943402707577</v>
+        <v>0.0006570451660081744</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003931249491870403</v>
+        <v>0.0008653479744680226</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004377219825983047</v>
+        <v>0.0002797546912916005</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02692624740302563</v>
+        <v>0.006333510391414165</v>
       </c>
       <c r="K9" t="n">
-        <v>0.006388445384800434</v>
+        <v>0.001699474058113992</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01824884675443172</v>
+        <v>0.001826588530093431</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03306125476956367</v>
+        <v>0.0006162280915305018</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001067038858309388</v>
+        <v>0.001618139212951064</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01375472918152809</v>
+        <v>0.0002548703923821449</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0174492672085762</v>
+        <v>0.0002565367321949452</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01317178178578615</v>
+        <v>0.0002348394191358238</v>
       </c>
       <c r="R9" t="n">
-        <v>0.001791465794667602</v>
+        <v>0.0007992688333615661</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0002029642928391695</v>
+        <v>0.0006981713813729584</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0003342530690133572</v>
+        <v>0.001451807329431176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0003380161942914128</v>
+        <v>0.0007382514304481447</v>
       </c>
       <c r="V9" t="n">
-        <v>0.008040851913392544</v>
+        <v>2.843697438947856e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01106690056622028</v>
+        <v>0.0005648619262501597</v>
       </c>
       <c r="X9" t="n">
-        <v>0.001169105642475188</v>
+        <v>0.0007792323594912887</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.006268246099352837</v>
+        <v>0.0003725070564541966</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.00134245736990124</v>
+        <v>0.001051302184350789</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.001195900025777519</v>
+        <v>5.741308268625289e-05</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.004727846942842007</v>
+        <v>0.000499385641887784</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.003818534081801772</v>
+        <v>0.001511045615188777</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.006358023267239332</v>
+        <v>0.0003664669638965279</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.00183410570025444</v>
+        <v>0.001062576309777796</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.003057019785046577</v>
+        <v>0.0007452027057297528</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.00396060012280941</v>
+        <v>0.0001308550708927214</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.008353245444595814</v>
+        <v>0.0003937272704206407</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.0101836696267128</v>
+        <v>0.0006324925925582647</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.002041334984824061</v>
+        <v>0.0006433599046431482</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.01009732577949762</v>
+        <v>0.0009453910170122981</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.0038861776702106</v>
+        <v>0.0003253890026826411</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.003206538269296288</v>
+        <v>0.0001065142860170454</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.006355728022754192</v>
+        <v>0.0005086837918497622</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.00109913048800081</v>
+        <v>0.001095275045372546</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.007533093448728323</v>
+        <v>0.0002759089693427086</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.0007858790340833366</v>
+        <v>0.0005900561227463186</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.009659719653427601</v>
+        <v>0.0009428209159523249</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.0007054482703097165</v>
+        <v>0.0003244678373448551</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.01238564029335976</v>
+        <v>0.004337341990321875</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.008928838185966015</v>
+        <v>0.0007821733597666025</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.003269507782533765</v>
+        <v>0.00162606593221426</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.01944512687623501</v>
+        <v>0.001252342597581446</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.005957433022558689</v>
+        <v>0.0009083238546736538</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.01185777876526117</v>
+        <v>3.134191501885653e-07</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.007050321437418461</v>
+        <v>0.0002501757116988301</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.006917875725775957</v>
+        <v>0.0008426578715443611</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.002003426197916269</v>
+        <v>0.0006776867667213082</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.01159143075346947</v>
+        <v>0.002876691753044724</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.00677581736817956</v>
+        <v>0.003371883416548371</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.007470869459211826</v>
+        <v>9.973879787139595e-05</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.009059935808181763</v>
+        <v>2.286848030053079e-05</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.005925601813942194</v>
+        <v>0.001066676457412541</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.001146649708971381</v>
+        <v>7.614555943291634e-05</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.01099841017276049</v>
+        <v>0.0006980560719966888</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.01478247810155153</v>
+        <v>0.001625736942514777</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.001696849940344691</v>
+        <v>0.001472354982979596</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.002749883104115725</v>
+        <v>0.0001841400953708217</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.001254176488146186</v>
+        <v>0.0008966429159045219</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.0005615862319245934</v>
+        <v>0.0004160010139457881</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.0008459910750389099</v>
+        <v>0.000641112623270601</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.003130545141175389</v>
+        <v>0.0007231786148622632</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.001814590534195304</v>
+        <v>0.0004318511346355081</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.0007818316807970405</v>
+        <v>0.00043324357829988</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.004074106924235821</v>
+        <v>0.0007332696695812047</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.001733418321236968</v>
+        <v>0.0005633941618725657</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.01450226083397865</v>
+        <v>0.001729521551169455</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.0002341080398764461</v>
+        <v>0.0003938778536394238</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.007750377990305424</v>
+        <v>0.0008109319023787975</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.0113412719219923</v>
+        <v>0.000251331424806267</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.005704820621758699</v>
+        <v>0.0002204359479947016</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.001951439888216555</v>
+        <v>1.158502345788293e-05</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.0001456018071621656</v>
+        <v>0.000363547820597887</v>
       </c>
       <c r="CB9" t="n">
-        <v>9.798631072044373e-05</v>
+        <v>0.0008074590004980564</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.008554007858037949</v>
+        <v>0.0005621557938866317</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.005995367653667927</v>
+        <v>0.001295944093726575</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.006696411408483982</v>
+        <v>0.0006882492452859879</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.002008612267673016</v>
+        <v>0.0002177119167754427</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.005632960237562656</v>
+        <v>1.485976463300176e-05</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.001637300243601203</v>
+        <v>7.704421295784414e-05</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.001860100426711142</v>
+        <v>0.0008846988785080612</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.002354453783482313</v>
+        <v>4.293043457437307e-05</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.001568228006362915</v>
+        <v>0.0008209269144572318</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.002618776867166162</v>
+        <v>0.000181087656528689</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.004511096049100161</v>
+        <v>0.001454112585633993</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.0009932026732712984</v>
+        <v>0.0009636900504119694</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.002679131459444761</v>
+        <v>4.594276833813637e-05</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.002107066567987204</v>
+        <v>0.001248927321285009</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.01793350838124752</v>
+        <v>0.001342690899036825</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.01592784561216831</v>
+        <v>0.0004151472239755094</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.004693149123340845</v>
+        <v>0.001193352160044014</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.0117165818810463</v>
+        <v>0.001596433809027076</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.004819261841475964</v>
+        <v>0.000356188218574971</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.00460593868046999</v>
+        <v>0.001082137459889054</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.007462211884558201</v>
+        <v>0.0006978792953304946</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.002817661501467228</v>
+        <v>0.0002704462385736406</v>
       </c>
       <c r="CY9" t="n">
-        <v>0.00438656285405159</v>
+        <v>0.0001414811849826947</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.003536121686920524</v>
+        <v>1.29709032989922e-05</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.003303123405203223</v>
+        <v>0.0008306073723360896</v>
       </c>
       <c r="DB9" t="n">
-        <v>0.003305693157017231</v>
+        <v>0.0001152207332779653</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.0008217683061957359</v>
+        <v>0.0005656885914504528</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.001705748843960464</v>
+        <v>0.0002078521793009713</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.001769380643963814</v>
+        <v>0.0003729824675247073</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.01282794494181871</v>
+        <v>0.001581541378982365</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.004683796316385269</v>
+        <v>0.002537909895181656</v>
       </c>
       <c r="DH9" t="n">
-        <v>0.001720844302326441</v>
+        <v>0.002192476531490684</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.01064411923289299</v>
+        <v>0.001988507574424148</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.006390398368239403</v>
+        <v>0.001590725150890648</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.004288975149393082</v>
+        <v>7.53162894397974e-05</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.005824536085128784</v>
+        <v>0.002479513641446829</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.00355439237318933</v>
+        <v>0.0008342572255060077</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.002349109156057239</v>
+        <v>0.0006335555226542056</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.01014134753495455</v>
+        <v>0.0001523023238405585</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.002916361670941114</v>
+        <v>0.0007111825980246067</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.002636384917423129</v>
+        <v>0.0007670553168281913</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.0005657391157001257</v>
+        <v>0.0009105283534154296</v>
       </c>
       <c r="DS9" t="n">
-        <v>0.004088873043656349</v>
+        <v>0.0001959089131560177</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.001646006712689996</v>
+        <v>0.0003152764402329922</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.0002385880216024816</v>
+        <v>0.0002663782215677202</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.0002036882506217808</v>
+        <v>0.0007209473988041282</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.0005406453274190426</v>
+        <v>0.0009324317798018456</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.0002162335440516472</v>
+        <v>0.0004065676766913384</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.006456230767071247</v>
+        <v>0.0004502876254264265</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.001220313948579133</v>
+        <v>0.0002580896252766252</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.003070220584049821</v>
+        <v>0.0007542463717982173</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.009783806279301643</v>
+        <v>0.0003207573317922652</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.004569921642541885</v>
+        <v>1.826248990255408e-05</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.004423032980412245</v>
+        <v>0.0001556095667183399</v>
       </c>
       <c r="EE9" t="n">
-        <v>0.0005945254815742373</v>
+        <v>0.0003996967570856214</v>
       </c>
       <c r="EF9" t="n">
-        <v>0.0141566451638937</v>
+        <v>0.001440238556824625</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.003492845222353935</v>
+        <v>0.001086921198293567</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.001611065119504929</v>
+        <v>0.0009385136654600501</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.007832562550902367</v>
+        <v>0.001023730030283332</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.004427138715982437</v>
+        <v>0.0007557367207482457</v>
       </c>
       <c r="EK9" t="n">
-        <v>0.003056532703340054</v>
+        <v>0.0004639158141799271</v>
       </c>
       <c r="EL9" t="n">
-        <v>0.0007518117781728506</v>
+        <v>0.0001308625796809793</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.007228913716971874</v>
+        <v>0.0002523816074244678</v>
       </c>
       <c r="EN9" t="n">
-        <v>0.002206653822213411</v>
+        <v>2.04186490009306e-05</v>
       </c>
       <c r="EO9" t="n">
-        <v>0.001004963647574186</v>
+        <v>0.0002562947920523584</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.002271548844873905</v>
+        <v>0.001439075800590217</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.009325997903943062</v>
+        <v>0.0003155049926135689</v>
       </c>
       <c r="ER9" t="n">
-        <v>0.0001064876560121775</v>
+        <v>8.434147457592189e-05</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.001251574605703354</v>
+        <v>0.0003198157646693289</v>
       </c>
       <c r="ET9" t="n">
-        <v>0.003033601678907871</v>
+        <v>0.0009720606030896306</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.005140988156199455</v>
+        <v>0.0005898870876990259</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.004285984206944704</v>
+        <v>0.0005601201555691659</v>
       </c>
       <c r="EW9" t="n">
-        <v>0.001078662346117198</v>
+        <v>0.001375688822008669</v>
       </c>
       <c r="EX9" t="n">
-        <v>0.005772621370851994</v>
+        <v>0.001048109028488398</v>
       </c>
       <c r="EY9" t="n">
-        <v>0.006878423504531384</v>
+        <v>0.0007114580948837101</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.003753909841179848</v>
+        <v>0.0004699596902355552</v>
       </c>
       <c r="FA9" t="n">
-        <v>0.005246665794402361</v>
+        <v>0.0001370733079966158</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.002565778559073806</v>
+        <v>5.096227323519997e-05</v>
       </c>
       <c r="FC9" t="n">
-        <v>0.0003032136301044375</v>
+        <v>0.0006458154530264437</v>
       </c>
       <c r="FD9" t="n">
-        <v>0.002092607086524367</v>
+        <v>0.0001147928051068448</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.002696462906897068</v>
+        <v>0.0006972355186007917</v>
       </c>
       <c r="FF9" t="n">
-        <v>0.0001234088558703661</v>
+        <v>0.0002235811552964151</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.004770408384501934</v>
+        <v>1.107054413296282e-05</v>
       </c>
       <c r="FH9" t="n">
-        <v>0.000468895334051922</v>
+        <v>0.001096465508453548</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.0003157340106554329</v>
+        <v>0.001317970105446875</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0.007497202605009079</v>
+        <v>0.000352958682924509</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.002749238628894091</v>
+        <v>0.0003857211559079587</v>
       </c>
       <c r="FL9" t="n">
-        <v>0.01132283546030521</v>
+        <v>0.001150567783042789</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.003793639363721013</v>
+        <v>0.000428030441980809</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.007016613613814116</v>
+        <v>7.773711695335805e-05</v>
       </c>
       <c r="FO9" t="n">
-        <v>0.002681659068912268</v>
+        <v>0.0003548974345903844</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.008670379407703876</v>
+        <v>0.001008267747238278</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.01134008262306452</v>
+        <v>0.001834410824812949</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.009005008265376091</v>
+        <v>0.001074183615855873</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.006228461861610413</v>
+        <v>0.001028719008900225</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.004095180425792933</v>
+        <v>0.0005168380448594689</v>
       </c>
       <c r="FU9" t="n">
-        <v>0.006869516335427761</v>
+        <v>0.001174465985968709</v>
       </c>
       <c r="FV9" t="n">
-        <v>0.000799655681475997</v>
+        <v>0.0003455498372204602</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.009314142167568207</v>
+        <v>4.21143340645358e-05</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.004398847930133343</v>
+        <v>7.849841495044529e-06</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.007798477075994015</v>
+        <v>0.0004629850445780903</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0.004529794212430716</v>
+        <v>0.0006379308179020882</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.006910777650773525</v>
+        <v>0.0001387150259688497</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.002097922610118985</v>
+        <v>5.493056960403919e-05</v>
       </c>
       <c r="GC9" t="n">
-        <v>0.001891527441330254</v>
+        <v>0.001423957059159875</v>
       </c>
       <c r="GD9" t="n">
-        <v>0.003606926184147596</v>
+        <v>0.0002654232084751129</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.003805692540481687</v>
+        <v>0.0008902635308913887</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.006523153744637966</v>
+        <v>0.0002179228322347626</v>
       </c>
       <c r="GG9" t="n">
-        <v>0.00226001744158566</v>
+        <v>0.0004533740575425327</v>
       </c>
     </row>
     <row r="10">
@@ -6694,2847 +6694,2847 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0002710023836698383</v>
+        <v>5.226001121627633e-06</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0001222255959874019</v>
+        <v>3.573562571546063e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>5.305968898028368e-06</v>
+        <v>3.944978743675165e-06</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0001091438680305146</v>
+        <v>2.661719372554217e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>7.851858390495181e-05</v>
+        <v>1.04664368336671e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>6.488739018095657e-05</v>
+        <v>5.296995368553326e-06</v>
       </c>
       <c r="G12" t="n">
-        <v>0.000121964025311172</v>
+        <v>1.618670012248913e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>5.841096208314411e-05</v>
+        <v>1.435504941582622e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>1.820702891563997e-06</v>
+        <v>1.559038196319307e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.000240635679801926</v>
+        <v>7.473211553588044e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>7.288933556992561e-05</v>
+        <v>2.800857146212365e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>4.845292278332636e-05</v>
+        <v>2.96085590889561e-06</v>
       </c>
       <c r="M12" t="n">
-        <v>8.172632806235924e-05</v>
+        <v>2.024856075877324e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0001434153527952731</v>
+        <v>1.372718725178856e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>7.833775271137711e-06</v>
+        <v>1.578175215399824e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0001537386706331745</v>
+        <v>3.447196604611236e-06</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.57909336546436e-05</v>
+        <v>7.165151146182325e-06</v>
       </c>
       <c r="R12" t="n">
-        <v>3.168362309224904e-05</v>
+        <v>5.548450303649588e-07</v>
       </c>
       <c r="S12" t="n">
-        <v>2.481190676917322e-06</v>
+        <v>5.405399861047044e-08</v>
       </c>
       <c r="T12" t="n">
-        <v>6.76806894261972e-06</v>
+        <v>6.586144991160836e-06</v>
       </c>
       <c r="U12" t="n">
-        <v>1.09585971586057e-06</v>
+        <v>7.798348633514252e-07</v>
       </c>
       <c r="V12" t="n">
-        <v>5.274579052638728e-06</v>
+        <v>2.583586592663778e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>3.032178756257053e-05</v>
+        <v>4.742286819237052e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>5.787624104414135e-06</v>
+        <v>4.213750798953697e-06</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.043371857027523e-05</v>
+        <v>6.261078851821367e-06</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.917929593124427e-05</v>
+        <v>2.446625785523793e-06</v>
       </c>
       <c r="AA12" t="n">
-        <v>8.79202525538858e-06</v>
+        <v>6.264959665713832e-06</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.505411248421296e-05</v>
+        <v>1.652035734878154e-06</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.532020633021602e-06</v>
+        <v>4.553888174996246e-06</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.791586510080379e-05</v>
+        <v>2.229375922979671e-06</v>
       </c>
       <c r="AE12" t="n">
-        <v>2.5309494958492e-05</v>
+        <v>1.770948301782482e-06</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.273470429121517e-05</v>
+        <v>3.197009618816082e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.519731975160539e-06</v>
+        <v>7.692684107496461e-07</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.967710861412343e-05</v>
+        <v>4.020142569061136e-06</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.315514812944457e-05</v>
+        <v>2.095011723213247e-06</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8.740009434404783e-06</v>
+        <v>3.442778790940793e-07</v>
       </c>
       <c r="AK12" t="n">
-        <v>4.954637552145869e-05</v>
+        <v>3.98963720726897e-06</v>
       </c>
       <c r="AL12" t="n">
-        <v>8.245140634244308e-06</v>
+        <v>3.33542334374215e-06</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.150783257093281e-05</v>
+        <v>1.170989207821549e-06</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.95440750051057e-05</v>
+        <v>2.011420974667999e-06</v>
       </c>
       <c r="AO12" t="n">
-        <v>7.044686753943097e-06</v>
+        <v>2.993979023813154e-06</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.867485272872727e-05</v>
+        <v>8.809745963844762e-07</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.069897007255349e-05</v>
+        <v>3.433384335949086e-06</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.689014036150184e-05</v>
+        <v>1.499936161053483e-06</v>
       </c>
       <c r="AS12" t="n">
-        <v>4.989700300939148e-06</v>
+        <v>2.340564378755516e-06</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.0001199527323478833</v>
+        <v>2.622859256007359e-06</v>
       </c>
       <c r="AU12" t="n">
-        <v>5.081799463368952e-05</v>
+        <v>2.460584801156074e-05</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.370034735577065e-06</v>
+        <v>3.084377794948523e-06</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.941744555253536e-05</v>
+        <v>6.641063919232693e-06</v>
       </c>
       <c r="AX12" t="n">
-        <v>8.947790774982423e-06</v>
+        <v>3.799819126015791e-08</v>
       </c>
       <c r="AY12" t="n">
-        <v>4.932724550599232e-05</v>
+        <v>1.270370830752654e-06</v>
       </c>
       <c r="AZ12" t="n">
-        <v>3.948796438635327e-05</v>
+        <v>7.105494432835258e-07</v>
       </c>
       <c r="BA12" t="n">
-        <v>5.977937689749524e-06</v>
+        <v>6.47908609607839e-06</v>
       </c>
       <c r="BB12" t="n">
-        <v>4.108606844965834e-06</v>
+        <v>2.775756456685485e-06</v>
       </c>
       <c r="BC12" t="n">
-        <v>9.625887469155714e-05</v>
+        <v>1.230635007232195e-06</v>
       </c>
       <c r="BD12" t="n">
-        <v>1.362567854812369e-05</v>
+        <v>2.888098379116855e-06</v>
       </c>
       <c r="BE12" t="n">
-        <v>2.03207200684119e-05</v>
+        <v>1.113701273425249e-05</v>
       </c>
       <c r="BF12" t="n">
-        <v>2.31762787734624e-05</v>
+        <v>5.57081102670054e-06</v>
       </c>
       <c r="BG12" t="n">
-        <v>4.506464028963819e-05</v>
+        <v>1.247431555384537e-05</v>
       </c>
       <c r="BH12" t="n">
-        <v>7.606593499076553e-06</v>
+        <v>3.750190444407053e-06</v>
       </c>
       <c r="BI12" t="n">
-        <v>6.713711627526209e-05</v>
+        <v>2.958445065814885e-06</v>
       </c>
       <c r="BJ12" t="n">
-        <v>8.706948574399576e-05</v>
+        <v>8.713053830433637e-06</v>
       </c>
       <c r="BK12" t="n">
-        <v>7.779817678965628e-06</v>
+        <v>4.156882198458334e-07</v>
       </c>
       <c r="BL12" t="n">
-        <v>2.07271114049945e-05</v>
+        <v>5.731745659431908e-06</v>
       </c>
       <c r="BM12" t="n">
-        <v>3.68429500667844e-05</v>
+        <v>5.70546581002418e-06</v>
       </c>
       <c r="BN12" t="n">
-        <v>1.039720063999994e-05</v>
+        <v>4.115651790925767e-06</v>
       </c>
       <c r="BO12" t="n">
-        <v>1.505222189734923e-05</v>
+        <v>3.135025281153503e-06</v>
       </c>
       <c r="BP12" t="n">
-        <v>2.137703449989203e-05</v>
+        <v>7.185369213402737e-06</v>
       </c>
       <c r="BQ12" t="n">
-        <v>1.580787102284376e-05</v>
+        <v>2.501665676390985e-06</v>
       </c>
       <c r="BR12" t="n">
-        <v>3.2614785595797e-05</v>
+        <v>1.37029132929456e-06</v>
       </c>
       <c r="BS12" t="n">
-        <v>1.758762300596572e-05</v>
+        <v>5.366995992517332e-06</v>
       </c>
       <c r="BT12" t="n">
-        <v>1.747031637933105e-05</v>
+        <v>2.507136969143176e-06</v>
       </c>
       <c r="BU12" t="n">
-        <v>9.674669126980007e-05</v>
+        <v>7.488035862479592e-07</v>
       </c>
       <c r="BV12" t="n">
-        <v>4.560118668450741e-06</v>
+        <v>1.150045045505976e-05</v>
       </c>
       <c r="BW12" t="n">
-        <v>2.108334228978492e-05</v>
+        <v>4.11708424508106e-06</v>
       </c>
       <c r="BX12" t="n">
-        <v>8.934397192206234e-05</v>
+        <v>3.16604155159439e-06</v>
       </c>
       <c r="BY12" t="n">
-        <v>5.084044096292928e-05</v>
+        <v>2.83487139540739e-07</v>
       </c>
       <c r="BZ12" t="n">
-        <v>2.377732016611844e-05</v>
+        <v>9.331969295089948e-07</v>
       </c>
       <c r="CA12" t="n">
-        <v>2.543111440900248e-05</v>
+        <v>5.74253454033169e-06</v>
       </c>
       <c r="CB12" t="n">
-        <v>1.115151735575637e-05</v>
+        <v>8.87016653905448e-07</v>
       </c>
       <c r="CC12" t="n">
-        <v>1.78999180207029e-05</v>
+        <v>3.118869472018559e-06</v>
       </c>
       <c r="CD12" t="n">
-        <v>4.936891127726994e-05</v>
+        <v>6.324766843590623e-08</v>
       </c>
       <c r="CE12" t="n">
-        <v>4.766260462929495e-05</v>
+        <v>6.156745257612783e-06</v>
       </c>
       <c r="CF12" t="n">
-        <v>3.290437234682031e-06</v>
+        <v>3.359392621860025e-06</v>
       </c>
       <c r="CG12" t="n">
-        <v>2.290197880938649e-05</v>
+        <v>2.1074915821373e-06</v>
       </c>
       <c r="CH12" t="n">
-        <v>1.438396884623216e-05</v>
+        <v>1.659525878494605e-06</v>
       </c>
       <c r="CI12" t="n">
-        <v>4.127593911107397e-06</v>
+        <v>2.079126943499432e-06</v>
       </c>
       <c r="CJ12" t="n">
-        <v>2.132612098648679e-05</v>
+        <v>1.01361479210027e-06</v>
       </c>
       <c r="CK12" t="n">
-        <v>7.298123819055036e-06</v>
+        <v>1.044462692334491e-06</v>
       </c>
       <c r="CL12" t="n">
-        <v>6.362228305079043e-06</v>
+        <v>3.018771622009808e-06</v>
       </c>
       <c r="CM12" t="n">
-        <v>2.722316821746062e-05</v>
+        <v>7.382335297734244e-06</v>
       </c>
       <c r="CN12" t="n">
-        <v>2.630371818668209e-05</v>
+        <v>2.047217151357472e-07</v>
       </c>
       <c r="CO12" t="n">
-        <v>1.262497062270995e-05</v>
+        <v>2.010402113228338e-06</v>
       </c>
       <c r="CP12" t="n">
-        <v>1.997008439502679e-06</v>
+        <v>9.786524969968013e-06</v>
       </c>
       <c r="CQ12" t="n">
-        <v>4.179192728770431e-06</v>
+        <v>6.742634923284641e-06</v>
       </c>
       <c r="CR12" t="n">
-        <v>1.707650153548457e-05</v>
+        <v>3.111179864845326e-07</v>
       </c>
       <c r="CS12" t="n">
-        <v>1.216905911860522e-05</v>
+        <v>6.653850959992269e-06</v>
       </c>
       <c r="CT12" t="n">
-        <v>3.827223190455697e-05</v>
+        <v>1.816933831833012e-06</v>
       </c>
       <c r="CU12" t="n">
-        <v>9.312657311966177e-06</v>
+        <v>1.205331273013144e-06</v>
       </c>
       <c r="CV12" t="n">
-        <v>3.822302096523345e-05</v>
+        <v>5.869410415471066e-07</v>
       </c>
       <c r="CW12" t="n">
-        <v>4.491472282097675e-05</v>
+        <v>5.486540885613067e-06</v>
       </c>
       <c r="CX12" t="n">
-        <v>1.499830432294402e-05</v>
+        <v>3.14444218929566e-06</v>
       </c>
       <c r="CY12" t="n">
-        <v>1.866409002104774e-05</v>
+        <v>4.204407105135033e-06</v>
       </c>
       <c r="CZ12" t="n">
-        <v>2.136675448127789e-06</v>
+        <v>2.344878566873376e-06</v>
       </c>
       <c r="DA12" t="n">
-        <v>7.902958714112174e-06</v>
+        <v>2.709583895921241e-06</v>
       </c>
       <c r="DB12" t="n">
-        <v>2.894318458857015e-05</v>
+        <v>2.204614020229201e-06</v>
       </c>
       <c r="DC12" t="n">
-        <v>9.574870091455523e-06</v>
+        <v>1.351279934169725e-06</v>
       </c>
       <c r="DD12" t="n">
-        <v>8.667960173625033e-06</v>
+        <v>2.026928996201605e-06</v>
       </c>
       <c r="DE12" t="n">
-        <v>1.903159500216134e-05</v>
+        <v>5.294650691212155e-06</v>
       </c>
       <c r="DF12" t="n">
-        <v>9.301002137362957e-05</v>
+        <v>8.918359526433051e-07</v>
       </c>
       <c r="DG12" t="n">
-        <v>2.822285750880837e-05</v>
+        <v>9.375413355883211e-06</v>
       </c>
       <c r="DH12" t="n">
-        <v>1.309522212977754e-05</v>
+        <v>1.568516017869115e-05</v>
       </c>
       <c r="DI12" t="n">
-        <v>6.001390829624142e-06</v>
+        <v>5.845507530466421e-06</v>
       </c>
       <c r="DJ12" t="n">
-        <v>1.139247797254939e-05</v>
+        <v>3.615796458689147e-06</v>
       </c>
       <c r="DK12" t="n">
-        <v>2.763285192486364e-05</v>
+        <v>2.209639660577523e-06</v>
       </c>
       <c r="DL12" t="n">
-        <v>3.817226024693809e-05</v>
+        <v>6.007282991049578e-06</v>
       </c>
       <c r="DM12" t="n">
-        <v>3.388400000403635e-05</v>
+        <v>2.105266275975737e-06</v>
       </c>
       <c r="DN12" t="n">
-        <v>1.450015952286776e-05</v>
+        <v>1.051605750035378e-06</v>
       </c>
       <c r="DO12" t="n">
-        <v>3.228900459362194e-05</v>
+        <v>1.877730255728238e-06</v>
       </c>
       <c r="DP12" t="n">
-        <v>1.492084993515164e-05</v>
+        <v>3.716492301464314e-06</v>
       </c>
       <c r="DQ12" t="n">
-        <v>1.644432268221863e-05</v>
+        <v>8.656436421006219e-07</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.451802836527349e-05</v>
+        <v>2.03959484679217e-06</v>
       </c>
       <c r="DS12" t="n">
-        <v>8.911730446925503e-07</v>
+        <v>2.100243818858871e-06</v>
       </c>
       <c r="DT12" t="n">
-        <v>6.17361592958332e-06</v>
+        <v>8.165966960405058e-07</v>
       </c>
       <c r="DU12" t="n">
-        <v>3.647038056442398e-06</v>
+        <v>1.954520172375851e-07</v>
       </c>
       <c r="DV12" t="n">
-        <v>1.060199156199815e-05</v>
+        <v>6.135021067166235e-06</v>
       </c>
       <c r="DW12" t="n">
-        <v>1.8402082787361e-05</v>
+        <v>7.144442406570306e-07</v>
       </c>
       <c r="DX12" t="n">
-        <v>1.763058207870927e-05</v>
+        <v>5.011323082726449e-06</v>
       </c>
       <c r="DY12" t="n">
-        <v>2.938396391982678e-05</v>
+        <v>7.548344456154155e-06</v>
       </c>
       <c r="DZ12" t="n">
-        <v>9.344700629299041e-06</v>
+        <v>4.567821179080056e-07</v>
       </c>
       <c r="EA12" t="n">
-        <v>1.962857641046867e-05</v>
+        <v>1.536820718683884e-06</v>
       </c>
       <c r="EB12" t="n">
-        <v>4.396174972498557e-06</v>
+        <v>5.833295290358365e-06</v>
       </c>
       <c r="EC12" t="n">
-        <v>2.461801341269165e-05</v>
+        <v>1.941858499776572e-06</v>
       </c>
       <c r="ED12" t="n">
-        <v>4.415728835738264e-05</v>
+        <v>4.858551392317167e-07</v>
       </c>
       <c r="EE12" t="n">
-        <v>3.977416326961247e-06</v>
+        <v>1.192577087749669e-06</v>
       </c>
       <c r="EF12" t="n">
-        <v>8.683673513587564e-05</v>
+        <v>1.672541884545353e-06</v>
       </c>
       <c r="EG12" t="n">
-        <v>5.600675649475306e-05</v>
+        <v>4.293302936275722e-06</v>
       </c>
       <c r="EH12" t="n">
-        <v>1.945377698575612e-05</v>
+        <v>1.532964688522043e-06</v>
       </c>
       <c r="EI12" t="n">
-        <v>4.174712375970557e-05</v>
+        <v>2.734262807280174e-06</v>
       </c>
       <c r="EJ12" t="n">
-        <v>1.248506487172563e-05</v>
+        <v>3.329595074319514e-06</v>
       </c>
       <c r="EK12" t="n">
-        <v>8.166116458596662e-06</v>
+        <v>2.257075266243191e-06</v>
       </c>
       <c r="EL12" t="n">
-        <v>1.343915209872648e-05</v>
+        <v>2.980935278174002e-06</v>
       </c>
       <c r="EM12" t="n">
-        <v>1.720409090921748e-05</v>
+        <v>1.528126517769124e-06</v>
       </c>
       <c r="EN12" t="n">
-        <v>1.046046781993937e-05</v>
+        <v>1.445613634132314e-06</v>
       </c>
       <c r="EO12" t="n">
-        <v>1.528570282971486e-05</v>
+        <v>1.6545982362004e-07</v>
       </c>
       <c r="EP12" t="n">
-        <v>4.48951541329734e-05</v>
+        <v>2.967679847643012e-06</v>
       </c>
       <c r="EQ12" t="n">
-        <v>1.039862218021881e-05</v>
+        <v>4.189843366475543e-06</v>
       </c>
       <c r="ER12" t="n">
-        <v>7.919097697595134e-07</v>
+        <v>6.451709850807674e-07</v>
       </c>
       <c r="ES12" t="n">
-        <v>2.068399771815166e-05</v>
+        <v>2.980047838718747e-06</v>
       </c>
       <c r="ET12" t="n">
-        <v>1.208292997034732e-05</v>
+        <v>2.621392809487588e-07</v>
       </c>
       <c r="EU12" t="n">
-        <v>9.10496964934282e-07</v>
+        <v>2.358168103455682e-06</v>
       </c>
       <c r="EV12" t="n">
-        <v>7.566964086436201e-06</v>
+        <v>8.250102837337181e-06</v>
       </c>
       <c r="EW12" t="n">
-        <v>2.057804886135273e-05</v>
+        <v>3.104035386058968e-06</v>
       </c>
       <c r="EX12" t="n">
-        <v>4.265421011950821e-05</v>
+        <v>5.333313310984522e-07</v>
       </c>
       <c r="EY12" t="n">
-        <v>3.745518552022986e-05</v>
+        <v>5.242859515419696e-06</v>
       </c>
       <c r="EZ12" t="n">
-        <v>1.317650639975909e-05</v>
+        <v>2.420688360871281e-06</v>
       </c>
       <c r="FA12" t="n">
-        <v>2.475178916938603e-05</v>
+        <v>2.779250053208671e-06</v>
       </c>
       <c r="FB12" t="n">
-        <v>6.551660590048414e-06</v>
+        <v>5.781857908004895e-07</v>
       </c>
       <c r="FC12" t="n">
-        <v>5.306883849698352e-06</v>
+        <v>2.496811248420272e-06</v>
       </c>
       <c r="FD12" t="n">
-        <v>2.092413524223957e-05</v>
+        <v>1.616124563952326e-06</v>
       </c>
       <c r="FE12" t="n">
-        <v>1.10520113594248e-06</v>
+        <v>6.888096777402097e-07</v>
       </c>
       <c r="FF12" t="n">
-        <v>4.174376499577193e-06</v>
+        <v>3.203573214705102e-06</v>
       </c>
       <c r="FG12" t="n">
-        <v>2.498866888345219e-05</v>
+        <v>2.7796368158306e-06</v>
       </c>
       <c r="FH12" t="n">
-        <v>2.287019015057012e-06</v>
+        <v>1.220642957378004e-06</v>
       </c>
       <c r="FI12" t="n">
-        <v>1.011679614748573e-05</v>
+        <v>7.93597791926004e-06</v>
       </c>
       <c r="FJ12" t="n">
-        <v>1.94389394891914e-05</v>
+        <v>5.624848199659027e-06</v>
       </c>
       <c r="FK12" t="n">
-        <v>2.671220499905758e-05</v>
+        <v>1.392319518345175e-06</v>
       </c>
       <c r="FL12" t="n">
-        <v>2.217108158220071e-05</v>
+        <v>1.906897182379907e-06</v>
       </c>
       <c r="FM12" t="n">
-        <v>2.935346492449753e-05</v>
+        <v>1.899686367323739e-06</v>
       </c>
       <c r="FN12" t="n">
-        <v>2.366903572692536e-06</v>
+        <v>4.980848189006792e-06</v>
       </c>
       <c r="FO12" t="n">
-        <v>1.101589077734388e-06</v>
+        <v>2.25697954192583e-06</v>
       </c>
       <c r="FP12" t="n">
-        <v>2.335928911634255e-05</v>
+        <v>9.302788726017752e-07</v>
       </c>
       <c r="FQ12" t="n">
-        <v>8.224804332712665e-05</v>
+        <v>1.936384251166601e-06</v>
       </c>
       <c r="FR12" t="n">
-        <v>3.199526690877974e-05</v>
+        <v>8.541070428691455e-08</v>
       </c>
       <c r="FS12" t="n">
-        <v>3.126408773823641e-05</v>
+        <v>4.317327011449379e-07</v>
       </c>
       <c r="FT12" t="n">
-        <v>2.151202352251858e-06</v>
+        <v>6.7933742684545e-06</v>
       </c>
       <c r="FU12" t="n">
-        <v>2.261346890009008e-05</v>
+        <v>1.106861759581079e-06</v>
       </c>
       <c r="FV12" t="n">
-        <v>2.971724097733386e-05</v>
+        <v>5.056060672359308e-06</v>
       </c>
       <c r="FW12" t="n">
-        <v>1.756209258019226e-06</v>
+        <v>3.324503495605313e-06</v>
       </c>
       <c r="FX12" t="n">
-        <v>2.956713979074266e-05</v>
+        <v>2.85154033008439e-06</v>
       </c>
       <c r="FY12" t="n">
-        <v>4.085247928742319e-05</v>
+        <v>7.508361250074813e-06</v>
       </c>
       <c r="FZ12" t="n">
-        <v>3.998125066573266e-06</v>
+        <v>3.665533085950301e-06</v>
       </c>
       <c r="GA12" t="n">
-        <v>2.708250394789502e-05</v>
+        <v>5.377922889238107e-07</v>
       </c>
       <c r="GB12" t="n">
-        <v>1.705246359051671e-05</v>
+        <v>1.012709390124655e-06</v>
       </c>
       <c r="GC12" t="n">
-        <v>1.7684824342723e-06</v>
+        <v>9.035566108650528e-06</v>
       </c>
       <c r="GD12" t="n">
-        <v>1.284979680349352e-05</v>
+        <v>4.976492618880002e-06</v>
       </c>
       <c r="GE12" t="n">
-        <v>2.582480647106422e-06</v>
+        <v>1.145580972661264e-05</v>
       </c>
       <c r="GF12" t="n">
-        <v>2.976124051201623e-05</v>
+        <v>2.375581971136853e-06</v>
       </c>
       <c r="GG12" t="n">
-        <v>1.969311779248528e-05</v>
+        <v>6.034134457877371e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0006637636688537896</v>
+        <v>1.582238473929465e-05</v>
       </c>
       <c r="B13" t="n">
-        <v>6.70091831125319e-05</v>
+        <v>0.002827119547873735</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0006935365963727236</v>
+        <v>8.192118548322469e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0001494150783400983</v>
+        <v>0.0009904464241117239</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0003040114825125784</v>
+        <v>0.0005792116280645132</v>
       </c>
       <c r="F13" t="n">
-        <v>8.640668238513172e-05</v>
+        <v>0.001295525697059929</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001256967807421461</v>
+        <v>0.0002463496057316661</v>
       </c>
       <c r="H13" t="n">
-        <v>2.992854570038617e-05</v>
+        <v>0.0006039642030373216</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001461363572161645</v>
+        <v>0.0003396076499484479</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0006205508834682405</v>
+        <v>0.0002923593274317682</v>
       </c>
       <c r="K13" t="n">
-        <v>9.931475506164134e-05</v>
+        <v>0.002749936189502478</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0007794203120283782</v>
+        <v>0.0001983816036954522</v>
       </c>
       <c r="M13" t="n">
-        <v>3.102141999988817e-05</v>
+        <v>0.0007796060526743531</v>
       </c>
       <c r="N13" t="n">
-        <v>1.625264121685177e-05</v>
+        <v>0.0001179338141810149</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0001082050148397684</v>
+        <v>0.001180086866952479</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0001923178788274527</v>
+        <v>0.0001284280733671039</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.758740634424612e-05</v>
+        <v>0.0001117261563194916</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0002071192429866642</v>
+        <v>0.0005274099530652165</v>
       </c>
       <c r="S13" t="n">
-        <v>7.872921742091421e-06</v>
+        <v>6.955540447961539e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0001700391003396362</v>
+        <v>0.0002638575388118625</v>
       </c>
       <c r="U13" t="n">
-        <v>2.344275344512425e-06</v>
+        <v>0.0001100517038139515</v>
       </c>
       <c r="V13" t="n">
-        <v>3.232310700695962e-05</v>
+        <v>5.509828042704612e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>4.231163529766491e-06</v>
+        <v>0.0001987869472941384</v>
       </c>
       <c r="X13" t="n">
-        <v>5.523361687664874e-05</v>
+        <v>0.0001712125813355669</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.893570828950033e-05</v>
+        <v>6.471569213317707e-05</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0001261405268451199</v>
+        <v>0.0004405521904118359</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.659133315319195e-06</v>
+        <v>0.0002664168423507363</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.884719474939629e-06</v>
+        <v>0.0002997800183948129</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.789638190530241e-06</v>
+        <v>6.551953265443444e-05</v>
       </c>
       <c r="AD13" t="n">
-        <v>5.299737313180231e-05</v>
+        <v>1.273035013582557e-05</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0001437233586329967</v>
+        <v>3.965883661294356e-05</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.79134066356346e-05</v>
+        <v>4.169160456513055e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0001155641439254396</v>
+        <v>5.284749204292893e-05</v>
       </c>
       <c r="AH13" t="n">
-        <v>3.710101736942306e-05</v>
+        <v>4.481911309994757e-05</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.0002441925462335348</v>
+        <v>8.14367740531452e-05</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0001380656904075295</v>
+        <v>9.712418977869675e-05</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.0001374352868879214</v>
+        <v>0.0002408875589026138</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0001678155385889113</v>
+        <v>0.0004126321291550994</v>
       </c>
       <c r="AM13" t="n">
-        <v>6.549069075845182e-05</v>
+        <v>0.000101866629847791</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0001017062968458049</v>
+        <v>0.0001312788372160867</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.53226537804585e-05</v>
+        <v>0.0001029558334266767</v>
       </c>
       <c r="AP13" t="n">
-        <v>6.504712655441836e-05</v>
+        <v>0.0001581282849656418</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.496682762081036e-05</v>
+        <v>0.0002054010983556509</v>
       </c>
       <c r="AR13" t="n">
-        <v>6.293112528510392e-05</v>
+        <v>1.501390215707943e-06</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.707224848563783e-05</v>
+        <v>0.0001991538447327912</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.0002955380477942526</v>
+        <v>0.000368370529031381</v>
       </c>
       <c r="AU13" t="n">
-        <v>9.380898700328544e-05</v>
+        <v>0.001812325906939805</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0003515245334710926</v>
+        <v>0.0002503782161511481</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0001112662212108262</v>
+        <v>0.0001365241478197277</v>
       </c>
       <c r="AX13" t="n">
-        <v>7.549622750957496e-06</v>
+        <v>4.525887925410643e-05</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0001677535474300385</v>
+        <v>0.0006111047696322203</v>
       </c>
       <c r="AZ13" t="n">
-        <v>5.239894380792975e-05</v>
+        <v>0.000611907453276217</v>
       </c>
       <c r="BA13" t="n">
-        <v>6.222655065357685e-05</v>
+        <v>7.371092215180397e-05</v>
       </c>
       <c r="BB13" t="n">
-        <v>1.27977182273753e-05</v>
+        <v>0.0004599579842761159</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0001108275391743518</v>
+        <v>4.138042277190834e-05</v>
       </c>
       <c r="BD13" t="n">
-        <v>5.483449513121741e-06</v>
+        <v>0.0007439521141350269</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.0002274654834764078</v>
+        <v>0.0003510108508635312</v>
       </c>
       <c r="BF13" t="n">
-        <v>3.641521288955119e-06</v>
+        <v>4.296054612495936e-05</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.0001417467428836972</v>
+        <v>0.0006309806485660374</v>
       </c>
       <c r="BH13" t="n">
-        <v>7.526535773649812e-05</v>
+        <v>0.0006277651409618556</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0001185971632367</v>
+        <v>0.0001371631224174052</v>
       </c>
       <c r="BJ13" t="n">
-        <v>8.990040078060701e-05</v>
+        <v>0.000207107252208516</v>
       </c>
       <c r="BK13" t="n">
-        <v>4.412824637256563e-05</v>
+        <v>0.0005062109557911754</v>
       </c>
       <c r="BL13" t="n">
-        <v>4.702305886894464e-05</v>
+        <v>0.0001231174828717485</v>
       </c>
       <c r="BM13" t="n">
-        <v>9.611620043870062e-05</v>
+        <v>0.0004778506117872894</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.0001344346383120865</v>
+        <v>0.0001144817942986265</v>
       </c>
       <c r="BO13" t="n">
-        <v>1.921534021676052e-05</v>
+        <v>0.000185232114745304</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0001553539332235232</v>
+        <v>5.430322926258668e-05</v>
       </c>
       <c r="BQ13" t="n">
-        <v>2.169340405089315e-05</v>
+        <v>4.700673889601603e-05</v>
       </c>
       <c r="BR13" t="n">
-        <v>1.475165299780201e-05</v>
+        <v>0.0004498281923588365</v>
       </c>
       <c r="BS13" t="n">
-        <v>8.440559031441808e-05</v>
+        <v>5.608893116004765e-05</v>
       </c>
       <c r="BT13" t="n">
-        <v>8.606011761003174e-06</v>
+        <v>2.435520582366735e-05</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.0002541724243201315</v>
+        <v>7.214436482172459e-05</v>
       </c>
       <c r="BV13" t="n">
-        <v>3.701039531733841e-05</v>
+        <v>0.00097592209931463</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.0001468219124944881</v>
+        <v>0.00012350564065855</v>
       </c>
       <c r="BX13" t="n">
-        <v>5.023491030442528e-05</v>
+        <v>6.602267967537045e-05</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.0001377957087242976</v>
+        <v>5.748389230575413e-05</v>
       </c>
       <c r="BZ13" t="n">
-        <v>9.135507571045309e-05</v>
+        <v>0.0002771430590655655</v>
       </c>
       <c r="CA13" t="n">
-        <v>1.592761691426858e-06</v>
+        <v>9.252992458641529e-05</v>
       </c>
       <c r="CB13" t="n">
-        <v>6.012078301864676e-06</v>
+        <v>5.568952110479586e-05</v>
       </c>
       <c r="CC13" t="n">
-        <v>8.653258555568755e-05</v>
+        <v>0.0003186925896443427</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.0001425490627298132</v>
+        <v>5.724474249291234e-05</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.0001685651513980702</v>
+        <v>0.000438880582805723</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.0001464665547246113</v>
+        <v>0.0001201360864797607</v>
       </c>
       <c r="CG13" t="n">
-        <v>7.160610039136373e-06</v>
+        <v>6.488720828201622e-05</v>
       </c>
       <c r="CH13" t="n">
-        <v>3.822370854322799e-05</v>
+        <v>0.0001313787943217903</v>
       </c>
       <c r="CI13" t="n">
-        <v>6.456416303990409e-05</v>
+        <v>0.000101289180747699</v>
       </c>
       <c r="CJ13" t="n">
-        <v>2.819270048348699e-05</v>
+        <v>0.0002050547482213005</v>
       </c>
       <c r="CK13" t="n">
-        <v>1.901267205539625e-05</v>
+        <v>3.20811195706483e-05</v>
       </c>
       <c r="CL13" t="n">
-        <v>4.647614332498051e-06</v>
+        <v>0.0001482470543123782</v>
       </c>
       <c r="CM13" t="n">
-        <v>3.782695785048418e-05</v>
+        <v>0.000629699497949332</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.0001626166049391031</v>
+        <v>0.0002846221614163369</v>
       </c>
       <c r="CO13" t="n">
-        <v>5.880232492927462e-05</v>
+        <v>0.0001277362025575712</v>
       </c>
       <c r="CP13" t="n">
-        <v>9.458926069783047e-05</v>
+        <v>0.001115227700211108</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.0001170766045106575</v>
+        <v>0.0002872190088964999</v>
       </c>
       <c r="CR13" t="n">
-        <v>6.448495696531609e-06</v>
+        <v>0.0003387458273209631</v>
       </c>
       <c r="CS13" t="n">
-        <v>9.864143066806719e-06</v>
+        <v>0.0005325961392372847</v>
       </c>
       <c r="CT13" t="n">
-        <v>4.571170939016156e-05</v>
+        <v>0.0005274423165246844</v>
       </c>
       <c r="CU13" t="n">
-        <v>5.185694681131281e-05</v>
+        <v>0.0001156456637545489</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.0001295307738473639</v>
+        <v>6.485571793746203e-05</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.000150946551002562</v>
+        <v>0.0003759248938877136</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.0001666184252826497</v>
+        <v>0.000121126497106161</v>
       </c>
       <c r="CY13" t="n">
-        <v>9.144800969806965e-07</v>
+        <v>0.0002167131315218285</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.0001139948872150853</v>
+        <v>0.00015410287596751</v>
       </c>
       <c r="DA13" t="n">
-        <v>7.234625809360296e-05</v>
+        <v>1.876785972854123e-05</v>
       </c>
       <c r="DB13" t="n">
-        <v>3.845047467621043e-05</v>
+        <v>0.0001780912280082703</v>
       </c>
       <c r="DC13" t="n">
-        <v>7.305346116481815e-06</v>
+        <v>7.929607090773061e-05</v>
       </c>
       <c r="DD13" t="n">
-        <v>1.19248161354335e-05</v>
+        <v>0.0001209688998642378</v>
       </c>
       <c r="DE13" t="n">
-        <v>4.05310966016259e-05</v>
+        <v>0.0001570016465848312</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.0003382781869731843</v>
+        <v>0.0003830165951512754</v>
       </c>
       <c r="DG13" t="n">
-        <v>5.908411549171433e-05</v>
+        <v>2.700208278838545e-05</v>
       </c>
       <c r="DH13" t="n">
-        <v>2.837812644429505e-05</v>
+        <v>0.0004212261119391769</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0001468802947783843</v>
+        <v>0.0007710483041591942</v>
       </c>
       <c r="DJ13" t="n">
-        <v>2.272909478051588e-05</v>
+        <v>0.001049451762810349</v>
       </c>
       <c r="DK13" t="n">
-        <v>7.07852013874799e-05</v>
+        <v>0.0002825668489094824</v>
       </c>
       <c r="DL13" t="n">
-        <v>1.360023452434689e-05</v>
+        <v>0.000321944011375308</v>
       </c>
       <c r="DM13" t="n">
-        <v>5.19666718901135e-05</v>
+        <v>0.0007410061662085354</v>
       </c>
       <c r="DN13" t="n">
-        <v>1.9284938389319e-05</v>
+        <v>6.010737706674263e-05</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.000204565905733034</v>
+        <v>7.237838144646958e-05</v>
       </c>
       <c r="DP13" t="n">
-        <v>4.860086846747436e-05</v>
+        <v>0.0003806388704106212</v>
       </c>
       <c r="DQ13" t="n">
-        <v>1.121139030146878e-05</v>
+        <v>0.0001410758995916694</v>
       </c>
       <c r="DR13" t="n">
-        <v>2.594905527075753e-05</v>
+        <v>0.0001777376455720514</v>
       </c>
       <c r="DS13" t="n">
-        <v>5.848910950589925e-05</v>
+        <v>0.0002667712979018688</v>
       </c>
       <c r="DT13" t="n">
-        <v>6.463695171987638e-06</v>
+        <v>0.0005640240269713104</v>
       </c>
       <c r="DU13" t="n">
-        <v>2.143304300261661e-05</v>
+        <v>1.772062569216359e-05</v>
       </c>
       <c r="DV13" t="n">
-        <v>2.709621185204014e-06</v>
+        <v>0.0002727547253016382</v>
       </c>
       <c r="DW13" t="n">
-        <v>7.40562827559188e-05</v>
+        <v>5.588740896200761e-05</v>
       </c>
       <c r="DX13" t="n">
-        <v>4.167663428233936e-05</v>
+        <v>0.0003828680492006242</v>
       </c>
       <c r="DY13" t="n">
-        <v>8.265523320005741e-06</v>
+        <v>3.304134588688612e-05</v>
       </c>
       <c r="DZ13" t="n">
-        <v>5.874921771464869e-05</v>
+        <v>0.0005376178887672722</v>
       </c>
       <c r="EA13" t="n">
-        <v>9.720872913021594e-05</v>
+        <v>0.0002890453906729817</v>
       </c>
       <c r="EB13" t="n">
-        <v>6.390568159986287e-05</v>
+        <v>0.0001313621178269386</v>
       </c>
       <c r="EC13" t="n">
-        <v>2.19538233068306e-05</v>
+        <v>8.527722820872441e-05</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.000100149103673175</v>
+        <v>0.0002440399548504502</v>
       </c>
       <c r="EE13" t="n">
-        <v>1.10779728856869e-05</v>
+        <v>0.0004523632233031094</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.0002028550807153806</v>
+        <v>0.000129553081933409</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.0001124522896134295</v>
+        <v>0.0005317702307365835</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.0001571977336425334</v>
+        <v>8.679715392645448e-06</v>
       </c>
       <c r="EI13" t="n">
-        <v>2.552604564698413e-05</v>
+        <v>7.384152559097856e-05</v>
       </c>
       <c r="EJ13" t="n">
-        <v>3.498970181681216e-05</v>
+        <v>6.461503653554246e-05</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.0001708126947050914</v>
+        <v>0.0003570728295017034</v>
       </c>
       <c r="EL13" t="n">
-        <v>7.241959792736452e-06</v>
+        <v>0.0003044160839635879</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.0001108340657083318</v>
+        <v>0.0001702007430139929</v>
       </c>
       <c r="EN13" t="n">
-        <v>9.790589683689177e-05</v>
+        <v>8.613291720394045e-05</v>
       </c>
       <c r="EO13" t="n">
-        <v>5.639425944536924e-05</v>
+        <v>0.0001883113000076264</v>
       </c>
       <c r="EP13" t="n">
-        <v>7.881330384407192e-05</v>
+        <v>0.0001873466826509684</v>
       </c>
       <c r="EQ13" t="n">
-        <v>2.972014226543251e-05</v>
+        <v>0.0001389974495396018</v>
       </c>
       <c r="ER13" t="n">
-        <v>1.368605080642737e-05</v>
+        <v>0.0003163699875585735</v>
       </c>
       <c r="ES13" t="n">
-        <v>7.922359509393573e-05</v>
+        <v>0.0003540256875567138</v>
       </c>
       <c r="ET13" t="n">
-        <v>8.566550968680531e-05</v>
+        <v>0.0001871980493888259</v>
       </c>
       <c r="EU13" t="n">
-        <v>4.655216616811231e-05</v>
+        <v>0.0005656842258758843</v>
       </c>
       <c r="EV13" t="n">
-        <v>1.05872441054089e-05</v>
+        <v>0.0004383919294923544</v>
       </c>
       <c r="EW13" t="n">
-        <v>4.099502257304266e-05</v>
+        <v>3.409129931242205e-05</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.0001304650359088555</v>
+        <v>0.0001085550975403748</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.0001380048779537901</v>
+        <v>0.0003997321182396263</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.0001574732159497216</v>
+        <v>7.111358718248084e-05</v>
       </c>
       <c r="FA13" t="n">
-        <v>5.648864771501394e-06</v>
+        <v>2.082779610645957e-05</v>
       </c>
       <c r="FB13" t="n">
-        <v>8.218830043915659e-05</v>
+        <v>0.0001089287470676936</v>
       </c>
       <c r="FC13" t="n">
-        <v>2.624008993734606e-05</v>
+        <v>8.256832370534539e-05</v>
       </c>
       <c r="FD13" t="n">
-        <v>3.894559995387681e-05</v>
+        <v>0.0003413368249312043</v>
       </c>
       <c r="FE13" t="n">
-        <v>2.557788138801698e-05</v>
+        <v>5.538760160561651e-05</v>
       </c>
       <c r="FF13" t="n">
-        <v>3.336108784424141e-05</v>
+        <v>0.0002412108733551577</v>
       </c>
       <c r="FG13" t="n">
-        <v>8.410638838540763e-05</v>
+        <v>8.147388143697754e-05</v>
       </c>
       <c r="FH13" t="n">
-        <v>4.862449713982642e-05</v>
+        <v>0.0002292281424161047</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.0001448974653612822</v>
+        <v>0.000172038096934557</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.0001612923369975761</v>
+        <v>0.0004990309826098382</v>
       </c>
       <c r="FK13" t="n">
-        <v>1.011333188216668e-05</v>
+        <v>7.823064515832812e-05</v>
       </c>
       <c r="FL13" t="n">
-        <v>6.031207158230245e-05</v>
+        <v>2.32631809922168e-05</v>
       </c>
       <c r="FM13" t="n">
-        <v>2.096827483910602e-05</v>
+        <v>0.0003577665193006396</v>
       </c>
       <c r="FN13" t="n">
-        <v>1.949505895026959e-05</v>
+        <v>5.025976861361414e-07</v>
       </c>
       <c r="FO13" t="n">
-        <v>6.732136534992605e-05</v>
+        <v>0.0002953442744910717</v>
       </c>
       <c r="FP13" t="n">
-        <v>3.501598257571459e-05</v>
+        <v>0.0003816848038695753</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.0003813534276559949</v>
+        <v>0.0003805953310802579</v>
       </c>
       <c r="FR13" t="n">
-        <v>5.946703458903357e-05</v>
+        <v>8.44670066726394e-05</v>
       </c>
       <c r="FS13" t="n">
-        <v>7.675571396248415e-05</v>
+        <v>0.0004253805382177234</v>
       </c>
       <c r="FT13" t="n">
-        <v>1.600958785274997e-05</v>
+        <v>0.0001868529507191852</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.0001138319275924005</v>
+        <v>0.0004244857700541615</v>
       </c>
       <c r="FV13" t="n">
-        <v>1.698477171885315e-05</v>
+        <v>0.0004435082664713264</v>
       </c>
       <c r="FW13" t="n">
-        <v>6.185638085298706e-06</v>
+        <v>0.0001880212221294641</v>
       </c>
       <c r="FX13" t="n">
-        <v>4.513817111728713e-05</v>
+        <v>1.827381856855936e-05</v>
       </c>
       <c r="FY13" t="n">
-        <v>7.859725155867636e-05</v>
+        <v>0.0005670806858688593</v>
       </c>
       <c r="FZ13" t="n">
-        <v>5.133348167873919e-05</v>
+        <v>0.000109992251964286</v>
       </c>
       <c r="GA13" t="n">
-        <v>2.293577563250437e-05</v>
+        <v>7.187593291746452e-05</v>
       </c>
       <c r="GB13" t="n">
-        <v>1.408710886607878e-05</v>
+        <v>0.0001272879890166223</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.0001148830051533878</v>
+        <v>0.0001456372847314924</v>
       </c>
       <c r="GD13" t="n">
-        <v>9.067722567124292e-05</v>
+        <v>0.0003074747801292688</v>
       </c>
       <c r="GE13" t="n">
-        <v>7.764858310110867e-06</v>
+        <v>0.0002708270330913365</v>
       </c>
       <c r="GF13" t="n">
-        <v>1.941435402841307e-05</v>
+        <v>0.000146746591781266</v>
       </c>
       <c r="GG13" t="n">
-        <v>2.609646799101029e-05</v>
+        <v>0.0001335464476142079</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0002002980036195368</v>
+        <v>2.290873453603126e-06</v>
       </c>
       <c r="B14" t="n">
-        <v>8.66274640429765e-05</v>
+        <v>1.219993555423571e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>3.595803354983218e-05</v>
+        <v>1.653571644055774e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0001258030679309741</v>
+        <v>8.426262866123579e-06</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0001138611696660519</v>
+        <v>4.040339717903407e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>4.627821181202307e-05</v>
+        <v>2.881834006984718e-06</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001292181405005977</v>
+        <v>3.534508721259044e-07</v>
       </c>
       <c r="H14" t="n">
-        <v>3.458243736531585e-05</v>
+        <v>3.363237794928864e-07</v>
       </c>
       <c r="I14" t="n">
-        <v>6.312655750662088e-05</v>
+        <v>5.26138990153413e-07</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001855315349530429</v>
+        <v>3.145571326967911e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>6.530059181386605e-05</v>
+        <v>9.338449672213756e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>4.663655636250041e-05</v>
+        <v>1.41241071105469e-06</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0001125476992456242</v>
+        <v>6.633220891671954e-06</v>
       </c>
       <c r="N14" t="n">
-        <v>0.000135465495986864</v>
+        <v>4.790950242750114e-06</v>
       </c>
       <c r="O14" t="n">
-        <v>1.092221054932452e-06</v>
+        <v>5.933532975177513e-06</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0001162868866231292</v>
+        <v>1.464732122258283e-06</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.27929704124108e-05</v>
+        <v>1.958004986590822e-06</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0001124085320043378</v>
+        <v>6.133431043053861e-07</v>
       </c>
       <c r="S14" t="n">
-        <v>4.190529580228031e-06</v>
+        <v>2.290329916831979e-07</v>
       </c>
       <c r="T14" t="n">
-        <v>2.565128124842886e-05</v>
+        <v>2.307366230525076e-06</v>
       </c>
       <c r="U14" t="n">
-        <v>1.08708763946197e-05</v>
+        <v>4.507634230321855e-07</v>
       </c>
       <c r="V14" t="n">
-        <v>1.494980642746668e-05</v>
+        <v>1.186532131214335e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>5.243442501523532e-06</v>
+        <v>1.41729572078475e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>4.19387924921466e-06</v>
+        <v>1.588841087141191e-06</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.025915066245943e-05</v>
+        <v>2.062242401734693e-06</v>
       </c>
       <c r="Z14" t="n">
-        <v>5.003768092137761e-05</v>
+        <v>1.212564825436857e-06</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.912937088694889e-05</v>
+        <v>1.951738340721931e-06</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.083616280084243e-05</v>
+        <v>8.082591875790968e-07</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.951227750396356e-05</v>
+        <v>1.040085635395371e-06</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.277020601264667e-05</v>
+        <v>6.997767059147009e-07</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.307794082094915e-05</v>
+        <v>1.043180418491829e-06</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.786874316981994e-05</v>
+        <v>1.242570760950912e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.707881503738463e-05</v>
+        <v>1.228050194868047e-07</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.759846782078966e-05</v>
+        <v>9.043121167451318e-07</v>
       </c>
       <c r="AI14" t="n">
-        <v>4.841723784920759e-05</v>
+        <v>3.167787667734956e-07</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.514344694442116e-05</v>
+        <v>1.409392496043438e-07</v>
       </c>
       <c r="AK14" t="n">
-        <v>2.916730954893865e-05</v>
+        <v>1.528185180177388e-06</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.952534694282804e-05</v>
+        <v>1.174585918306548e-06</v>
       </c>
       <c r="AM14" t="n">
-        <v>7.396937235171208e-06</v>
+        <v>5.309489665705769e-07</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.962448706966825e-05</v>
+        <v>5.392867024056613e-07</v>
       </c>
       <c r="AO14" t="n">
-        <v>2.097807737300172e-05</v>
+        <v>1.067662765308341e-06</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.311018397449516e-05</v>
+        <v>2.331882029693588e-07</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.823604543460533e-05</v>
+        <v>9.163915137833101e-07</v>
       </c>
       <c r="AR14" t="n">
-        <v>1.297266680921894e-05</v>
+        <v>4.773218620357511e-07</v>
       </c>
       <c r="AS14" t="n">
-        <v>8.650249583297409e-07</v>
+        <v>9.827251687966054e-07</v>
       </c>
       <c r="AT14" t="n">
-        <v>8.654006524011493e-05</v>
+        <v>6.846014457551064e-07</v>
       </c>
       <c r="AU14" t="n">
-        <v>2.398289325356018e-05</v>
+        <v>8.193687790480908e-06</v>
       </c>
       <c r="AV14" t="n">
-        <v>1.897167749120854e-05</v>
+        <v>7.307191935979063e-07</v>
       </c>
       <c r="AW14" t="n">
-        <v>2.090189809678122e-05</v>
+        <v>2.672656364666182e-06</v>
       </c>
       <c r="AX14" t="n">
-        <v>1.140248150477419e-05</v>
+        <v>1.09168274775584e-06</v>
       </c>
       <c r="AY14" t="n">
-        <v>2.653529554663692e-05</v>
+        <v>5.079164111521095e-07</v>
       </c>
       <c r="AZ14" t="n">
-        <v>2.760742790997028e-05</v>
+        <v>1.114114525080367e-07</v>
       </c>
       <c r="BA14" t="n">
-        <v>3.405750612728298e-05</v>
+        <v>1.640527443669271e-06</v>
       </c>
       <c r="BB14" t="n">
-        <v>2.778352245513815e-05</v>
+        <v>1.071959673026868e-06</v>
       </c>
       <c r="BC14" t="n">
-        <v>6.700427184114233e-05</v>
+        <v>1.203457145493303e-06</v>
       </c>
       <c r="BD14" t="n">
-        <v>5.369912287278567e-06</v>
+        <v>1.097669837690773e-06</v>
       </c>
       <c r="BE14" t="n">
-        <v>2.487747769919224e-05</v>
+        <v>3.71483338312828e-06</v>
       </c>
       <c r="BF14" t="n">
-        <v>1.312358745053643e-05</v>
+        <v>1.77147433078062e-06</v>
       </c>
       <c r="BG14" t="n">
-        <v>5.198092549107969e-05</v>
+        <v>4.070353497809265e-06</v>
       </c>
       <c r="BH14" t="n">
-        <v>2.207093530159909e-06</v>
+        <v>1.650490162319329e-06</v>
       </c>
       <c r="BI14" t="n">
-        <v>6.431953806895763e-05</v>
+        <v>1.241892164216551e-06</v>
       </c>
       <c r="BJ14" t="n">
-        <v>7.619425014127046e-05</v>
+        <v>2.413376932963729e-06</v>
       </c>
       <c r="BK14" t="n">
-        <v>9.823121217777953e-06</v>
+        <v>1.199807684315601e-07</v>
       </c>
       <c r="BL14" t="n">
-        <v>1.495580727350898e-05</v>
+        <v>1.934009560500272e-06</v>
       </c>
       <c r="BM14" t="n">
-        <v>1.59739993250696e-05</v>
+        <v>2.326801677554613e-06</v>
       </c>
       <c r="BN14" t="n">
-        <v>9.360232070321217e-06</v>
+        <v>1.421634920006909e-06</v>
       </c>
       <c r="BO14" t="n">
-        <v>2.693050555535592e-05</v>
+        <v>1.146328600043489e-06</v>
       </c>
       <c r="BP14" t="n">
-        <v>1.011845415632706e-05</v>
+        <v>1.445811221856275e-06</v>
       </c>
       <c r="BQ14" t="n">
-        <v>6.626309641433181e-06</v>
+        <v>8.066563168540597e-07</v>
       </c>
       <c r="BR14" t="n">
-        <v>2.35133120440878e-05</v>
+        <v>2.573276276507386e-07</v>
       </c>
       <c r="BS14" t="n">
-        <v>3.932329491362907e-06</v>
+        <v>5.065421646577306e-07</v>
       </c>
       <c r="BT14" t="n">
-        <v>7.552889655926265e-06</v>
+        <v>6.877170903862861e-07</v>
       </c>
       <c r="BU14" t="n">
-        <v>8.108080510282889e-05</v>
+        <v>4.161378228673129e-07</v>
       </c>
       <c r="BV14" t="n">
-        <v>7.807190741004888e-06</v>
+        <v>3.835860752587905e-06</v>
       </c>
       <c r="BW14" t="n">
-        <v>1.991711542359553e-05</v>
+        <v>1.850643002399011e-06</v>
       </c>
       <c r="BX14" t="n">
-        <v>7.725042814854532e-05</v>
+        <v>1.255072902495158e-06</v>
       </c>
       <c r="BY14" t="n">
-        <v>4.098870704183355e-05</v>
+        <v>4.899149530501745e-07</v>
       </c>
       <c r="BZ14" t="n">
-        <v>1.615429937373847e-06</v>
+        <v>3.345264758536359e-07</v>
       </c>
       <c r="CA14" t="n">
-        <v>1.807981243473478e-05</v>
+        <v>1.909671027533477e-06</v>
       </c>
       <c r="CB14" t="n">
-        <v>1.274555143027101e-05</v>
+        <v>2.805267058647587e-07</v>
       </c>
       <c r="CC14" t="n">
-        <v>1.924581738421693e-05</v>
+        <v>8.436198868366773e-07</v>
       </c>
       <c r="CD14" t="n">
-        <v>3.22315281664487e-05</v>
+        <v>2.212795280343016e-08</v>
       </c>
       <c r="CE14" t="n">
-        <v>4.65347729914356e-05</v>
+        <v>2.059753342109616e-06</v>
       </c>
       <c r="CF14" t="n">
-        <v>1.344831616734155e-05</v>
+        <v>1.210920004268701e-06</v>
       </c>
       <c r="CG14" t="n">
-        <v>4.303639070712961e-05</v>
+        <v>7.219206850095361e-07</v>
       </c>
       <c r="CH14" t="n">
-        <v>2.541463618399575e-05</v>
+        <v>3.921468589851429e-07</v>
       </c>
       <c r="CI14" t="n">
-        <v>2.737912836892065e-06</v>
+        <v>9.986808890971588e-07</v>
       </c>
       <c r="CJ14" t="n">
-        <v>3.281469253124669e-05</v>
+        <v>2.022385103828128e-08</v>
       </c>
       <c r="CK14" t="n">
-        <v>2.88093224298791e-06</v>
+        <v>3.269042849751713e-07</v>
       </c>
       <c r="CL14" t="n">
-        <v>2.170481138819014e-06</v>
+        <v>1.137775711868017e-06</v>
       </c>
       <c r="CM14" t="n">
-        <v>1.017588692775462e-05</v>
+        <v>2.106150077452185e-06</v>
       </c>
       <c r="CN14" t="n">
-        <v>1.146759495895822e-05</v>
+        <v>6.820673092988727e-08</v>
       </c>
       <c r="CO14" t="n">
-        <v>7.570145044155652e-06</v>
+        <v>7.878612109379901e-07</v>
       </c>
       <c r="CP14" t="n">
-        <v>4.491445906751323e-06</v>
+        <v>2.718480573093984e-06</v>
       </c>
       <c r="CQ14" t="n">
-        <v>4.153664485784248e-05</v>
+        <v>1.61562934408721e-06</v>
       </c>
       <c r="CR14" t="n">
-        <v>2.842994581442326e-05</v>
+        <v>6.842395094963649e-08</v>
       </c>
       <c r="CS14" t="n">
-        <v>6.853221748315264e-06</v>
+        <v>2.081824959532241e-06</v>
       </c>
       <c r="CT14" t="n">
-        <v>1.366427932225633e-05</v>
+        <v>7.481263537556515e-07</v>
       </c>
       <c r="CU14" t="n">
-        <v>1.164635068562347e-05</v>
+        <v>5.532658633455867e-07</v>
       </c>
       <c r="CV14" t="n">
-        <v>2.59452444879571e-05</v>
+        <v>1.358077241775391e-07</v>
       </c>
       <c r="CW14" t="n">
-        <v>4.707309199147858e-05</v>
+        <v>1.87603814083559e-06</v>
       </c>
       <c r="CX14" t="n">
-        <v>1.82099702215055e-05</v>
+        <v>1.05510150660848e-06</v>
       </c>
       <c r="CY14" t="n">
-        <v>3.376204404048622e-05</v>
+        <v>1.447125555387174e-06</v>
       </c>
       <c r="CZ14" t="n">
-        <v>5.040717496740399e-06</v>
+        <v>6.944324013602454e-07</v>
       </c>
       <c r="DA14" t="n">
-        <v>5.033520210417919e-06</v>
+        <v>1.242087932951108e-06</v>
       </c>
       <c r="DB14" t="n">
-        <v>2.981286888825707e-05</v>
+        <v>3.282627005773975e-07</v>
       </c>
       <c r="DC14" t="n">
-        <v>1.524036179034738e-06</v>
+        <v>4.388445233871607e-07</v>
       </c>
       <c r="DD14" t="n">
-        <v>1.964544026122894e-06</v>
+        <v>8.129781576826645e-07</v>
       </c>
       <c r="DE14" t="n">
-        <v>6.851784746686462e-06</v>
+        <v>1.679919819252973e-06</v>
       </c>
       <c r="DF14" t="n">
-        <v>4.572379111777991e-05</v>
+        <v>1.554784887503047e-07</v>
       </c>
       <c r="DG14" t="n">
-        <v>2.609568400657736e-05</v>
+        <v>3.221708311684779e-06</v>
       </c>
       <c r="DH14" t="n">
-        <v>2.573366873548366e-05</v>
+        <v>4.209968210489023e-06</v>
       </c>
       <c r="DI14" t="n">
-        <v>4.192771666566841e-05</v>
+        <v>7.207138423837023e-07</v>
       </c>
       <c r="DJ14" t="n">
-        <v>2.588082861620933e-05</v>
+        <v>1.386997382724076e-06</v>
       </c>
       <c r="DK14" t="n">
-        <v>6.085703716962598e-06</v>
+        <v>4.820122967430507e-07</v>
       </c>
       <c r="DL14" t="n">
-        <v>7.272289076354355e-05</v>
+        <v>1.818767827899137e-06</v>
       </c>
       <c r="DM14" t="n">
-        <v>6.59250799799338e-05</v>
+        <v>1.134023932536365e-06</v>
       </c>
       <c r="DN14" t="n">
-        <v>3.421288511162857e-06</v>
+        <v>5.445298256745446e-07</v>
       </c>
       <c r="DO14" t="n">
-        <v>3.513452247716486e-05</v>
+        <v>9.044593411999813e-07</v>
       </c>
       <c r="DP14" t="n">
-        <v>2.13526509469375e-05</v>
+        <v>1.185248947876971e-06</v>
       </c>
       <c r="DQ14" t="n">
-        <v>2.74201956926845e-05</v>
+        <v>6.621878583246144e-07</v>
       </c>
       <c r="DR14" t="n">
-        <v>1.243270344275516e-05</v>
+        <v>1.436942227428517e-07</v>
       </c>
       <c r="DS14" t="n">
-        <v>2.817964195855893e-05</v>
+        <v>5.003542469239619e-07</v>
       </c>
       <c r="DT14" t="n">
-        <v>1.288074236072134e-05</v>
+        <v>4.109670044272207e-07</v>
       </c>
       <c r="DU14" t="n">
-        <v>9.182788744510617e-06</v>
+        <v>2.234079801155531e-07</v>
       </c>
       <c r="DV14" t="n">
-        <v>2.423184923827648e-07</v>
+        <v>1.875892053249117e-06</v>
       </c>
       <c r="DW14" t="n">
-        <v>1.280423748539761e-05</v>
+        <v>6.332592192848097e-07</v>
       </c>
       <c r="DX14" t="n">
-        <v>1.86267243407201e-05</v>
+        <v>1.672741177571879e-06</v>
       </c>
       <c r="DY14" t="n">
-        <v>1.541887286293786e-05</v>
+        <v>2.567724777691183e-06</v>
       </c>
       <c r="DZ14" t="n">
-        <v>8.444722880085465e-06</v>
+        <v>7.449946082260794e-08</v>
       </c>
       <c r="EA14" t="n">
-        <v>2.964634404634126e-05</v>
+        <v>5.869749770681665e-07</v>
       </c>
       <c r="EB14" t="n">
-        <v>6.906969247211237e-06</v>
+        <v>2.082500941469334e-06</v>
       </c>
       <c r="EC14" t="n">
-        <v>2.806041811709292e-05</v>
+        <v>1.170280938822543e-07</v>
       </c>
       <c r="ED14" t="n">
-        <v>4.56303714599926e-05</v>
+        <v>4.048739299378212e-07</v>
       </c>
       <c r="EE14" t="n">
-        <v>3.098298475379124e-05</v>
+        <v>4.17150602061156e-07</v>
       </c>
       <c r="EF14" t="n">
-        <v>5.756927203037776e-05</v>
+        <v>6.59839827221731e-07</v>
       </c>
       <c r="EG14" t="n">
-        <v>5.266300649964251e-05</v>
+        <v>1.462312525291054e-06</v>
       </c>
       <c r="EH14" t="n">
-        <v>1.015516500046942e-05</v>
+        <v>4.414318368617387e-07</v>
       </c>
       <c r="EI14" t="n">
-        <v>5.515432712854818e-05</v>
+        <v>1.044515556714032e-06</v>
       </c>
       <c r="EJ14" t="n">
-        <v>2.978327393066138e-05</v>
+        <v>4.874485171058041e-07</v>
       </c>
       <c r="EK14" t="n">
-        <v>2.185408629884478e-05</v>
+        <v>9.187646128339111e-07</v>
       </c>
       <c r="EL14" t="n">
-        <v>1.870293999672867e-05</v>
+        <v>4.001599336334039e-07</v>
       </c>
       <c r="EM14" t="n">
-        <v>8.489872925565578e-06</v>
+        <v>4.281771168734849e-07</v>
       </c>
       <c r="EN14" t="n">
-        <v>1.16727824206464e-06</v>
+        <v>4.838335030399321e-07</v>
       </c>
       <c r="EO14" t="n">
-        <v>3.402014499442885e-06</v>
+        <v>2.92838279847274e-07</v>
       </c>
       <c r="EP14" t="n">
-        <v>5.306501043378375e-05</v>
+        <v>6.381978323588555e-07</v>
       </c>
       <c r="EQ14" t="n">
-        <v>1.304245415667538e-05</v>
+        <v>1.487221993556886e-06</v>
       </c>
       <c r="ER14" t="n">
-        <v>4.369946509541478e-06</v>
+        <v>1.580351067786978e-07</v>
       </c>
       <c r="ES14" t="n">
-        <v>3.936033317586407e-05</v>
+        <v>1.260455860574439e-06</v>
       </c>
       <c r="ET14" t="n">
-        <v>4.723857728095027e-06</v>
+        <v>3.194431741349035e-08</v>
       </c>
       <c r="EU14" t="n">
-        <v>8.451806934317574e-07</v>
+        <v>5.262411377771059e-07</v>
       </c>
       <c r="EV14" t="n">
-        <v>1.410408822266618e-05</v>
+        <v>2.650047690622159e-06</v>
       </c>
       <c r="EW14" t="n">
-        <v>2.332417125217034e-06</v>
+        <v>7.388026688204263e-07</v>
       </c>
       <c r="EX14" t="n">
-        <v>3.039449438801967e-05</v>
+        <v>2.066172299919344e-07</v>
       </c>
       <c r="EY14" t="n">
-        <v>3.634543463704176e-05</v>
+        <v>1.751650756887102e-06</v>
       </c>
       <c r="EZ14" t="n">
-        <v>1.878551483969204e-05</v>
+        <v>8.479165103381092e-07</v>
       </c>
       <c r="FA14" t="n">
-        <v>3.531576658133417e-05</v>
+        <v>8.368402291125676e-07</v>
       </c>
       <c r="FB14" t="n">
-        <v>1.002120097837178e-05</v>
+        <v>2.174817410605101e-07</v>
       </c>
       <c r="FC14" t="n">
-        <v>1.475604221923277e-05</v>
+        <v>1.094480921892682e-06</v>
       </c>
       <c r="FD14" t="n">
-        <v>2.736666283453815e-05</v>
+        <v>2.689046993964439e-07</v>
       </c>
       <c r="FE14" t="n">
-        <v>1.709216803646996e-06</v>
+        <v>2.291637883899966e-07</v>
       </c>
       <c r="FF14" t="n">
-        <v>5.524182597582694e-06</v>
+        <v>1.240493020304712e-06</v>
       </c>
       <c r="FG14" t="n">
-        <v>2.578052954049781e-05</v>
+        <v>1.192246031678224e-06</v>
       </c>
       <c r="FH14" t="n">
-        <v>6.032727014826378e-06</v>
+        <v>2.370981349031354e-07</v>
       </c>
       <c r="FI14" t="n">
-        <v>1.282721314055379e-05</v>
+        <v>2.56267276199651e-06</v>
       </c>
       <c r="FJ14" t="n">
-        <v>2.44957409449853e-05</v>
+        <v>1.475184149057895e-06</v>
       </c>
       <c r="FK14" t="n">
-        <v>1.246687861566897e-05</v>
+        <v>2.246451913379133e-07</v>
       </c>
       <c r="FL14" t="n">
-        <v>1.584945312060881e-05</v>
+        <v>1.127171799453208e-06</v>
       </c>
       <c r="FM14" t="n">
-        <v>2.669946115929633e-05</v>
+        <v>3.293700672202249e-07</v>
       </c>
       <c r="FN14" t="n">
-        <v>3.157395985908806e-05</v>
+        <v>1.964310740731889e-06</v>
       </c>
       <c r="FO14" t="n">
-        <v>1.6233985661529e-05</v>
+        <v>1.060306203726213e-06</v>
       </c>
       <c r="FP14" t="n">
-        <v>3.666764678200707e-05</v>
+        <v>2.092707234169211e-07</v>
       </c>
       <c r="FQ14" t="n">
-        <v>6.231587030924857e-05</v>
+        <v>6.683203537249938e-07</v>
       </c>
       <c r="FR14" t="n">
-        <v>1.575025453348644e-05</v>
+        <v>5.127467943566444e-07</v>
       </c>
       <c r="FS14" t="n">
-        <v>1.015346788335592e-05</v>
+        <v>8.495585461787414e-07</v>
       </c>
       <c r="FT14" t="n">
-        <v>4.440327393240295e-05</v>
+        <v>2.483011257936596e-06</v>
       </c>
       <c r="FU14" t="n">
-        <v>7.116436609067023e-05</v>
+        <v>1.954760335820538e-07</v>
       </c>
       <c r="FV14" t="n">
-        <v>3.625950557761826e-05</v>
+        <v>1.122543949350074e-06</v>
       </c>
       <c r="FW14" t="n">
-        <v>7.595276201755041e-06</v>
+        <v>3.060106337215984e-07</v>
       </c>
       <c r="FX14" t="n">
-        <v>3.074973574257456e-05</v>
+        <v>1.060319277712551e-06</v>
       </c>
       <c r="FY14" t="n">
-        <v>3.205996472388506e-05</v>
+        <v>2.972446509375004e-06</v>
       </c>
       <c r="FZ14" t="n">
-        <v>5.850285560882185e-06</v>
+        <v>1.179495711767231e-06</v>
       </c>
       <c r="GA14" t="n">
-        <v>2.126809704350308e-05</v>
+        <v>1.474696347258941e-07</v>
       </c>
       <c r="GB14" t="n">
-        <v>3.723228292074054e-05</v>
+        <v>1.425268010279979e-07</v>
       </c>
       <c r="GC14" t="n">
-        <v>1.153784796770196e-05</v>
+        <v>2.929896254499909e-06</v>
       </c>
       <c r="GD14" t="n">
-        <v>1.453278036933625e-05</v>
+        <v>1.359152975055622e-06</v>
       </c>
       <c r="GE14" t="n">
-        <v>3.635134635260329e-05</v>
+        <v>2.771699655568227e-06</v>
       </c>
       <c r="GF14" t="n">
-        <v>3.147919414914213e-06</v>
+        <v>7.9379708495253e-07</v>
       </c>
       <c r="GG14" t="n">
-        <v>2.713429421419278e-05</v>
+        <v>1.898417053780577e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.01802242919802666</v>
+        <v>0.001245457213371992</v>
       </c>
       <c r="B15" t="n">
-        <v>0.002993965521454811</v>
+        <v>0.01546184159815311</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02270177565515041</v>
+        <v>0.001463839435018599</v>
       </c>
       <c r="D15" t="n">
-        <v>0.005307316314429045</v>
+        <v>0.005295494571328163</v>
       </c>
       <c r="E15" t="n">
-        <v>0.007607849314808846</v>
+        <v>0.002315460238605738</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001999594271183014</v>
+        <v>0.01001224853098392</v>
       </c>
       <c r="G15" t="n">
-        <v>0.003461619839072227</v>
+        <v>0.001648077159188688</v>
       </c>
       <c r="H15" t="n">
-        <v>0.004330750089138746</v>
+        <v>0.005602437071502209</v>
       </c>
       <c r="I15" t="n">
-        <v>0.008767008781433105</v>
+        <v>0.002026045229285955</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0191290695220232</v>
+        <v>0.002246155869215727</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003136801067739725</v>
+        <v>0.01492876280099154</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02341892570257187</v>
+        <v>7.257933611981571e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0007123241666704416</v>
+        <v>0.003485613269731402</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0004339106380939484</v>
+        <v>0.0003918497823178768</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001980708912014961</v>
+        <v>0.009263935498893261</v>
       </c>
       <c r="P15" t="n">
-        <v>0.00322066992521286</v>
+        <v>0.0003732723416760564</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.006191018503159285</v>
+        <v>0.001817542244680226</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01077678427100182</v>
+        <v>0.002710676752030849</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0004397098673507571</v>
+        <v>9.309680899605155e-05</v>
       </c>
       <c r="T15" t="n">
-        <v>0.005913956556469202</v>
+        <v>0.001390732475556433</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0001155898789875209</v>
+        <v>0.0002771778963506222</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0008599889115430415</v>
+        <v>0.001560074626468122</v>
       </c>
       <c r="W15" t="n">
-        <v>0.002305206842720509</v>
+        <v>0.001769328489899635</v>
       </c>
       <c r="X15" t="n">
-        <v>0.001607112819328904</v>
+        <v>0.0009887289488688111</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.002081125974655151</v>
+        <v>0.0004971513990312815</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.004248362500220537</v>
+        <v>0.002398134674876928</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.395982690155506e-05</v>
+        <v>0.001473950571380556</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.001136249513365328</v>
+        <v>0.0006549510871991515</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.001574298948980868</v>
+        <v>0.000676455965731293</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0004846040974371135</v>
+        <v>0.0001575934438733384</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.000960796547587961</v>
+        <v>0.0004231156199239194</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.0002371269511058927</v>
+        <v>0.001372957136482</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0008469907334074378</v>
+        <v>4.82639588881284e-05</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.001246068859472871</v>
+        <v>0.000102632911875844</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.006131728179752827</v>
+        <v>0.0007661766139790416</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.00449215155094862</v>
+        <v>0.0002431947214063257</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.004771125037223101</v>
+        <v>0.002220676513388753</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.005524225998669863</v>
+        <v>0.001214051153510809</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.00204875273630023</v>
+        <v>8.496857481077313e-05</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.00449671596288681</v>
+        <v>0.001002766657620668</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.001844915910623968</v>
+        <v>0.0006832382641732693</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.0004300432337913662</v>
+        <v>0.00231857574544847</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.0006429450586438179</v>
+        <v>0.001060003647580743</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.0005488537135533988</v>
+        <v>0.0009299839730374515</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.0005990428617224097</v>
+        <v>0.001875805202871561</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.007193684112280607</v>
+        <v>0.0009473378304392099</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.005010216496884823</v>
+        <v>0.008395375683903694</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.0129554346203804</v>
+        <v>0.001314165536314249</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.004351686220616102</v>
+        <v>0.001984516391530633</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.003039918374270201</v>
+        <v>0.001679024891927838</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.005669618956744671</v>
+        <v>0.005527028348296881</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.002367420122027397</v>
+        <v>0.003476077690720558</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.003392206039279699</v>
+        <v>0.001898469752632082</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.0006723279366269708</v>
+        <v>0.003044159384444356</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.002764798235148191</v>
+        <v>0.0006030838703736663</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.001354629406705499</v>
+        <v>0.00386244198307395</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.004707772750407457</v>
+        <v>0.003991644363850355</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.0004558644723147154</v>
+        <v>0.0006384118460118771</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.006913940422236919</v>
+        <v>0.0005273850401863456</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.003701516427099705</v>
+        <v>0.002036046469584107</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.00346423196606338</v>
+        <v>0.0008908925228752196</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.003910890780389309</v>
+        <v>0.00159935827832669</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.0009897472336888313</v>
+        <v>0.002371970564126968</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.001082643051631749</v>
+        <v>0.0004160563694313169</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.002399565419182181</v>
+        <v>0.002615454373881221</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.004504730924963951</v>
+        <v>0.002045974368229508</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.0004027637769468129</v>
+        <v>0.0004096213961020112</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.005268848966807127</v>
+        <v>0.001256292802281678</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.002915023127570748</v>
+        <v>0.0002159878786187619</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.002715230919420719</v>
+        <v>0.001781593076884747</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.003358451882377267</v>
+        <v>0.001467965426854789</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.0002316328755114228</v>
+        <v>0.001073305960744619</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.008038333617150784</v>
+        <v>0.000140943651786074</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.0003027964849025011</v>
+        <v>0.005299355369061232</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.005406472831964493</v>
+        <v>0.001321199699304998</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.002530860947445035</v>
+        <v>0.0004016845487058163</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.00103800545912236</v>
+        <v>0.0009776173392310739</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.001963652670383453</v>
+        <v>0.002358305267989635</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.001610703999176621</v>
+        <v>0.0003105480864178389</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.001841489458456635</v>
+        <v>0.000399612239561975</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.002832317724823952</v>
+        <v>0.001136997598223388</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.003858146956190467</v>
+        <v>0.0004814970889128745</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.004800483118742704</v>
+        <v>0.002834957558661699</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.00433269189670682</v>
+        <v>0.00122010987251997</v>
       </c>
       <c r="CG15" t="n">
-        <v>9.629601845517755e-05</v>
+        <v>0.0006404594168998301</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.001004238380119205</v>
+        <v>0.000487439101561904</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.001373330131173134</v>
+        <v>0.001005078665912151</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.0004858743341173977</v>
+        <v>0.001201967243105173</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.0006472929380834103</v>
+        <v>0.001061215065419674</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.0011282340856269</v>
+        <v>0.00118014111649245</v>
       </c>
       <c r="CM15" t="n">
-        <v>3.834487870335579e-05</v>
+        <v>0.003844058373942971</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.0006791485939174891</v>
+        <v>0.001524445717222989</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.001746175577864051</v>
+        <v>9.160488843917847e-05</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.001004239427857101</v>
+        <v>0.004370732232928276</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.003177029080688953</v>
+        <v>0.001350517617538571</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.001174816046841443</v>
+        <v>0.004021800588816404</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.0003245289262849838</v>
+        <v>0.003050947096198797</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.002665780484676361</v>
+        <v>0.002665614243596792</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.00266340933740139</v>
+        <v>0.00126585632096976</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.003385838586837053</v>
+        <v>0.0004336816200520843</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.004384062252938747</v>
+        <v>0.002670650137588382</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.004495908971875906</v>
+        <v>0.001442714594304562</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.000290621304884553</v>
+        <v>0.001423942390829325</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.003270793706178665</v>
+        <v>0.0004327999777160585</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.001496663433499634</v>
+        <v>0.0008129006600938737</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.0001917743356898427</v>
+        <v>0.001186193199828267</v>
       </c>
       <c r="DC15" t="n">
-        <v>9.11079696379602e-05</v>
+        <v>0.001843318110331893</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.0008266136283054948</v>
+        <v>0.00103049969766289</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.0002533699152991176</v>
+        <v>0.001229381537996233</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.01161130797117949</v>
+        <v>0.002303440822288394</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.008224942721426487</v>
+        <v>8.960634295362979e-05</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.001426362781785429</v>
+        <v>0.003000786760821939</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.0009453313541598618</v>
+        <v>0.004141310695558786</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.002124757738783956</v>
+        <v>0.003536887234076858</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.0008704513893462718</v>
+        <v>0.001465933280996978</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.003655313048511744</v>
+        <v>0.002585696056485176</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.001835403847508132</v>
+        <v>0.003962639719247818</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.0003653433523140848</v>
+        <v>0.0004042307264171541</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.005477938801050186</v>
+        <v>0.001753084943629801</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.0004916543839499354</v>
+        <v>0.001249867142178118</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.0002551108482293785</v>
+        <v>0.001008244347758591</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.002759203081950545</v>
+        <v>0.001522928476333618</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.002090193098410964</v>
+        <v>0.002652009017765522</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.001165696769021451</v>
+        <v>0.001891567604616284</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.001686190254986286</v>
+        <v>0.001622137962840497</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.001123169437050819</v>
+        <v>0.0004823528579436243</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.002155040157958865</v>
+        <v>0.0003090009558945894</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.0001886467798613012</v>
+        <v>0.00157054967712611</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.0003377068496774882</v>
+        <v>0.001474916702136397</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.001523953978903592</v>
+        <v>0.001802443992346525</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.001921484246850014</v>
+        <v>0.001872900640591979</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.0005721727502532303</v>
+        <v>0.0007396513246931136</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.001767372828908265</v>
+        <v>0.0004406601947266608</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.001481307088397443</v>
+        <v>0.0008972763316705823</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.000643440056592226</v>
+        <v>0.003233414143323898</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.007127502001821995</v>
+        <v>0.001828268053941429</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.00255813542753458</v>
+        <v>0.003158614505082369</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.004224959760904312</v>
+        <v>0.001729679643176496</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.001179306302219629</v>
+        <v>0.0002120610442943871</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.0005835497286170721</v>
+        <v>0.0003932635299861431</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.004865171387791634</v>
+        <v>0.0009249058784916997</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.0001040716306306422</v>
+        <v>0.001445175847038627</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.003667806508019567</v>
+        <v>0.0002360805519856513</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.001521096331998706</v>
+        <v>0.000460100214695558</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.001099549699574709</v>
+        <v>0.0002460525138303638</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.002503138734027743</v>
+        <v>0.001211396069265902</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.001285699079744518</v>
+        <v>0.001052818377502263</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.001073865918442607</v>
+        <v>0.00163926905952394</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.004727337043732405</v>
+        <v>0.001951850485056639</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.003041563089936972</v>
+        <v>0.001112898578867316</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.002248130040243268</v>
+        <v>0.00336954602971673</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.000627043133135885</v>
+        <v>0.004063386470079422</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.001551595982164145</v>
+        <v>0.0003972573904320598</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.00394172640517354</v>
+        <v>0.0006908638752065599</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.003864864585921168</v>
+        <v>0.00249137356877327</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.004793488420546055</v>
+        <v>0.001136179314926267</v>
       </c>
       <c r="FA15" t="n">
-        <v>5.644658813253045e-06</v>
+        <v>0.0002982823643833399</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.002077348995953798</v>
+        <v>0.0004168734303675592</v>
       </c>
       <c r="FC15" t="n">
-        <v>7.053092122077942e-05</v>
+        <v>0.00070076750125736</v>
       </c>
       <c r="FD15" t="n">
-        <v>7.509319402743131e-05</v>
+        <v>0.001895993947982788</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.001264785183593631</v>
+        <v>0.001635120483115315</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.001249811612069607</v>
+        <v>0.001466447836719453</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.001884985482320189</v>
+        <v>0.00059816415887326</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.0007730665965937078</v>
+        <v>0.0008614413673058152</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.004263038747012615</v>
+        <v>0.001897209323942661</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.002765137702226639</v>
+        <v>0.002421315293759108</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.001428056508302689</v>
+        <v>0.001208629109896719</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.003817977150902152</v>
+        <v>0.001148446113802493</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.001981714740395546</v>
+        <v>0.001344852615147829</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.0003905508492607623</v>
+        <v>0.001098757027648389</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.001918201800435781</v>
+        <v>0.001001542434096336</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.003883902681991458</v>
+        <v>0.001901992713101208</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.01109584234654903</v>
+        <v>0.001303351134993136</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.001455905265174806</v>
+        <v>0.002674686722457409</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.001524502411484718</v>
+        <v>0.002031112322583795</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.0007766747148707509</v>
+        <v>0.000311702664475888</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.002404133090749383</v>
+        <v>0.00214657187461853</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.0008060842519626021</v>
+        <v>0.0008319655316881835</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.001614504726603627</v>
+        <v>0.0007241158746182919</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.0001622793934075162</v>
+        <v>0.001149687450379133</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.001961624482646585</v>
+        <v>0.002676392439752817</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.002627839334309101</v>
+        <v>0.001728379284031689</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.0006092548137530684</v>
+        <v>0.001157073653303087</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.001635239226743579</v>
+        <v>0.0006299962988123298</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.00198930106125772</v>
+        <v>0.0006090408423915505</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.003652618732303381</v>
+        <v>0.001168292248621583</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.001104016788303852</v>
+        <v>0.002607307862490416</v>
       </c>
       <c r="GF15" t="n">
-        <v>4.87726938445121e-05</v>
+        <v>0.000306862813886255</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.001601038267835975</v>
+        <v>0.0008824312826618552</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0003412106016185135</v>
+        <v>2.815565130731557e-05</v>
       </c>
       <c r="B16" t="n">
-        <v>4.881840868620202e-05</v>
+        <v>0.001565709942951798</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004976906348019838</v>
+        <v>1.26674203784205e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>7.071567961247638e-05</v>
+        <v>0.000457170361187309</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000197937959455885</v>
+        <v>0.0002701076446101069</v>
       </c>
       <c r="F16" t="n">
-        <v>9.650631545810029e-05</v>
+        <v>0.0008186211343854666</v>
       </c>
       <c r="G16" t="n">
-        <v>5.685620999429375e-05</v>
+        <v>0.0001530087320134044</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0001029644190566614</v>
+        <v>0.0002840648230630904</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001864565565483645</v>
+        <v>0.0001367890799883753</v>
       </c>
       <c r="J16" t="n">
-        <v>0.000327121902955696</v>
+        <v>0.0001472130534239113</v>
       </c>
       <c r="K16" t="n">
-        <v>6.242640665732324e-05</v>
+        <v>0.00157888769172132</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0005120054120197892</v>
+        <v>0.0001077939014066942</v>
       </c>
       <c r="M16" t="n">
-        <v>2.936302735179197e-06</v>
+        <v>0.000343574647558853</v>
       </c>
       <c r="N16" t="n">
-        <v>4.440815246198326e-05</v>
+        <v>6.767595186829567e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>8.486974547849968e-05</v>
+        <v>0.0006443627644330263</v>
       </c>
       <c r="P16" t="n">
-        <v>8.164261817000806e-05</v>
+        <v>0.0001062222363543697</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.260480924742296e-05</v>
+        <v>0.0001366391807096079</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0001808329252526164</v>
+        <v>0.0002056571975117549</v>
       </c>
       <c r="S16" t="n">
-        <v>4.901346073893365e-06</v>
+        <v>4.221783456159756e-05</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0001081035807146691</v>
+        <v>0.0001331719686277211</v>
       </c>
       <c r="U16" t="n">
-        <v>1.342152427241672e-05</v>
+        <v>8.605309176346054e-08</v>
       </c>
       <c r="V16" t="n">
-        <v>9.185707313008606e-06</v>
+        <v>0.0001851942506618798</v>
       </c>
       <c r="W16" t="n">
-        <v>1.059987880580593e-06</v>
+        <v>0.0001550614833831787</v>
       </c>
       <c r="X16" t="n">
-        <v>4.944767351844348e-05</v>
+        <v>5.029028397984803e-05</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.059805749217048e-05</v>
+        <v>1.054737731465138e-05</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.219971641665325e-05</v>
+        <v>0.0002518523251637816</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.388152577419532e-05</v>
+        <v>0.000117480187327601</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.397182460204931e-06</v>
+        <v>0.0001337580324616283</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.842158599174581e-05</v>
+        <v>0.0001022394935716875</v>
       </c>
       <c r="AD16" t="n">
-        <v>5.507663445314392e-06</v>
+        <v>1.713298843242228e-06</v>
       </c>
       <c r="AE16" t="n">
-        <v>6.97972864145413e-05</v>
+        <v>2.026272522925865e-05</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.273116595257306e-05</v>
+        <v>0.0001428302639396861</v>
       </c>
       <c r="AG16" t="n">
-        <v>3.497700890875421e-05</v>
+        <v>0.0001016451788018458</v>
       </c>
       <c r="AH16" t="n">
-        <v>3.645577817223966e-05</v>
+        <v>3.739970270544291e-05</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.0001170746181742288</v>
+        <v>1.45267504194635e-05</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.911581582855433e-05</v>
+        <v>5.365829565562308e-05</v>
       </c>
       <c r="AK16" t="n">
-        <v>7.70314218243584e-05</v>
+        <v>0.0001755146950017661</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.0001073953171726316</v>
+        <v>0.0002128897467628121</v>
       </c>
       <c r="AM16" t="n">
-        <v>3.69142071576789e-05</v>
+        <v>0.0001380799221806228</v>
       </c>
       <c r="AN16" t="n">
-        <v>8.711245754966512e-05</v>
+        <v>3.494254997349344e-05</v>
       </c>
       <c r="AO16" t="n">
-        <v>3.327951162646059e-06</v>
+        <v>0.0001060866707121022</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.873155088105705e-05</v>
+        <v>0.0001001038472168148</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.465878196744598e-06</v>
+        <v>5.626632992061786e-05</v>
       </c>
       <c r="AR16" t="n">
-        <v>2.34183062275406e-05</v>
+        <v>3.728830779436976e-05</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.983727088372689e-05</v>
+        <v>5.289576802169904e-05</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.0001450497948098928</v>
+        <v>9.486376075074077e-05</v>
       </c>
       <c r="AU16" t="n">
-        <v>6.698926154058427e-05</v>
+        <v>0.001028591301292181</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.0002159904834115878</v>
+        <v>0.0002186918281950057</v>
       </c>
       <c r="AW16" t="n">
-        <v>8.178342250175774e-05</v>
+        <v>0.0001060617360053584</v>
       </c>
       <c r="AX16" t="n">
-        <v>7.664563781872857e-06</v>
+        <v>0.0001803828781703487</v>
       </c>
       <c r="AY16" t="n">
-        <v>9.278665675083175e-05</v>
+        <v>0.0004221648559905589</v>
       </c>
       <c r="AZ16" t="n">
-        <v>2.285250411659945e-05</v>
+        <v>0.0002505310112610459</v>
       </c>
       <c r="BA16" t="n">
-        <v>5.578004129347391e-05</v>
+        <v>3.567755629774183e-05</v>
       </c>
       <c r="BB16" t="n">
-        <v>3.652218583738431e-05</v>
+        <v>0.0001312583190156147</v>
       </c>
       <c r="BC16" t="n">
-        <v>5.066995800007135e-05</v>
+        <v>0.0001128134463215247</v>
       </c>
       <c r="BD16" t="n">
-        <v>4.079702193848789e-07</v>
+        <v>0.000443947094026953</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.000151208252646029</v>
+        <v>0.0002630425442475826</v>
       </c>
       <c r="BF16" t="n">
-        <v>9.471458724874537e-06</v>
+        <v>1.071199221769348e-06</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.0001157763472292572</v>
+        <v>0.000147396931424737</v>
       </c>
       <c r="BH16" t="n">
-        <v>4.334456025389954e-05</v>
+        <v>0.0004203035787213594</v>
       </c>
       <c r="BI16" t="n">
-        <v>7.107620331225917e-05</v>
+        <v>1.272783265449107e-07</v>
       </c>
       <c r="BJ16" t="n">
-        <v>2.41976431425428e-05</v>
+        <v>5.869686356163584e-05</v>
       </c>
       <c r="BK16" t="n">
-        <v>3.172425931552425e-05</v>
+        <v>0.0001869678089860827</v>
       </c>
       <c r="BL16" t="n">
-        <v>1.984698428714182e-05</v>
+        <v>0.0001216217497130856</v>
       </c>
       <c r="BM16" t="n">
-        <v>2.443762423354201e-05</v>
+        <v>0.0003040529845748097</v>
       </c>
       <c r="BN16" t="n">
-        <v>7.022888166829944e-05</v>
+        <v>0.0001011249842122197</v>
       </c>
       <c r="BO16" t="n">
-        <v>3.134450525976717e-05</v>
+        <v>0.0001102113528759219</v>
       </c>
       <c r="BP16" t="n">
-        <v>8.60053623910062e-05</v>
+        <v>0.0001172870543086901</v>
       </c>
       <c r="BQ16" t="n">
-        <v>3.391929567442276e-05</v>
+        <v>5.552703078137711e-05</v>
       </c>
       <c r="BR16" t="n">
-        <v>3.548667882569134e-05</v>
+        <v>0.0001465415698476136</v>
       </c>
       <c r="BS16" t="n">
-        <v>7.965449913172051e-05</v>
+        <v>5.76758902752772e-05</v>
       </c>
       <c r="BT16" t="n">
-        <v>9.066655366041232e-06</v>
+        <v>4.530306614469737e-05</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.0001348803925793618</v>
+        <v>1.996063292608596e-05</v>
       </c>
       <c r="BV16" t="n">
-        <v>9.655032044975087e-06</v>
+        <v>0.0006246178527362645</v>
       </c>
       <c r="BW16" t="n">
-        <v>8.271306433016434e-05</v>
+        <v>1.472930307500064e-05</v>
       </c>
       <c r="BX16" t="n">
-        <v>3.500636375974864e-05</v>
+        <v>8.236928260885179e-05</v>
       </c>
       <c r="BY16" t="n">
-        <v>8.030247408896685e-05</v>
+        <v>3.60163721779827e-05</v>
       </c>
       <c r="BZ16" t="n">
-        <v>3.586199454730377e-05</v>
+        <v>0.0001063782401615754</v>
       </c>
       <c r="CA16" t="n">
-        <v>2.732804205152206e-05</v>
+        <v>6.431875954149291e-05</v>
       </c>
       <c r="CB16" t="n">
-        <v>2.990816210513003e-05</v>
+        <v>7.064495730446652e-05</v>
       </c>
       <c r="CC16" t="n">
-        <v>8.520190021954477e-05</v>
+        <v>0.0001199721591547132</v>
       </c>
       <c r="CD16" t="n">
-        <v>7.262826693477109e-05</v>
+        <v>2.37017338804435e-05</v>
       </c>
       <c r="CE16" t="n">
-        <v>8.317152969539165e-05</v>
+        <v>0.0002411451132502407</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.000110437860712409</v>
+        <v>3.994231519754976e-05</v>
       </c>
       <c r="CG16" t="n">
-        <v>2.054370952464524e-06</v>
+        <v>4.340078157838434e-05</v>
       </c>
       <c r="CH16" t="n">
-        <v>3.316771471872926e-05</v>
+        <v>5.572563168243505e-05</v>
       </c>
       <c r="CI16" t="n">
-        <v>3.813698276644573e-05</v>
+        <v>9.413728548679501e-05</v>
       </c>
       <c r="CJ16" t="n">
-        <v>9.76562387222657e-06</v>
+        <v>9.027821943163872e-05</v>
       </c>
       <c r="CK16" t="n">
-        <v>2.037284684774932e-05</v>
+        <v>2.891020812967326e-06</v>
       </c>
       <c r="CL16" t="n">
-        <v>2.021016007347498e-05</v>
+        <v>3.252904934925027e-05</v>
       </c>
       <c r="CM16" t="n">
-        <v>7.362659744103439e-06</v>
+        <v>0.0003743809647858143</v>
       </c>
       <c r="CN16" t="n">
-        <v>8.169036300387233e-05</v>
+        <v>0.0002397179923718795</v>
       </c>
       <c r="CO16" t="n">
-        <v>1.998900734179188e-05</v>
+        <v>6.216447218321264e-05</v>
       </c>
       <c r="CP16" t="n">
-        <v>2.139281241397839e-05</v>
+        <v>0.0003700689412653446</v>
       </c>
       <c r="CQ16" t="n">
-        <v>9.028577187564224e-05</v>
+        <v>0.0001069603094947524</v>
       </c>
       <c r="CR16" t="n">
-        <v>7.520819781348109e-05</v>
+        <v>8.142924343701452e-05</v>
       </c>
       <c r="CS16" t="n">
-        <v>2.980954377562739e-05</v>
+        <v>0.000198571608052589</v>
       </c>
       <c r="CT16" t="n">
-        <v>2.136967668775469e-05</v>
+        <v>0.0002899517130572349</v>
       </c>
       <c r="CU16" t="n">
-        <v>2.616006167954765e-05</v>
+        <v>3.741211912711151e-05</v>
       </c>
       <c r="CV16" t="n">
-        <v>6.578308966709301e-05</v>
+        <v>2.502071947674267e-05</v>
       </c>
       <c r="CW16" t="n">
-        <v>7.560390076832846e-05</v>
+        <v>0.000206134922336787</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.0001171441545011476</v>
+        <v>3.500977618386969e-05</v>
       </c>
       <c r="CY16" t="n">
-        <v>1.032928139466094e-05</v>
+        <v>0.0001082533708540723</v>
       </c>
       <c r="CZ16" t="n">
-        <v>7.97569882706739e-05</v>
+        <v>4.958461067872122e-05</v>
       </c>
       <c r="DA16" t="n">
-        <v>3.503612970234826e-05</v>
+        <v>6.889667565701529e-05</v>
       </c>
       <c r="DB16" t="n">
-        <v>7.930366336950101e-06</v>
+        <v>8.774825982982293e-05</v>
       </c>
       <c r="DC16" t="n">
-        <v>1.222522587340791e-05</v>
+        <v>5.676104046870023e-05</v>
       </c>
       <c r="DD16" t="n">
-        <v>1.844175130827352e-05</v>
+        <v>5.599529686151072e-06</v>
       </c>
       <c r="DE16" t="n">
-        <v>2.392957321717404e-05</v>
+        <v>3.740864849532954e-05</v>
       </c>
       <c r="DF16" t="n">
-        <v>0.0001448217954020947</v>
+        <v>0.0002316227037226781</v>
       </c>
       <c r="DG16" t="n">
-        <v>8.032314508454874e-05</v>
+        <v>2.909305840148591e-05</v>
       </c>
       <c r="DH16" t="n">
-        <v>2.973651135107502e-06</v>
+        <v>0.0002416142087895423</v>
       </c>
       <c r="DI16" t="n">
-        <v>9.421145659871399e-05</v>
+        <v>0.000380815239623189</v>
       </c>
       <c r="DJ16" t="n">
-        <v>2.194430635427125e-05</v>
+        <v>0.0003470592782832682</v>
       </c>
       <c r="DK16" t="n">
-        <v>6.879660941194743e-05</v>
+        <v>6.751732871634886e-05</v>
       </c>
       <c r="DL16" t="n">
-        <v>5.706042065867223e-05</v>
+        <v>9.781880362424999e-05</v>
       </c>
       <c r="DM16" t="n">
-        <v>2.76240552921081e-06</v>
+        <v>0.0003054027329199016</v>
       </c>
       <c r="DN16" t="n">
-        <v>1.028743281494826e-05</v>
+        <v>5.577705087489448e-05</v>
       </c>
       <c r="DO16" t="n">
-        <v>9.184400551021099e-05</v>
+        <v>8.433853508904576e-05</v>
       </c>
       <c r="DP16" t="n">
-        <v>3.762659252970479e-05</v>
+        <v>0.0001782328763511032</v>
       </c>
       <c r="DQ16" t="n">
-        <v>2.664334715518635e-06</v>
+        <v>2.101619793393183e-05</v>
       </c>
       <c r="DR16" t="n">
-        <v>2.425191087240819e-05</v>
+        <v>2.562943700468168e-05</v>
       </c>
       <c r="DS16" t="n">
-        <v>6.112986011430621e-05</v>
+        <v>2.991149813169613e-05</v>
       </c>
       <c r="DT16" t="n">
-        <v>5.408402103057597e-06</v>
+        <v>0.000231745361816138</v>
       </c>
       <c r="DU16" t="n">
-        <v>3.212844603694975e-07</v>
+        <v>2.985868741234299e-05</v>
       </c>
       <c r="DV16" t="n">
-        <v>1.476056331739528e-05</v>
+        <v>0.0001043134907376952</v>
       </c>
       <c r="DW16" t="n">
-        <v>4.630506009561941e-05</v>
+        <v>7.583787373732775e-05</v>
       </c>
       <c r="DX16" t="n">
-        <v>2.753370608843397e-05</v>
+        <v>0.0001728483766783029</v>
       </c>
       <c r="DY16" t="n">
-        <v>5.866409082955215e-06</v>
+        <v>0.0001218558099935763</v>
       </c>
       <c r="DZ16" t="n">
-        <v>3.186453977832571e-05</v>
+        <v>0.0001393405982526019</v>
       </c>
       <c r="EA16" t="n">
-        <v>3.010773252754007e-05</v>
+        <v>0.0001753268879838288</v>
       </c>
       <c r="EB16" t="n">
-        <v>4.037912003695965e-05</v>
+        <v>2.649946509336587e-05</v>
       </c>
       <c r="EC16" t="n">
-        <v>1.603749296918977e-05</v>
+        <v>2.783618947432842e-05</v>
       </c>
       <c r="ED16" t="n">
-        <v>2.864862290152814e-05</v>
+        <v>9.537135338177904e-05</v>
       </c>
       <c r="EE16" t="n">
-        <v>1.018532020680141e-05</v>
+        <v>0.0001443779183318838</v>
       </c>
       <c r="EF16" t="n">
-        <v>0.0001111173914978281</v>
+        <v>3.257816570112482e-05</v>
       </c>
       <c r="EG16" t="n">
-        <v>4.700163844972849e-05</v>
+        <v>0.0002851857279893011</v>
       </c>
       <c r="EH16" t="n">
-        <v>0.0001219220284838229</v>
+        <v>6.827378456364386e-06</v>
       </c>
       <c r="EI16" t="n">
-        <v>2.701030462048948e-05</v>
+        <v>1.40335614560172e-05</v>
       </c>
       <c r="EJ16" t="n">
-        <v>3.414239472476766e-05</v>
+        <v>3.204101085430011e-05</v>
       </c>
       <c r="EK16" t="n">
-        <v>9.176113962894306e-05</v>
+        <v>1.037844776874408e-05</v>
       </c>
       <c r="EL16" t="n">
-        <v>2.615652192616835e-07</v>
+        <v>0.0001023038348648697</v>
       </c>
       <c r="EM16" t="n">
-        <v>7.245907909236848e-05</v>
+        <v>8.813582826405764e-05</v>
       </c>
       <c r="EN16" t="n">
-        <v>4.087977868039161e-05</v>
+        <v>4.381749386084266e-05</v>
       </c>
       <c r="EO16" t="n">
-        <v>3.022820965270512e-05</v>
+        <v>7.866730447858572e-05</v>
       </c>
       <c r="EP16" t="n">
-        <v>2.044656503130682e-05</v>
+        <v>6.176826718728989e-05</v>
       </c>
       <c r="EQ16" t="n">
-        <v>2.342149309697561e-05</v>
+        <v>5.438490916276351e-05</v>
       </c>
       <c r="ER16" t="n">
-        <v>1.094345498131588e-05</v>
+        <v>8.931293996283785e-05</v>
       </c>
       <c r="ES16" t="n">
-        <v>7.649579492863268e-05</v>
+        <v>6.040312291588634e-05</v>
       </c>
       <c r="ET16" t="n">
-        <v>3.235622716601938e-05</v>
+        <v>0.0001464099332224578</v>
       </c>
       <c r="EU16" t="n">
-        <v>8.018937478482258e-06</v>
+        <v>0.0002262975904159248</v>
       </c>
       <c r="EV16" t="n">
-        <v>1.331352723354939e-05</v>
+        <v>0.0002353776653762907</v>
       </c>
       <c r="EW16" t="n">
-        <v>3.036964699276723e-05</v>
+        <v>1.068264828063548e-05</v>
       </c>
       <c r="EX16" t="n">
-        <v>6.882700836285949e-05</v>
+        <v>3.089781603193842e-05</v>
       </c>
       <c r="EY16" t="n">
-        <v>6.704474799335003e-05</v>
+        <v>0.000215436695725657</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.000113783375127241</v>
+        <v>8.540715498384088e-06</v>
       </c>
       <c r="FA16" t="n">
-        <v>5.502013664226979e-06</v>
+        <v>6.364122782542836e-06</v>
       </c>
       <c r="FB16" t="n">
-        <v>5.867097570444457e-05</v>
+        <v>1.040840015775757e-05</v>
       </c>
       <c r="FC16" t="n">
-        <v>8.762005563767161e-06</v>
+        <v>8.776437607593834e-05</v>
       </c>
       <c r="FD16" t="n">
-        <v>9.490067895967513e-06</v>
+        <v>0.0001358969311695546</v>
       </c>
       <c r="FE16" t="n">
-        <v>3.245749394409359e-05</v>
+        <v>9.136474545812234e-06</v>
       </c>
       <c r="FF16" t="n">
-        <v>2.850035161827691e-05</v>
+        <v>5.873571717529558e-05</v>
       </c>
       <c r="FG16" t="n">
-        <v>2.744203266047407e-05</v>
+        <v>3.23895292240195e-05</v>
       </c>
       <c r="FH16" t="n">
-        <v>3.815023228526115e-05</v>
+        <v>9.418024274054915e-05</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.00010645038128132</v>
+        <v>3.938126610592008e-06</v>
       </c>
       <c r="FJ16" t="n">
-        <v>8.136101678246632e-05</v>
+        <v>0.000138080125907436</v>
       </c>
       <c r="FK16" t="n">
-        <v>2.795556429191492e-05</v>
+        <v>3.374952211743221e-05</v>
       </c>
       <c r="FL16" t="n">
-        <v>5.381053779274225e-05</v>
+        <v>4.739545693155378e-05</v>
       </c>
       <c r="FM16" t="n">
-        <v>1.277932005905313e-05</v>
+        <v>0.0001460894709452987</v>
       </c>
       <c r="FN16" t="n">
-        <v>2.272880556120072e-05</v>
+        <v>1.402810084982775e-05</v>
       </c>
       <c r="FO16" t="n">
-        <v>3.208401903975755e-05</v>
+        <v>5.791188596049324e-05</v>
       </c>
       <c r="FP16" t="n">
-        <v>6.51759619358927e-05</v>
+        <v>0.000146779915667139</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0.0002261664194520563</v>
+        <v>0.0002677395823411644</v>
       </c>
       <c r="FR16" t="n">
-        <v>6.215400935616344e-05</v>
+        <v>8.363074448425323e-05</v>
       </c>
       <c r="FS16" t="n">
-        <v>3.253880277043208e-05</v>
+        <v>0.0001176818477688357</v>
       </c>
       <c r="FT16" t="n">
-        <v>4.827811426366679e-05</v>
+        <v>7.024089427432045e-06</v>
       </c>
       <c r="FU16" t="n">
-        <v>6.495380512205884e-05</v>
+        <v>0.0001435456506442279</v>
       </c>
       <c r="FV16" t="n">
-        <v>6.358236532832962e-06</v>
+        <v>0.0001602158881723881</v>
       </c>
       <c r="FW16" t="n">
-        <v>7.618636118422728e-06</v>
+        <v>1.497214361734223e-05</v>
       </c>
       <c r="FX16" t="n">
-        <v>1.851174420153257e-05</v>
+        <v>1.210026493936311e-05</v>
       </c>
       <c r="FY16" t="n">
-        <v>5.346769466996193e-05</v>
+        <v>0.0002173978864448145</v>
       </c>
       <c r="FZ16" t="n">
-        <v>4.627748421626166e-05</v>
+        <v>1.940096626640297e-05</v>
       </c>
       <c r="GA16" t="n">
-        <v>1.453268851037137e-06</v>
+        <v>2.728773324633949e-05</v>
       </c>
       <c r="GB16" t="n">
-        <v>1.839920514612459e-05</v>
+        <v>2.798049899865873e-05</v>
       </c>
       <c r="GC16" t="n">
-        <v>7.57076995796524e-05</v>
+        <v>0.0001389385579386726</v>
       </c>
       <c r="GD16" t="n">
-        <v>7.134370389394462e-05</v>
+        <v>0.0001644201402086765</v>
       </c>
       <c r="GE16" t="n">
-        <v>2.964865780086257e-05</v>
+        <v>0.0001909704005811363</v>
       </c>
       <c r="GF16" t="n">
-        <v>6.78215019433992e-06</v>
+        <v>5.719038745155558e-05</v>
       </c>
       <c r="GG16" t="n">
-        <v>4.546919808490202e-05</v>
+        <v>3.400946297915652e-05</v>
       </c>
     </row>
   </sheetData>
